--- a/rozjazdy zbiorcze maj.xlsx
+++ b/rozjazdy zbiorcze maj.xlsx
@@ -13,15 +13,17 @@
   </bookViews>
   <sheets>
     <sheet name="Pakiet_Zlecen_WTA_2019_05_06s.s" sheetId="1" r:id="rId1"/>
-    <sheet name="rozjazdy 18.05" sheetId="3" r:id="rId2"/>
-    <sheet name="rozjazdy 13.05" sheetId="2" r:id="rId3"/>
+    <sheet name="rozjazdy 21.05" sheetId="5" r:id="rId2"/>
+    <sheet name="rozjazdy 20.05" sheetId="4" r:id="rId3"/>
+    <sheet name="rozjazdy 18.05" sheetId="3" r:id="rId4"/>
+    <sheet name="rozjazdy 13.05" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="180">
   <si>
     <t>SALON PRASOWY-TOTOLOTEK BOGUSŁAW KLEMENT</t>
   </si>
@@ -551,12 +553,118 @@
   <si>
     <t>między jaworem a swiebodzicami ( dwa adresy - dopisz )</t>
   </si>
+  <si>
+    <t xml:space="preserve">HYDROTECH S.C. ARTUR HOTIUK, MARIUSZ HOTIUK  </t>
+  </si>
+  <si>
+    <t>Częstochowska 36, Wrocław</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 54-031</t>
+  </si>
+  <si>
+    <t>zlecenie wykonano 20.05</t>
+  </si>
+  <si>
+    <r>
+      <t>1 -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hallera 186/16 Wrocław</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> //                                 // 2 - Przyjaźni 2i/16, 53-030 Wrocław                     3-  Słonimskiego 3j/2,                                </t>
+    </r>
+  </si>
+  <si>
+    <t>zlecenie wykonano 21.05</t>
+  </si>
+  <si>
+    <t>Zwycięska 19/8, 53-033 Wrocław</t>
+  </si>
+  <si>
+    <t>Jelena Sobczyk</t>
+  </si>
+  <si>
+    <t>Gitarowa 11/1, 51-531 Wrocław</t>
+  </si>
+  <si>
+    <t>Erwin Duda</t>
+  </si>
+  <si>
+    <t>BRZOZOWA 28/13, 52-200 WYSOKA</t>
+  </si>
+  <si>
+    <t>Anna KATYŃSKA</t>
+  </si>
+  <si>
+    <t>KOMOROWSKIEGO 63A, 51-210 WROCŁAW</t>
+  </si>
+  <si>
+    <t>KAZIMIERZ KUCZAJ</t>
+  </si>
+  <si>
+    <t>Ołtaszyńska 100/4, 53-034 Wrocław</t>
+  </si>
+  <si>
+    <t>Michał Choroszy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRODUCENT BIELIZNY HIACYNT JACEK SZWAJGIEL  </t>
+  </si>
+  <si>
+    <t>1 Maja 16/5, 55-200 Oława</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0003868706</t>
+  </si>
+  <si>
+    <t>53-624</t>
+  </si>
+  <si>
+    <t>LUBIŃSKA 4/7 , WROCŁAW</t>
+  </si>
+  <si>
+    <t>0004742759</t>
+  </si>
+  <si>
+    <t>51-166</t>
+  </si>
+  <si>
+    <t>WROCŁAW, KRZYWOUSTEGO 69/7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0004067201</t>
+  </si>
+  <si>
+    <t>52-213</t>
+  </si>
+  <si>
+    <t>WROCŁAW, CZOŁGISTÓW 4 </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -755,8 +863,33 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -934,6 +1067,18 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1121,7 +1266,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
@@ -1181,7 +1326,6 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="9"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="8" xfId="15" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="15" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1213,6 +1357,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" xfId="39"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="39" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — akcent 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1534,10 +1698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1551,151 +1715,154 @@
     <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="39" t="s">
         <v>133</v>
       </c>
       <c r="E1" s="23"/>
       <c r="G1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="11">
+      <c r="H1" s="51">
         <v>35</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="37" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="36" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="35"/>
       <c r="G2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="46">
         <v>65</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="37"/>
+      <c r="E3" s="36"/>
       <c r="G3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="51">
         <v>35</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="I3" s="37" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="36" t="s">
+      <c r="B4" s="34"/>
+      <c r="C4" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="35"/>
       <c r="G4" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="51">
         <v>35</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="I4" s="37" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="36" t="s">
+      <c r="B5" s="34"/>
+      <c r="C5" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="35"/>
       <c r="G5" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="56">
         <v>35</v>
       </c>
-      <c r="I5" s="38"/>
-    </row>
-    <row r="6" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I5" s="37"/>
+    </row>
+    <row r="6" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="35"/>
       <c r="G6" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="56">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="31">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H7" s="2">
+        <v>35</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -1703,362 +1870,355 @@
       <c r="H8" s="2">
         <v>35</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K8" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="G9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="59">
         <v>35</v>
       </c>
-      <c r="K9" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="K9" s="25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="E10" s="36"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="59">
+        <v>35</v>
+      </c>
+      <c r="I10" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="K10" s="30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B11" s="34"/>
+      <c r="C11" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="E11" s="36"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="59">
+        <v>35</v>
+      </c>
+      <c r="K11" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" s="32"/>
+    </row>
+    <row r="12" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6" t="s">
+      <c r="C12" s="5"/>
+      <c r="D12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E12" s="4">
         <v>734106531</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H12" s="8">
         <v>65</v>
       </c>
-      <c r="K10" s="25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="26">
+      <c r="K12" s="47" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="31">
+        <v>65</v>
+      </c>
+      <c r="K13" s="51" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="26">
         <v>3377034</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B14" t="s">
         <v>0</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C14" t="s">
         <v>1</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D14" t="s">
         <v>5</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G14" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H14" s="2">
         <v>13.4</v>
       </c>
-      <c r="K11" s="30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="26">
+      <c r="K14" s="56" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="26">
         <v>3377017</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B15" t="s">
         <v>2</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C15" t="s">
         <v>3</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D15" t="s">
         <v>4</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G15" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H15" s="2">
         <v>13.4</v>
       </c>
-      <c r="K12" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="L12" s="32"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="27">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="27">
         <v>3370942</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D16" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G16" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H16" s="25">
         <v>13.4</v>
       </c>
-      <c r="K13" s="48" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="25">
-        <v>35</v>
-      </c>
-      <c r="I14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="25">
-        <v>35</v>
-      </c>
-      <c r="I15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" s="25">
-        <v>65</v>
-      </c>
-      <c r="I16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>36</v>
       </c>
       <c r="H17" s="25">
+        <v>35</v>
+      </c>
+      <c r="I17" s="11"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="25">
+        <v>35</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="25">
         <v>65</v>
       </c>
-      <c r="I17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="28">
+      <c r="I19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="25">
+        <v>65</v>
+      </c>
+      <c r="I20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="28">
         <v>3385881</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B21" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D21" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="29" t="s">
+      <c r="G21" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="H18" s="30">
+      <c r="H21" s="30">
         <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
-        <v>3388499</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H19" s="33">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
-        <v>3388641</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H20" s="33">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
-        <v>3388568</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H21" s="47">
-        <v>22.5</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
-        <v>3388525</v>
+        <v>3388499</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="11" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H22" s="47">
-        <v>22.5</v>
+      <c r="H22" s="57">
+        <v>6.7</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
-        <v>3388505</v>
+        <v>3388641</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="11" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H23" s="47">
-        <v>22.5</v>
+      <c r="H23" s="57">
+        <v>6.7</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
-        <v>3388495</v>
+        <v>3388568</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>60</v>
@@ -2066,145 +2226,145 @@
       <c r="C24" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="39" t="s">
         <v>62</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H24" s="47">
+      <c r="H24" s="46">
         <v>22.5</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
-        <v>3388603</v>
+        <v>3388525</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>69</v>
+        <v>61</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>62</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="11" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H25" s="34">
-        <v>13.4</v>
+      <c r="H25" s="46">
+        <v>22.5</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
-        <v>3388598</v>
+        <v>3388505</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26" s="11">
-        <v>6250591</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="11"/>
       <c r="F26" s="11" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H26" s="47">
-        <v>90</v>
+      <c r="H26" s="46">
+        <v>22.5</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
-        <v>3388490</v>
+        <v>3388495</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>77</v>
+        <v>61</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>62</v>
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="11" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H27" s="34">
-        <v>3.35</v>
+      <c r="H27" s="46">
+        <v>22.5</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
-        <v>3388576</v>
+        <v>3388603</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>77</v>
+        <v>68</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="11" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H28" s="34">
-        <v>3.35</v>
+      <c r="H28" s="58">
+        <v>13.4</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
-        <v>3388533</v>
+        <v>3388598</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E29" s="11"/>
+        <v>72</v>
+      </c>
+      <c r="D29" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="11">
+        <v>6250591</v>
+      </c>
       <c r="F29" s="11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H29" s="34">
-        <v>3.35</v>
+      <c r="H29" s="46">
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
-        <v>3388541</v>
+        <v>3388490</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>75</v>
@@ -2217,368 +2377,670 @@
       </c>
       <c r="E30" s="11"/>
       <c r="F30" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G30" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H30" s="34">
+      <c r="H30" s="58">
         <v>3.35</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
-        <v>3077115</v>
+        <v>3388576</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E31" s="11"/>
       <c r="F31" s="11" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="H31" s="47">
-        <v>70</v>
-      </c>
-      <c r="I31">
-        <v>90</v>
+        <v>58</v>
+      </c>
+      <c r="H31" s="58">
+        <v>3.35</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
-        <v>3388482</v>
+        <v>3388533</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E32" s="11"/>
       <c r="F32" s="11" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G32" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H32" s="47">
-        <v>6.7</v>
-      </c>
-      <c r="I32">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H32" s="58">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
-        <v>3388521</v>
+        <v>3388541</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E33" s="11"/>
       <c r="F33" s="11" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H33" s="47">
-        <v>6.7</v>
-      </c>
-      <c r="I33">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H33" s="58">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
-        <v>3388794</v>
+        <v>3077115</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>94</v>
+        <v>83</v>
+      </c>
+      <c r="D34" s="39" t="s">
+        <v>84</v>
       </c>
       <c r="E34" s="11"/>
       <c r="F34" s="11" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H34" s="34">
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="H34" s="46">
+        <v>70</v>
+      </c>
+      <c r="I34">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
-        <v>3388519</v>
+        <v>3388482</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>98</v>
+        <v>88</v>
+      </c>
+      <c r="D35" s="39" t="s">
+        <v>89</v>
       </c>
       <c r="E35" s="11"/>
       <c r="F35" s="11" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H35" s="34">
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H35" s="46">
+        <v>6.7</v>
+      </c>
+      <c r="I35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
-        <v>3388693</v>
+        <v>3388521</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>102</v>
+        <v>88</v>
+      </c>
+      <c r="D36" s="39" t="s">
+        <v>89</v>
       </c>
       <c r="E36" s="11"/>
       <c r="F36" s="11" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="G36" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H36" s="34">
+      <c r="H36" s="46">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
-        <v>3388536</v>
+        <v>3388794</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="11" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="G37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H37" s="34">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H37" s="33">
+        <v>13.4</v>
+      </c>
+      <c r="I37">
+        <v>13.4</v>
+      </c>
+      <c r="J37">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
-        <v>3345534</v>
+        <v>3388519</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E38" s="11"/>
       <c r="F38" s="11" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H38" s="47">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="H38" s="58">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
-        <v>3388620</v>
+        <v>3388693</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E39" s="11"/>
       <c r="F39" s="11" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H39" s="47">
+      <c r="H39" s="58">
         <v>6.7</v>
       </c>
-      <c r="I39" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
-        <v>3388488</v>
+        <v>3388536</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="E40" s="11"/>
       <c r="F40" s="11" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="G40" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H40" s="47">
+      <c r="H40" s="58">
         <v>6.7</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
-        <v>3388573</v>
+        <v>3345534</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E41" s="11">
-        <v>8240436</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="D41" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="E41" s="11"/>
       <c r="F41" s="11" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H41" s="47">
+        <v>19</v>
+      </c>
+      <c r="H41" s="46">
         <v>90</v>
       </c>
-      <c r="I41" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
-        <v>3388646</v>
+        <v>3388620</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>120</v>
+        <v>110</v>
+      </c>
+      <c r="D42" s="39" t="s">
+        <v>111</v>
       </c>
       <c r="E42" s="11"/>
       <c r="F42" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" s="46">
+        <v>6.7</v>
+      </c>
+      <c r="I42" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
+        <v>3388488</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H43" s="46">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
+        <v>3388573</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D44" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="E44" s="11">
+        <v>8240436</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H44" s="46">
+        <v>90</v>
+      </c>
+      <c r="I44" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="11">
+        <v>3388646</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="G42" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H42" s="34">
+      <c r="G45" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H45" s="58">
         <v>13.4</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="11">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="11">
         <v>3388643</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B46" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C46" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D46" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E46" s="11">
         <v>5222179</v>
       </c>
-      <c r="F43" s="11" t="s">
+      <c r="F46" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="G43" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H43" s="47">
+      <c r="G46" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H46" s="46">
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="11">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="11">
         <v>2634834</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B47" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C47" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D47" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11" t="s">
+      <c r="E47" s="11"/>
+      <c r="F47" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="G44" s="11" t="s">
+      <c r="G47" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="H44" s="34">
+      <c r="H47" s="58">
         <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="28">
+        <v>3389861</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C48" t="s">
+        <v>155</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="F48" s="11">
+        <v>523448</v>
+      </c>
+      <c r="G48" t="s">
+        <v>6</v>
+      </c>
+      <c r="H48" s="58">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="28">
+        <v>3277813</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="F49" s="9">
+        <v>517.86</v>
+      </c>
+      <c r="G49" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49" s="11">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="28">
+        <v>3390706</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="F50" s="9">
+        <v>3538.14</v>
+      </c>
+      <c r="G50" t="s">
+        <v>58</v>
+      </c>
+      <c r="H50" s="11">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="28">
+        <v>3390685</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F51" s="9">
+        <v>1599.81</v>
+      </c>
+      <c r="G51" t="s">
+        <v>58</v>
+      </c>
+      <c r="H51" s="11">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="28">
+        <v>3282647</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F52" s="9">
+        <v>354.32</v>
+      </c>
+      <c r="G52" t="s">
+        <v>58</v>
+      </c>
+      <c r="H52">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="28">
+        <v>3390714</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F53" s="9">
+        <v>10469.780000000001</v>
+      </c>
+      <c r="G53" t="s">
+        <v>58</v>
+      </c>
+      <c r="H53">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="28">
+        <v>3282649</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F54" s="9">
+        <v>254.94</v>
+      </c>
+      <c r="G54" t="s">
+        <v>58</v>
+      </c>
+      <c r="H54">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="28">
+        <v>3282639</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C55" s="11"/>
+      <c r="D55" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F55" s="9">
+        <v>1773.28</v>
+      </c>
+      <c r="G55" t="s">
+        <v>58</v>
+      </c>
+      <c r="H55">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="28">
+        <v>3390742</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F56" s="9">
+        <v>8054.93</v>
+      </c>
+      <c r="G56" t="s">
+        <v>58</v>
+      </c>
+      <c r="H56">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="28">
+        <v>3390695</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F57" s="9">
+        <v>96.44</v>
+      </c>
+      <c r="G57" t="s">
+        <v>58</v>
+      </c>
+      <c r="H57" s="11">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="28">
+        <v>3389888</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F58" s="9">
+        <v>2811.39</v>
+      </c>
+      <c r="G58" t="s">
+        <v>6</v>
+      </c>
+      <c r="H58">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2588,6 +3050,631 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J22" sqref="J21:J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="21" customWidth="1"/>
+    <col min="5" max="5" width="1.7109375" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13">
+        <v>3388794</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="38">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="38"/>
+    </row>
+    <row r="3" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>3388499</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="52">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>3388641</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="52">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="52"/>
+    </row>
+    <row r="6" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>3388646</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="38">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="38"/>
+    </row>
+    <row r="8" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>3388490</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="38">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>3388576</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="38">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>3388533</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="38">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>3388541</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="38">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="38"/>
+    </row>
+    <row r="13" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>3388519</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="38">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="38"/>
+    </row>
+    <row r="15" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" s="41"/>
+      <c r="C15" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="E15" s="44"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="13">
+        <v>35</v>
+      </c>
+      <c r="I15" s="37"/>
+    </row>
+    <row r="16" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="40"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="37"/>
+    </row>
+    <row r="17" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="E17" s="44"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="13">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="40"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>2634834</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="H19" s="38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="38"/>
+    </row>
+    <row r="21" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <v>3388603</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="38">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="38"/>
+    </row>
+    <row r="23" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="53">
+        <v>3389861</v>
+      </c>
+      <c r="B23" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="E23" s="24"/>
+      <c r="F23" s="13">
+        <v>523448</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="38">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="38"/>
+    </row>
+    <row r="25" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
+        <v>3388693</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" s="38">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
+        <v>3388536</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="38">
+        <v>6.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" style="21" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="44"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="13">
+        <v>35</v>
+      </c>
+      <c r="I1" s="49" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="1:9" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="13">
+        <v>35</v>
+      </c>
+      <c r="I3" s="49" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:9" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" s="44"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="13">
+        <v>35</v>
+      </c>
+      <c r="I5" s="49" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="36"/>
+      <c r="G7" s="29"/>
+      <c r="I7" s="37"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
@@ -2608,19 +3695,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="43" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="46" t="s">
+      <c r="E1" s="44"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="45" t="s">
         <v>10</v>
       </c>
       <c r="H1" s="13">
@@ -2660,7 +3747,7 @@
       <c r="G3" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="39">
+      <c r="H3" s="38">
         <v>22.5</v>
       </c>
     </row>
@@ -2684,7 +3771,7 @@
       <c r="G4" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H4" s="39">
+      <c r="H4" s="38">
         <v>22.5</v>
       </c>
     </row>
@@ -2708,7 +3795,7 @@
       <c r="G5" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="39">
+      <c r="H5" s="38">
         <v>22.5</v>
       </c>
     </row>
@@ -2732,7 +3819,7 @@
       <c r="G6" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="39">
+      <c r="H6" s="38">
         <v>22.5</v>
       </c>
     </row>
@@ -2744,7 +3831,7 @@
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
-      <c r="H7" s="39"/>
+      <c r="H7" s="38"/>
     </row>
     <row r="8" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
@@ -2768,7 +3855,7 @@
       <c r="G8" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="39">
+      <c r="H8" s="38">
         <v>90</v>
       </c>
     </row>
@@ -2780,7 +3867,7 @@
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
-      <c r="H9" s="39"/>
+      <c r="H9" s="38"/>
     </row>
     <row r="10" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
@@ -2804,7 +3891,7 @@
       <c r="G10" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="38">
         <v>90</v>
       </c>
       <c r="I10" s="11" t="s">
@@ -2819,7 +3906,7 @@
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
-      <c r="H11" s="39"/>
+      <c r="H11" s="38"/>
     </row>
     <row r="12" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
@@ -2841,7 +3928,7 @@
       <c r="G12" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="38">
         <v>70</v>
       </c>
       <c r="I12" s="11">
@@ -2856,7 +3943,7 @@
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
-      <c r="H13" s="39"/>
+      <c r="H13" s="38"/>
     </row>
     <row r="14" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
@@ -2880,7 +3967,7 @@
       <c r="G14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H14" s="39">
+      <c r="H14" s="38">
         <v>90</v>
       </c>
     </row>
@@ -2892,7 +3979,7 @@
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
-      <c r="H15" s="39"/>
+      <c r="H15" s="38"/>
     </row>
     <row r="16" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
@@ -2914,7 +4001,7 @@
       <c r="G16" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="39">
+      <c r="H16" s="38">
         <v>90</v>
       </c>
     </row>
@@ -2926,7 +4013,7 @@
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
-      <c r="H17" s="39"/>
+      <c r="H17" s="38"/>
     </row>
     <row r="18" spans="1:10" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
@@ -2948,7 +4035,7 @@
       <c r="G18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H18" s="39">
+      <c r="H18" s="38">
         <v>6.7</v>
       </c>
       <c r="I18" s="11">
@@ -2978,7 +4065,7 @@
       <c r="G19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H19" s="39">
+      <c r="H19" s="38">
         <v>6.7</v>
       </c>
       <c r="I19" s="11">
@@ -2993,7 +4080,7 @@
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
-      <c r="H20" s="39"/>
+      <c r="H20" s="38"/>
     </row>
     <row r="21" spans="1:10" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
@@ -3015,7 +4102,7 @@
       <c r="G21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H21" s="39">
+      <c r="H21" s="38">
         <v>6.7</v>
       </c>
       <c r="I21" s="11">
@@ -3042,7 +4129,7 @@
       <c r="G22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H22" s="39">
+      <c r="H22" s="38">
         <v>6.7</v>
       </c>
       <c r="I22" s="11">
@@ -3055,7 +4142,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>

--- a/rozjazdy zbiorcze maj.xlsx
+++ b/rozjazdy zbiorcze maj.xlsx
@@ -13,17 +13,19 @@
   </bookViews>
   <sheets>
     <sheet name="Pakiet_Zlecen_WTA_2019_05_06s.s" sheetId="1" r:id="rId1"/>
-    <sheet name="rozjazdy 21.05" sheetId="5" r:id="rId2"/>
-    <sheet name="rozjazdy 20.05" sheetId="4" r:id="rId3"/>
-    <sheet name="rozjazdy 18.05" sheetId="3" r:id="rId4"/>
-    <sheet name="rozjazdy 13.05" sheetId="2" r:id="rId5"/>
+    <sheet name="rozjazdy 23.05" sheetId="6" r:id="rId2"/>
+    <sheet name="rozjady 24.05" sheetId="7" r:id="rId3"/>
+    <sheet name="rozjazdy 21.05" sheetId="5" r:id="rId4"/>
+    <sheet name="rozjazdy 20.05" sheetId="4" r:id="rId5"/>
+    <sheet name="rozjazdy 18.05" sheetId="3" r:id="rId6"/>
+    <sheet name="rozjazdy 13.05" sheetId="2" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="206">
   <si>
     <t>SALON PRASOWY-TOTOLOTEK BOGUSŁAW KLEMENT</t>
   </si>
@@ -363,23 +365,6 @@
     <t>53-203</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Hallera 186/16 Wrocław // 4457788 - Słonimskiego 3j/2, 50-304 Wrocław // </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4458015 - Przyjaźni 2i/16, 53-030 Wrocław</t>
-    </r>
-  </si>
-  <si>
     <t>4993.33</t>
   </si>
   <si>
@@ -546,9 +531,6 @@
   </si>
   <si>
     <t>zlecenie wykonano 18.05</t>
-  </si>
-  <si>
-    <t>Ciechanowice 138, 58-410 Ciechanowice // P</t>
   </si>
   <si>
     <t>między jaworem a swiebodzicami ( dwa adresy - dopisz )</t>
@@ -659,12 +641,153 @@
   <si>
     <t>WROCŁAW, CZOŁGISTÓW 4 </t>
   </si>
+  <si>
+    <t>F/2192/02/2018/1</t>
+  </si>
+  <si>
+    <t>Dobrzykowice, Jagodowa 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Słonimskiego 3j/2,                                </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hallera 186/16 Wrocław</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> // </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Słonimskiego 3j/2, 50-304 Wrocław</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> // </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Przyjaźni 2i/16, 53-030 Wrocław</t>
+    </r>
+  </si>
+  <si>
+    <t>zlecenie wykonano 23.05</t>
+  </si>
+  <si>
+    <t>Ogrodowa 15/4, 56-120 Brzeg Dolny</t>
+  </si>
+  <si>
+    <t>Tobiasz Płaczek</t>
+  </si>
+  <si>
+    <t>MATEUSZ JAGODZIŃSKI</t>
+  </si>
+  <si>
+    <t>KOLEJOWA 8A/4, 57-522 DOMASZKÓW</t>
+  </si>
+  <si>
+    <t>Jacek Socha / Mateusz Socha</t>
+  </si>
+  <si>
+    <t>Międzylesie</t>
+  </si>
+  <si>
+    <t>F/0554/11/2018/1</t>
+  </si>
+  <si>
+    <t>Jacek Ciesielski</t>
+  </si>
+  <si>
+    <t>/90 ?</t>
+  </si>
+  <si>
+    <t>wizyta na dwóch adresach</t>
+  </si>
+  <si>
+    <t>Ciechanowice 138, 58-410 Ciechanowice // Paszowice 144</t>
+  </si>
+  <si>
+    <t>37km Wrocław</t>
+  </si>
+  <si>
+    <t>PODTYNIE 14, 57-300 KŁODZKO // ??????WOLNE 129 57-300 ?????</t>
+  </si>
+  <si>
+    <t>zlecenie wykonano 25.05</t>
+  </si>
+  <si>
+    <t>zlecenie wykonano 26.05</t>
+  </si>
+  <si>
+    <t>ZACHODNIA 50/84, 53-622 WROCŁAW</t>
+  </si>
+  <si>
+    <t>lc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> miala być wpłata 24.05 - brak księgowania</t>
+  </si>
+  <si>
+    <t>WOJCIECH BOROŃ</t>
+  </si>
+  <si>
+    <t>Hugona Kołłątaja 16/2A, 50-007 WROCŁAW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALBI ALBERT LASOTA  </t>
+  </si>
+  <si>
+    <t>STALOWA 71/2, 53-440 WROCŁAW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MED-ARS. GABINET LECZENIA BÓLU I ARTETERAPII.DOROTA WROCZYŃSKA  </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -888,8 +1011,32 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1081,8 +1228,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1221,6 +1386,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1266,7 +1457,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
@@ -1315,18 +1506,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="9"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="8" xfId="15" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="15" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1377,6 +1561,49 @@
     <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="15" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="8" xfId="15" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="8" xfId="15" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — akcent 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1424,6 +1651,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF6699"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1698,15 +1930,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M58"/>
+  <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" style="36" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="105.5703125" bestFit="1" customWidth="1"/>
@@ -1715,136 +1947,136 @@
     <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="76" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="E1" s="23"/>
+      <c r="G1" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="48">
+        <v>35</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="76" t="s">
         <v>133</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="G1" s="29" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" s="33"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="51">
+      <c r="H2" s="43">
+        <v>65</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="76" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="E3" s="33"/>
+      <c r="G3" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="48">
         <v>35</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I3" s="34" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="76" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" s="33"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="48">
+        <v>35</v>
+      </c>
+      <c r="I4" s="34" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="29" t="s">
+    <row r="5" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="76" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="31"/>
+      <c r="C5" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="33"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="46">
-        <v>65</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="E3" s="36"/>
-      <c r="G3" s="29" t="s">
+      <c r="H5" s="53">
+        <v>35</v>
+      </c>
+      <c r="I5" s="34"/>
+    </row>
+    <row r="6" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="76" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" s="33"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="51">
+      <c r="H6" s="53">
         <v>35</v>
       </c>
-      <c r="I3" s="37" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="51">
-        <v>35</v>
-      </c>
-      <c r="I4" s="37" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="56">
-        <v>35</v>
-      </c>
-      <c r="I5" s="37"/>
-    </row>
-    <row r="6" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="56">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="36" t="s">
         <v>8</v>
       </c>
       <c r="G7" t="s">
@@ -1857,11 +2089,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="36" t="s">
         <v>9</v>
       </c>
       <c r="G8" t="s">
@@ -1874,79 +2106,78 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="76" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" s="33" t="s">
         <v>171</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36" t="s">
-        <v>173</v>
       </c>
       <c r="E9" s="23"/>
       <c r="G9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="59">
+      <c r="H9" s="71">
         <v>35</v>
       </c>
       <c r="K9" s="25" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="76" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" s="31"/>
+      <c r="C10" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="D10" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="35"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="32"/>
       <c r="G10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="59">
+      <c r="H10" s="71">
         <v>35</v>
       </c>
-      <c r="I10" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="K10" s="30" t="s">
+      <c r="I10" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="K10" s="28" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="76" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11" s="31"/>
+      <c r="C11" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="D11" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="35"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="32"/>
       <c r="G11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="59">
+      <c r="H11" s="66">
         <v>35</v>
       </c>
-      <c r="K11" s="31" t="s">
+      <c r="K11" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="L11" s="32"/>
-    </row>
-    <row r="12" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="L11" s="30"/>
+    </row>
+    <row r="12" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -1966,307 +2197,306 @@
       <c r="H12" s="8">
         <v>65</v>
       </c>
-      <c r="K12" s="47" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="K12" s="44" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="31">
+      <c r="G13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="29">
         <v>65</v>
       </c>
-      <c r="K13" s="51" t="s">
+      <c r="K13" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+    </row>
+    <row r="14" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="D14" s="72" t="s">
+        <v>179</v>
+      </c>
+      <c r="E14" s="23"/>
+      <c r="G14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="70">
+        <v>65</v>
+      </c>
+      <c r="K14" s="53" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="26">
+      <c r="L14"/>
+    </row>
+    <row r="15" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="D15" s="72" t="s">
+        <v>188</v>
+      </c>
+      <c r="E15" s="23"/>
+      <c r="G15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="73">
+        <v>90</v>
+      </c>
+      <c r="K15" s="67" t="s">
+        <v>182</v>
+      </c>
+      <c r="L15"/>
+      <c r="N15" s="11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="36">
         <v>3377034</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" t="s">
         <v>0</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C16" t="s">
         <v>1</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D16" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G16" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H16" s="2">
         <v>13.4</v>
       </c>
-      <c r="K14" s="56" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="26">
+      <c r="K16" s="69" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="36">
         <v>3377017</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17" t="s">
         <v>2</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C17" t="s">
         <v>3</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D17" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G17" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H17" s="2">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="27">
+      <c r="K17" s="74" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="77">
         <v>3370942</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B18" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D18" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G18" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="25">
+      <c r="H18" s="25">
         <v>13.4</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B19" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C19" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D19" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E19" s="24" t="s">
         <v>45</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" s="25">
-        <v>35</v>
-      </c>
-      <c r="I17" s="11"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H18" s="25">
-        <v>35</v>
-      </c>
-      <c r="I18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>43</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>36</v>
       </c>
       <c r="H19" s="25">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="I19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>29</v>
+      <c r="A20" s="36" t="s">
+        <v>23</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>35</v>
+        <v>24</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>33</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>36</v>
       </c>
       <c r="H20" s="25">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="I20" s="11"/>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="28">
+      <c r="A21" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="25">
+        <v>65</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="25">
+        <v>65</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="77">
         <v>3385881</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B23" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D23" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="G21" s="29" t="s">
+      <c r="G23" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="H21" s="30">
+      <c r="H23" s="28">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="36">
         <v>3388499</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B24" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C24" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D24" s="36" t="s">
         <v>56</v>
-      </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H22" s="57">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
-        <v>3388641</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H23" s="57">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
-        <v>3388568</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="39" t="s">
-        <v>62</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="11" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H24" s="46">
-        <v>22.5</v>
+      <c r="H24" s="54">
+        <v>6.7</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
-        <v>3388525</v>
+      <c r="A25" s="36">
+        <v>3388641</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="39" t="s">
-        <v>62</v>
+        <v>55</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>56</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H25" s="46">
-        <v>22.5</v>
+      <c r="H25" s="54">
+        <v>6.7</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
-        <v>3388505</v>
+      <c r="A26" s="36">
+        <v>3388568</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>60</v>
@@ -2274,23 +2504,23 @@
       <c r="C26" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="39" t="s">
+      <c r="D26" s="36" t="s">
         <v>62</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H26" s="46">
+      <c r="H26" s="43">
         <v>22.5</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="11">
-        <v>3388495</v>
+      <c r="A27" s="36">
+        <v>3388525</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>60</v>
@@ -2298,121 +2528,121 @@
       <c r="C27" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="39" t="s">
+      <c r="D27" s="36" t="s">
         <v>62</v>
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H27" s="46">
+      <c r="H27" s="43">
         <v>22.5</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="11">
-        <v>3388603</v>
+      <c r="A28" s="36">
+        <v>3388505</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>69</v>
+        <v>61</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>62</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H28" s="58">
-        <v>13.4</v>
+      <c r="H28" s="43">
+        <v>22.5</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="11">
-        <v>3388598</v>
+      <c r="A29" s="36">
+        <v>3388495</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" s="11">
-        <v>6250591</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="11"/>
       <c r="F29" s="11" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H29" s="46">
-        <v>90</v>
+      <c r="H29" s="43">
+        <v>22.5</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="11">
-        <v>3388490</v>
+      <c r="A30" s="36">
+        <v>3388603</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>77</v>
+        <v>68</v>
+      </c>
+      <c r="D30" s="45" t="s">
+        <v>69</v>
       </c>
       <c r="E30" s="11"/>
       <c r="F30" s="11" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G30" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H30" s="58">
-        <v>3.35</v>
+      <c r="H30" s="55">
+        <v>13.4</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="11">
-        <v>3388576</v>
+      <c r="A31" s="36">
+        <v>3388598</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E31" s="11"/>
+        <v>72</v>
+      </c>
+      <c r="D31" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="11">
+        <v>6250591</v>
+      </c>
       <c r="F31" s="11" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H31" s="58">
-        <v>3.35</v>
+      <c r="H31" s="43">
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="11">
-        <v>3388533</v>
+      <c r="A32" s="36">
+        <v>3388490</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>75</v>
@@ -2420,23 +2650,23 @@
       <c r="C32" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="36" t="s">
         <v>77</v>
       </c>
       <c r="E32" s="11"/>
       <c r="F32" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G32" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H32" s="58">
+      <c r="H32" s="55">
         <v>3.35</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="11">
-        <v>3388541</v>
+      <c r="A33" s="36">
+        <v>3388576</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>75</v>
@@ -2444,617 +2674,1161 @@
       <c r="C33" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="36" t="s">
         <v>77</v>
       </c>
       <c r="E33" s="11"/>
       <c r="F33" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H33" s="58">
+      <c r="H33" s="55">
         <v>3.35</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="11">
-        <v>3077115</v>
+      <c r="A34" s="36">
+        <v>3388533</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D34" s="39" t="s">
-        <v>84</v>
+        <v>76</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>77</v>
       </c>
       <c r="E34" s="11"/>
       <c r="F34" s="11" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="H34" s="46">
-        <v>70</v>
-      </c>
-      <c r="I34">
-        <v>90</v>
+        <v>58</v>
+      </c>
+      <c r="H34" s="55">
+        <v>3.35</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="11">
-        <v>3388482</v>
+      <c r="A35" s="36">
+        <v>3388541</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D35" s="39" t="s">
-        <v>89</v>
+        <v>76</v>
+      </c>
+      <c r="D35" s="36" t="s">
+        <v>77</v>
       </c>
       <c r="E35" s="11"/>
       <c r="F35" s="11" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H35" s="46">
-        <v>6.7</v>
-      </c>
-      <c r="I35">
-        <v>45</v>
+      <c r="H35" s="55">
+        <v>3.35</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="11">
-        <v>3388521</v>
+      <c r="A36" s="36">
+        <v>3077115</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D36" s="39" t="s">
-        <v>89</v>
+        <v>83</v>
+      </c>
+      <c r="D36" s="36" t="s">
+        <v>84</v>
       </c>
       <c r="E36" s="11"/>
       <c r="F36" s="11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H36" s="46">
-        <v>6.7</v>
-      </c>
-      <c r="I36">
-        <v>45</v>
+        <v>86</v>
+      </c>
+      <c r="H36" s="43">
+        <v>70</v>
+      </c>
+      <c r="I36" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="11">
-        <v>3388794</v>
+      <c r="A37" s="36">
+        <v>3388482</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>94</v>
+        <v>88</v>
+      </c>
+      <c r="D37" s="36" t="s">
+        <v>89</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="11" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H37" s="33">
-        <v>13.4</v>
-      </c>
-      <c r="I37">
-        <v>13.4</v>
-      </c>
-      <c r="J37">
-        <v>13.4</v>
+      <c r="H37" s="43">
+        <v>6.7</v>
+      </c>
+      <c r="I37" s="43">
+        <v>45</v>
+      </c>
+      <c r="J37" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="11">
-        <v>3388519</v>
+      <c r="A38" s="36">
+        <v>3388521</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>98</v>
+        <v>88</v>
+      </c>
+      <c r="D38" s="36" t="s">
+        <v>89</v>
       </c>
       <c r="E38" s="11"/>
       <c r="F38" s="11" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H38" s="58">
-        <v>13.4</v>
+      <c r="H38" s="43">
+        <v>6.7</v>
+      </c>
+      <c r="I38" s="43">
+        <v>45</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="11">
-        <v>3388693</v>
+      <c r="A39" s="36">
+        <v>3388794</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>102</v>
+        <v>93</v>
+      </c>
+      <c r="D39" s="36" t="s">
+        <v>181</v>
       </c>
       <c r="E39" s="11"/>
       <c r="F39" s="11" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="G39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H39" s="58">
-        <v>6.7</v>
+      <c r="H39" s="55">
+        <v>13.4</v>
+      </c>
+      <c r="I39" s="55">
+        <v>13.4</v>
+      </c>
+      <c r="J39" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="11">
-        <v>3388536</v>
+      <c r="A40" s="36">
+        <v>3388519</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>102</v>
+        <v>96</v>
+      </c>
+      <c r="D40" s="36" t="s">
+        <v>97</v>
       </c>
       <c r="E40" s="11"/>
       <c r="F40" s="11" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G40" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H40" s="58">
-        <v>6.7</v>
+      <c r="H40" s="55">
+        <v>13.4</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="11">
-        <v>3345534</v>
+      <c r="A41" s="36">
+        <v>3388693</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D41" s="39" t="s">
-        <v>107</v>
+        <v>100</v>
+      </c>
+      <c r="D41" s="36" t="s">
+        <v>101</v>
       </c>
       <c r="E41" s="11"/>
       <c r="F41" s="11" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H41" s="46">
-        <v>90</v>
+        <v>58</v>
+      </c>
+      <c r="H41" s="55">
+        <v>6.7</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="11">
-        <v>3388620</v>
+      <c r="A42" s="36">
+        <v>3388536</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D42" s="39" t="s">
-        <v>111</v>
+        <v>100</v>
+      </c>
+      <c r="D42" s="36" t="s">
+        <v>101</v>
       </c>
       <c r="E42" s="11"/>
       <c r="F42" s="11" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H42" s="46">
+      <c r="H42" s="55">
         <v>6.7</v>
       </c>
-      <c r="I42" t="s">
-        <v>129</v>
-      </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="11">
-        <v>3388488</v>
+      <c r="A43" s="36">
+        <v>3345534</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D43" s="39" t="s">
-        <v>113</v>
+        <v>105</v>
+      </c>
+      <c r="D43" s="36" t="s">
+        <v>106</v>
       </c>
       <c r="E43" s="11"/>
       <c r="F43" s="11" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H43" s="46">
+        <v>19</v>
+      </c>
+      <c r="H43" s="43">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="36">
+        <v>3388620</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D44" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H44" s="43">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="11">
-        <v>3388573</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D44" s="48" t="s">
-        <v>151</v>
-      </c>
-      <c r="E44" s="11">
-        <v>8240436</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H44" s="46">
-        <v>90</v>
-      </c>
-      <c r="I44" t="s">
-        <v>152</v>
+      <c r="I44" s="43">
+        <v>45</v>
+      </c>
+      <c r="J44" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="11">
-        <v>3388646</v>
+      <c r="A45" s="36">
+        <v>3388488</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>120</v>
+        <v>109</v>
+      </c>
+      <c r="D45" s="36" t="s">
+        <v>112</v>
       </c>
       <c r="E45" s="11"/>
       <c r="F45" s="11" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H45" s="58">
-        <v>13.4</v>
+      <c r="H45" s="43">
+        <v>6.7</v>
+      </c>
+      <c r="I45" s="43">
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="11">
-        <v>3388643</v>
+      <c r="A46" s="36">
+        <v>3388573</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D46" s="39" t="s">
-        <v>123</v>
+        <v>115</v>
+      </c>
+      <c r="D46" s="45" t="s">
+        <v>193</v>
       </c>
       <c r="E46" s="11">
-        <v>5222179</v>
+        <v>8240436</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="G46" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H46" s="46">
+      <c r="H46" s="43">
         <v>90</v>
       </c>
+      <c r="I46" s="43">
+        <v>90</v>
+      </c>
+      <c r="J46" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="11">
-        <v>2634834</v>
+      <c r="A47" s="36">
+        <v>3388646</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>126</v>
+        <v>118</v>
+      </c>
+      <c r="D47" s="36" t="s">
+        <v>119</v>
       </c>
       <c r="E47" s="11"/>
       <c r="F47" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H47" s="55">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="36">
+        <v>3388643</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="E48" s="11">
+        <v>5222179</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H48" s="43">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="36">
+        <v>2634834</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G49" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="G47" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="H47" s="58">
+      <c r="H49" s="55">
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="28">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="77">
         <v>3389861</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B50" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C50" t="s">
         <v>153</v>
       </c>
-      <c r="C48" t="s">
-        <v>155</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="F48" s="11">
+      <c r="D50" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="F50" s="11">
         <v>523448</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G50" t="s">
         <v>6</v>
       </c>
-      <c r="H48" s="58">
+      <c r="H50" s="55">
         <v>13.4</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="28">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="77">
         <v>3277813</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B51" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D51" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="F51" s="9">
+        <v>517.86</v>
+      </c>
+      <c r="G51" t="s">
+        <v>58</v>
+      </c>
+      <c r="H51" s="67">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="77">
+        <v>3390706</v>
+      </c>
+      <c r="B52" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D52" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="F49" s="9">
-        <v>517.86</v>
-      </c>
-      <c r="G49" t="s">
-        <v>58</v>
-      </c>
-      <c r="H49" s="11">
+      <c r="F52" s="9">
+        <v>3538.14</v>
+      </c>
+      <c r="G52" t="s">
+        <v>58</v>
+      </c>
+      <c r="H52" s="69">
         <v>13.4</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="28">
-        <v>3390706</v>
-      </c>
-      <c r="B50" s="10" t="s">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="45">
+        <v>3390685</v>
+      </c>
+      <c r="B53" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="D53" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="F50" s="9">
-        <v>3538.14</v>
-      </c>
-      <c r="G50" t="s">
-        <v>58</v>
-      </c>
-      <c r="H50" s="11">
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="28">
-        <v>3390685</v>
-      </c>
-      <c r="B51" s="10" t="s">
+      <c r="F53" s="9">
+        <v>1599.81</v>
+      </c>
+      <c r="G53" t="s">
+        <v>58</v>
+      </c>
+      <c r="H53" s="67">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="45">
+        <v>3390714</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D54" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="F54" s="9">
+        <v>10469.780000000001</v>
+      </c>
+      <c r="G54" t="s">
+        <v>58</v>
+      </c>
+      <c r="H54" s="67">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="45">
+        <v>3390695</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D55" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="F55" s="9">
+        <v>96.44</v>
+      </c>
+      <c r="G55" t="s">
+        <v>58</v>
+      </c>
+      <c r="H55" s="67">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="77">
+        <v>3282647</v>
+      </c>
+      <c r="B56" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D56" s="45" t="s">
         <v>163</v>
       </c>
-      <c r="F51" s="9">
-        <v>1599.81</v>
-      </c>
-      <c r="G51" t="s">
-        <v>58</v>
-      </c>
-      <c r="H51" s="11">
-        <v>21.6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="28">
-        <v>3282647</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="F52" s="9">
+      <c r="F56" s="9">
         <v>354.32</v>
       </c>
-      <c r="G52" t="s">
-        <v>58</v>
-      </c>
-      <c r="H52">
+      <c r="G56" t="s">
+        <v>58</v>
+      </c>
+      <c r="H56" s="69">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="28">
-        <v>3390714</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="F53" s="9">
-        <v>10469.780000000001</v>
-      </c>
-      <c r="G53" t="s">
-        <v>58</v>
-      </c>
-      <c r="H53">
-        <v>21.6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="28">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="77">
         <v>3282649</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="F54" s="9">
-        <v>254.94</v>
-      </c>
-      <c r="G54" t="s">
-        <v>58</v>
-      </c>
-      <c r="H54">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="28">
-        <v>3282639</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="F55" s="9">
-        <v>1773.28</v>
-      </c>
-      <c r="G55" t="s">
-        <v>58</v>
-      </c>
-      <c r="H55">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="28">
-        <v>3390742</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="F56" s="9">
-        <v>8054.93</v>
-      </c>
-      <c r="G56" t="s">
-        <v>58</v>
-      </c>
-      <c r="H56">
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="28">
-        <v>3390695</v>
       </c>
       <c r="B57" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="D57" s="9" t="s">
+      <c r="D57" s="45" t="s">
         <v>163</v>
       </c>
       <c r="F57" s="9">
-        <v>96.44</v>
+        <v>254.94</v>
       </c>
       <c r="G57" t="s">
         <v>58</v>
       </c>
-      <c r="H57" s="11">
-        <v>21.6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="28">
+      <c r="H57" s="69">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="77">
+        <v>3282639</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C58" s="11"/>
+      <c r="D58" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="F58" s="9">
+        <v>1773.28</v>
+      </c>
+      <c r="G58" t="s">
+        <v>58</v>
+      </c>
+      <c r="H58" s="69">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="77">
+        <v>3390742</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D59" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="F59" s="9">
+        <v>8054.93</v>
+      </c>
+      <c r="G59" t="s">
+        <v>58</v>
+      </c>
+      <c r="H59" s="67">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="77">
         <v>3389888</v>
       </c>
-      <c r="B58" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="F58" s="9">
+      <c r="B60" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D60" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="F60" s="9">
         <v>2811.39</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G60" t="s">
         <v>6</v>
       </c>
-      <c r="H58">
+      <c r="H60" s="67">
         <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="78">
+        <v>3390681</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D61" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="F61" s="9">
+        <v>1073.42</v>
+      </c>
+      <c r="G61" t="s">
+        <v>58</v>
+      </c>
+      <c r="H61" s="70">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="77">
+        <v>3390745</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D62" s="75" t="s">
+        <v>195</v>
+      </c>
+      <c r="F62" s="9">
+        <v>1071.5899999999999</v>
+      </c>
+      <c r="G62" t="s">
+        <v>58</v>
+      </c>
+      <c r="H62" s="74">
+        <v>90</v>
+      </c>
+      <c r="I62" s="74">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="77">
+        <v>3390752</v>
+      </c>
+      <c r="B63" s="68" t="s">
+        <v>187</v>
+      </c>
+      <c r="D63" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="F63" s="9">
+        <v>8411.98</v>
+      </c>
+      <c r="G63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H63" s="74">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="79">
+        <v>2382326</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="F64" s="9">
+        <v>96699.83</v>
+      </c>
+      <c r="G64" t="s">
+        <v>199</v>
+      </c>
+      <c r="H64">
+        <v>13.4</v>
+      </c>
+      <c r="I64" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="79">
+        <v>3393005</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="F65" s="9">
+        <v>4857.4799999999996</v>
+      </c>
+      <c r="G65" t="s">
+        <v>6</v>
+      </c>
+      <c r="H65">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="79">
+        <v>3393000</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="F66" s="9">
+        <v>2763.41</v>
+      </c>
+      <c r="G66" t="s">
+        <v>6</v>
+      </c>
+      <c r="H66">
+        <v>13.4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="62">
+        <v>3388794</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="63" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="64">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="1:9" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="50">
+        <v>3390742</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="65" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="65">
+        <v>8054.93</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="13">
+        <v>13.4</v>
+      </c>
+      <c r="I3" s="13"/>
+    </row>
+    <row r="4" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:9" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="50">
+        <v>3390695</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="65" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="24"/>
+      <c r="F5" s="65">
+        <v>96.44</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="13">
+        <v>21.6</v>
+      </c>
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" spans="1:9" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="50">
+        <v>3390685</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="65" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="24"/>
+      <c r="F6" s="65">
+        <v>1599.81</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="13">
+        <v>21.6</v>
+      </c>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:9" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="50">
+        <v>3390714</v>
+      </c>
+      <c r="B7" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="65" t="s">
+        <v>161</v>
+      </c>
+      <c r="E7" s="24"/>
+      <c r="F7" s="65">
+        <v>10469.780000000001</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="13">
+        <v>21.6</v>
+      </c>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="1:9" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="50">
+        <v>3277813</v>
+      </c>
+      <c r="B9" s="51" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="E9" s="24"/>
+      <c r="F9" s="65">
+        <v>517.86</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="13">
+        <v>13.4</v>
+      </c>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="19" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="26">
+        <v>3389888</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E19" s="23"/>
+      <c r="F19" s="9">
+        <v>2811.39</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="11">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26">
+        <v>3282649</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" s="23"/>
+      <c r="F1" s="9">
+        <v>254.94</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26">
+        <v>3282639</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="9">
+        <v>1773.28</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26">
+        <v>3282647</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3" s="23"/>
+      <c r="F3" s="9">
+        <v>354.32</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26">
+        <v>3390706</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" s="23"/>
+      <c r="F5" s="9">
+        <v>3538.14</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="11">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" s="57" t="s">
+        <v>179</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="G7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="58">
+        <v>65</v>
+      </c>
+      <c r="K7" s="61"/>
+    </row>
+    <row r="9" spans="1:11" s="11" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9" s="31"/>
+      <c r="C9" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>174</v>
+      </c>
+      <c r="E9" s="33"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="56">
+        <v>35</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J22" sqref="J21:J22"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3079,17 +3853,17 @@
       <c r="C1" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="55" t="s">
-        <v>157</v>
+      <c r="D1" s="52" t="s">
+        <v>155</v>
       </c>
       <c r="E1" s="13"/>
       <c r="F1" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="38">
+      <c r="H1" s="35">
         <v>13.4</v>
       </c>
     </row>
@@ -3101,7 +3875,7 @@
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
-      <c r="H2" s="38"/>
+      <c r="H2" s="35"/>
     </row>
     <row r="3" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
@@ -3123,7 +3897,7 @@
       <c r="G3" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="52">
+      <c r="H3" s="49">
         <v>6.7</v>
       </c>
     </row>
@@ -3147,7 +3921,7 @@
       <c r="G4" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H4" s="52">
+      <c r="H4" s="49">
         <v>6.7</v>
       </c>
     </row>
@@ -3159,29 +3933,29 @@
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="52"/>
+      <c r="H5" s="49"/>
     </row>
     <row r="6" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>3388646</v>
       </c>
       <c r="B6" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="D6" s="18" t="s">
         <v>119</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>120</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="38">
+      <c r="H6" s="35">
         <v>13.4</v>
       </c>
     </row>
@@ -3193,7 +3967,7 @@
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
-      <c r="H7" s="38"/>
+      <c r="H7" s="35"/>
     </row>
     <row r="8" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
@@ -3215,7 +3989,7 @@
       <c r="G8" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="38">
+      <c r="H8" s="35">
         <v>3.35</v>
       </c>
     </row>
@@ -3239,7 +4013,7 @@
       <c r="G9" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="38">
+      <c r="H9" s="35">
         <v>3.35</v>
       </c>
     </row>
@@ -3263,7 +4037,7 @@
       <c r="G10" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="38">
+      <c r="H10" s="35">
         <v>3.35</v>
       </c>
     </row>
@@ -3287,7 +4061,7 @@
       <c r="G11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="38">
+      <c r="H11" s="35">
         <v>3.35</v>
       </c>
     </row>
@@ -3299,29 +4073,29 @@
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
-      <c r="H12" s="38"/>
+      <c r="H12" s="35"/>
     </row>
     <row r="13" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>3388519</v>
       </c>
       <c r="B13" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="D13" s="18" t="s">
         <v>97</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>98</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H13" s="38">
+      <c r="H13" s="35">
         <v>13.4</v>
       </c>
     </row>
@@ -3333,54 +4107,54 @@
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
-      <c r="H14" s="38"/>
+      <c r="H14" s="35"/>
     </row>
     <row r="15" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="38"/>
+      <c r="C15" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="43" t="s">
-        <v>144</v>
-      </c>
-      <c r="E15" s="44"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="45" t="s">
+      <c r="E15" s="41"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="42" t="s">
         <v>10</v>
       </c>
       <c r="H15" s="13">
         <v>35</v>
       </c>
-      <c r="I15" s="37"/>
+      <c r="I15" s="34"/>
     </row>
     <row r="16" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="45"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="42"/>
       <c r="H16" s="13"/>
-      <c r="I16" s="37"/>
+      <c r="I16" s="34"/>
     </row>
     <row r="17" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="42" t="s">
+      <c r="D17" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="D17" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="E17" s="44"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="45" t="s">
+      <c r="E17" s="41"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="42" t="s">
         <v>10</v>
       </c>
       <c r="H17" s="13">
@@ -3388,13 +4162,13 @@
       </c>
     </row>
     <row r="18" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="13"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="45"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="42"/>
       <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3402,22 +4176,22 @@
         <v>2634834</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>68</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G19" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="G19" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="H19" s="38">
+      <c r="H19" s="35">
         <v>40</v>
       </c>
     </row>
@@ -3429,7 +4203,7 @@
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
-      <c r="H20" s="38"/>
+      <c r="H20" s="35"/>
     </row>
     <row r="21" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
@@ -3451,7 +4225,7 @@
       <c r="G21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H21" s="38">
+      <c r="H21" s="35">
         <v>13.4</v>
       </c>
     </row>
@@ -3463,20 +4237,20 @@
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
-      <c r="H22" s="38"/>
+      <c r="H22" s="35"/>
     </row>
     <row r="23" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="53">
+      <c r="A23" s="50">
         <v>3389861</v>
       </c>
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>155</v>
-      </c>
       <c r="D23" s="19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E23" s="24"/>
       <c r="F23" s="13">
@@ -3485,7 +4259,7 @@
       <c r="G23" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H23" s="38">
+      <c r="H23" s="35">
         <v>13.4</v>
       </c>
     </row>
@@ -3497,29 +4271,29 @@
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
-      <c r="H24" s="38"/>
+      <c r="H24" s="35"/>
     </row>
     <row r="25" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>3388693</v>
       </c>
       <c r="B25" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="D25" s="18" t="s">
         <v>101</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>102</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H25" s="38">
+      <c r="H25" s="35">
         <v>6.7</v>
       </c>
     </row>
@@ -3528,22 +4302,22 @@
         <v>3388536</v>
       </c>
       <c r="B26" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="D26" s="18" t="s">
         <v>101</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>102</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H26" s="38">
+      <c r="H26" s="35">
         <v>6.7</v>
       </c>
     </row>
@@ -3553,7 +4327,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
@@ -3572,26 +4346,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="42" t="s">
+      <c r="D1" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="D1" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="E1" s="44"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="45" t="s">
+      <c r="E1" s="41"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="42" t="s">
         <v>10</v>
       </c>
       <c r="H1" s="13">
         <v>35</v>
       </c>
-      <c r="I1" s="49" t="s">
-        <v>149</v>
+      <c r="I1" s="46" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3606,24 +4380,24 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
-        <v>132</v>
+      <c r="A3" s="37" t="s">
+        <v>131</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
-      <c r="D3" s="50" t="s">
-        <v>133</v>
+      <c r="D3" s="47" t="s">
+        <v>132</v>
       </c>
       <c r="E3" s="24"/>
       <c r="F3" s="13"/>
-      <c r="G3" s="45" t="s">
+      <c r="G3" s="42" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="13">
         <v>35</v>
       </c>
-      <c r="I3" s="49" t="s">
-        <v>148</v>
+      <c r="I3" s="46" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3638,35 +4412,35 @@
       <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="42" t="s">
+      <c r="D5" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="D5" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="E5" s="44"/>
+      <c r="E5" s="41"/>
       <c r="F5" s="13"/>
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="42" t="s">
         <v>10</v>
       </c>
       <c r="H5" s="13">
         <v>35</v>
       </c>
-      <c r="I5" s="49" t="s">
-        <v>148</v>
+      <c r="I5" s="46" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
-      <c r="G7" s="29"/>
-      <c r="I7" s="37"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="33"/>
+      <c r="G7" s="27"/>
+      <c r="I7" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3674,7 +4448,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
@@ -3695,26 +4469,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="E1" s="44"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="45" t="s">
+      <c r="E1" s="41"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="42" t="s">
         <v>10</v>
       </c>
       <c r="H1" s="13">
         <v>65</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3747,7 +4521,7 @@
       <c r="G3" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="38">
+      <c r="H3" s="35">
         <v>22.5</v>
       </c>
     </row>
@@ -3771,7 +4545,7 @@
       <c r="G4" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H4" s="38">
+      <c r="H4" s="35">
         <v>22.5</v>
       </c>
     </row>
@@ -3795,7 +4569,7 @@
       <c r="G5" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="38">
+      <c r="H5" s="35">
         <v>22.5</v>
       </c>
     </row>
@@ -3819,7 +4593,7 @@
       <c r="G6" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="38">
+      <c r="H6" s="35">
         <v>22.5</v>
       </c>
     </row>
@@ -3831,7 +4605,7 @@
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
-      <c r="H7" s="38"/>
+      <c r="H7" s="35"/>
     </row>
     <row r="8" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
@@ -3855,7 +4629,7 @@
       <c r="G8" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="38">
+      <c r="H8" s="35">
         <v>90</v>
       </c>
     </row>
@@ -3867,35 +4641,35 @@
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
-      <c r="H9" s="38"/>
+      <c r="H9" s="35"/>
     </row>
     <row r="10" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>3388573</v>
       </c>
       <c r="B10" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>116</v>
-      </c>
       <c r="D10" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E10" s="13">
         <v>8240436</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G10" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="38">
+      <c r="H10" s="35">
         <v>90</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3906,7 +4680,7 @@
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
-      <c r="H11" s="38"/>
+      <c r="H11" s="35"/>
     </row>
     <row r="12" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
@@ -3928,7 +4702,7 @@
       <c r="G12" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="H12" s="38">
+      <c r="H12" s="35">
         <v>70</v>
       </c>
       <c r="I12" s="11">
@@ -3943,31 +4717,31 @@
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
-      <c r="H13" s="38"/>
+      <c r="H13" s="35"/>
     </row>
     <row r="14" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>3388643</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>83</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E14" s="13">
         <v>5222179</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H14" s="38">
+      <c r="H14" s="35">
         <v>90</v>
       </c>
     </row>
@@ -3979,29 +4753,29 @@
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
-      <c r="H15" s="38"/>
+      <c r="H15" s="35"/>
     </row>
     <row r="16" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>3345534</v>
       </c>
       <c r="B16" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="D16" s="18" t="s">
         <v>106</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>107</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="38">
+      <c r="H16" s="35">
         <v>90</v>
       </c>
     </row>
@@ -4013,36 +4787,36 @@
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
-      <c r="H17" s="38"/>
+      <c r="H17" s="35"/>
     </row>
     <row r="18" spans="1:10" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>3388620</v>
       </c>
       <c r="B18" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="D18" s="18" t="s">
         <v>110</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>111</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H18" s="38">
+      <c r="H18" s="35">
         <v>6.7</v>
       </c>
       <c r="I18" s="11">
         <v>45</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4050,22 +4824,22 @@
         <v>3388488</v>
       </c>
       <c r="B19" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>110</v>
-      </c>
       <c r="D19" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H19" s="38">
+      <c r="H19" s="35">
         <v>6.7</v>
       </c>
       <c r="I19" s="11">
@@ -4080,7 +4854,7 @@
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
-      <c r="H20" s="38"/>
+      <c r="H20" s="35"/>
     </row>
     <row r="21" spans="1:10" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
@@ -4102,7 +4876,7 @@
       <c r="G21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H21" s="38">
+      <c r="H21" s="35">
         <v>6.7</v>
       </c>
       <c r="I21" s="11">
@@ -4129,7 +4903,7 @@
       <c r="G22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H22" s="38">
+      <c r="H22" s="35">
         <v>6.7</v>
       </c>
       <c r="I22" s="11">
@@ -4142,7 +4916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>

--- a/rozjazdy zbiorcze maj.xlsx
+++ b/rozjazdy zbiorcze maj.xlsx
@@ -5,27 +5,29 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\KOKSZTYS\maj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KOKSZTYS\maj\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11535"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10910" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Pakiet_Zlecen_WTA_2019_05_06s.s" sheetId="1" r:id="rId1"/>
-    <sheet name="rozjazdy 23.05" sheetId="6" r:id="rId2"/>
-    <sheet name="rozjady 24.05" sheetId="7" r:id="rId3"/>
-    <sheet name="rozjazdy 21.05" sheetId="5" r:id="rId4"/>
-    <sheet name="rozjazdy 20.05" sheetId="4" r:id="rId5"/>
-    <sheet name="rozjazdy 18.05" sheetId="3" r:id="rId6"/>
-    <sheet name="rozjazdy 13.05" sheetId="2" r:id="rId7"/>
+    <sheet name="rozjazdy 29.05" sheetId="8" r:id="rId2"/>
+    <sheet name="rozjazdy 30.05" sheetId="9" r:id="rId3"/>
+    <sheet name="rozjazdy 23.05" sheetId="6" r:id="rId4"/>
+    <sheet name="rozjady 24.05" sheetId="7" r:id="rId5"/>
+    <sheet name="rozjazdy 21.05" sheetId="5" r:id="rId6"/>
+    <sheet name="rozjazdy 20.05" sheetId="4" r:id="rId7"/>
+    <sheet name="rozjazdy 18.05" sheetId="3" r:id="rId8"/>
+    <sheet name="rozjazdy 13.05" sheetId="2" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="308">
   <si>
     <t>SALON PRASOWY-TOTOLOTEK BOGUSŁAW KLEMENT</t>
   </si>
@@ -781,6 +783,443 @@
   </si>
   <si>
     <t xml:space="preserve">MED-ARS. GABINET LECZENIA BÓLU I ARTETERAPII.DOROTA WROCZYŃSKA  </t>
+  </si>
+  <si>
+    <t>JAKUB RYBIKOWSKI</t>
+  </si>
+  <si>
+    <t>54-115</t>
+  </si>
+  <si>
+    <t>HEINRICHA LAUTERBACHA 6/11 WROCŁAW</t>
+  </si>
+  <si>
+    <t>5726.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a </t>
+  </si>
+  <si>
+    <t>Paweł Czerniak</t>
+  </si>
+  <si>
+    <t>54-232</t>
+  </si>
+  <si>
+    <t>44.34</t>
+  </si>
+  <si>
+    <t>Jakub Łuczko</t>
+  </si>
+  <si>
+    <t>54-402</t>
+  </si>
+  <si>
+    <t>SZKOCKA 59/4 WROCŁAW</t>
+  </si>
+  <si>
+    <t>4239.92</t>
+  </si>
+  <si>
+    <t>PAWEŁ MACIASZCZYK</t>
+  </si>
+  <si>
+    <t>52-326</t>
+  </si>
+  <si>
+    <t>CZEKOLADOWA 42/2 WROCŁAW</t>
+  </si>
+  <si>
+    <t>698.23</t>
+  </si>
+  <si>
+    <t>Dominika DZIEWA</t>
+  </si>
+  <si>
+    <t>53-415</t>
+  </si>
+  <si>
+    <t>2527.69</t>
+  </si>
+  <si>
+    <t>ANNA RAŹNA</t>
+  </si>
+  <si>
+    <t>50-418</t>
+  </si>
+  <si>
+    <t>GEN. ROMUALDA TRAUGUTTA 82/11 WROCŁAW</t>
+  </si>
+  <si>
+    <t>3828.25</t>
+  </si>
+  <si>
+    <t>Sebastien KĘDZIERSKI</t>
+  </si>
+  <si>
+    <t>53-239</t>
+  </si>
+  <si>
+    <t>FIOŁKOWA 13/5 WROCŁAW</t>
+  </si>
+  <si>
+    <t>DARIUSZ STRÓZIK</t>
+  </si>
+  <si>
+    <t>51-001</t>
+  </si>
+  <si>
+    <t>Gorlicka 21/14 WROCŁAW // PRĄDZYŃSKIEGO 20/10</t>
+  </si>
+  <si>
+    <t>1845.46</t>
+  </si>
+  <si>
+    <t>Marek Gonkiewicz</t>
+  </si>
+  <si>
+    <t>53-445</t>
+  </si>
+  <si>
+    <t>Szczęśliwa 23/18 Wrocław</t>
+  </si>
+  <si>
+    <t>6121.24</t>
+  </si>
+  <si>
+    <t>5248.40</t>
+  </si>
+  <si>
+    <t>HELENA REMBOWSKA</t>
+  </si>
+  <si>
+    <t>54-058</t>
+  </si>
+  <si>
+    <t>POLONII WROCŁAWSKIEJ 3/7 WROCŁAW</t>
+  </si>
+  <si>
+    <t>2786.76</t>
+  </si>
+  <si>
+    <t>Marcin GRABSKI</t>
+  </si>
+  <si>
+    <t>52-201</t>
+  </si>
+  <si>
+    <t>GEN. STANISŁAWA MACZKA 23/5 WROCŁAW</t>
+  </si>
+  <si>
+    <t>4481.82</t>
+  </si>
+  <si>
+    <t>KAROLINA ROZNERSKA</t>
+  </si>
+  <si>
+    <t>53-148</t>
+  </si>
+  <si>
+    <t>JASTRZĘBIA 9/28 WROCŁAW</t>
+  </si>
+  <si>
+    <t>658.19</t>
+  </si>
+  <si>
+    <t>KRYSTYNA BEREZOWSKA</t>
+  </si>
+  <si>
+    <t>51-005</t>
+  </si>
+  <si>
+    <t>OSTROWSKA 68/2 WROCŁAW</t>
+  </si>
+  <si>
+    <t>716.89</t>
+  </si>
+  <si>
+    <t>366.94</t>
+  </si>
+  <si>
+    <t>MILENA LEWANDOWSKA</t>
+  </si>
+  <si>
+    <t>51-200</t>
+  </si>
+  <si>
+    <t>Królewska 3/12 Wrocław</t>
+  </si>
+  <si>
+    <t>676.29</t>
+  </si>
+  <si>
+    <t>1843.50</t>
+  </si>
+  <si>
+    <t>1300.40</t>
+  </si>
+  <si>
+    <t>Karol OLSZAŃSKI</t>
+  </si>
+  <si>
+    <t>54-401</t>
+  </si>
+  <si>
+    <t>SZWEDZKA 7/8 WROCŁAW</t>
+  </si>
+  <si>
+    <t>16.28</t>
+  </si>
+  <si>
+    <t>2090.38</t>
+  </si>
+  <si>
+    <t>Grzegorz ŻURAWSKI</t>
+  </si>
+  <si>
+    <t>51-215</t>
+  </si>
+  <si>
+    <t>Zatorska 122/1B Wrocław</t>
+  </si>
+  <si>
+    <t>321.09</t>
+  </si>
+  <si>
+    <t>3596.54</t>
+  </si>
+  <si>
+    <t>Agnieszka Zyza</t>
+  </si>
+  <si>
+    <t>Świeża 56, 54-060 Wrocław</t>
+  </si>
+  <si>
+    <t>53.15</t>
+  </si>
+  <si>
+    <t>8540.34</t>
+  </si>
+  <si>
+    <t>2084.51</t>
+  </si>
+  <si>
+    <t>MICHAŁ MICHOWSKI</t>
+  </si>
+  <si>
+    <t>50-016</t>
+  </si>
+  <si>
+    <t>PIŁSUDSKIEGO 110/1 WROCŁAW</t>
+  </si>
+  <si>
+    <t>2383.17</t>
+  </si>
+  <si>
+    <t>Jolanta Borkowska</t>
+  </si>
+  <si>
+    <t>50-048</t>
+  </si>
+  <si>
+    <t>Piłsudskiego 7A/20 Wrocław</t>
+  </si>
+  <si>
+    <t>5874.20</t>
+  </si>
+  <si>
+    <t>JOANNA GAJEC</t>
+  </si>
+  <si>
+    <t>50-084</t>
+  </si>
+  <si>
+    <t>STANISŁAWA MAŁACHOWSKIEGO 8/13 WROCŁAW</t>
+  </si>
+  <si>
+    <t>3916.77</t>
+  </si>
+  <si>
+    <t>Zdzisław Bugaj</t>
+  </si>
+  <si>
+    <t>50-550</t>
+  </si>
+  <si>
+    <t>Wieczysta 161/12 Wrocław</t>
+  </si>
+  <si>
+    <t>2412.79</t>
+  </si>
+  <si>
+    <t>4084.33</t>
+  </si>
+  <si>
+    <t>Niedźwiedzia 21B/4 Wrocław // Ukraińska 1A</t>
+  </si>
+  <si>
+    <t>ZAPOROSKA 81/28 WROCŁAW // Przemysłowa 37/4, 57-220 Ziębice</t>
+  </si>
+  <si>
+    <t>psie pole</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Niedźwiedzia 21B/4 Wrocław // </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ukraińska 1A</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Niedźwiedzia 21B/4 Wrocław //</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Ukraińska 1A</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Gorlicka 21/14 WROCŁAW // </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PRĄDZYŃSKIEGO 20/10</t>
+    </r>
+  </si>
+  <si>
+    <t>na powrocie z psiego polo</t>
+  </si>
+  <si>
+    <t>partynice</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ZAPOROSKA 81/28 WROCŁAW</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> // Przemysłowa 37/4, 57-220 Ziębice</t>
+    </r>
+  </si>
+  <si>
+    <t>jeżeli to ukrainska</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Niedźwiedzia 21B/4 Wrocław</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> // Ukraińska 1A</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Niedźwiedzia 21B/4 Wrocław</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> //</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ukraińska 1A</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1457,7 +1896,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
@@ -1578,9 +2017,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="35" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="36" borderId="8" xfId="15" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="36" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
@@ -1602,6 +2038,26 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1930,25 +2386,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N66"/>
+  <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="H16" sqref="A16:H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="105.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="85.08984375" customWidth="1"/>
+    <col min="5" max="5" width="11.26953125" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="75" t="s">
         <v>131</v>
       </c>
       <c r="D1" s="36" t="s">
@@ -1965,8 +2421,8 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+    <row r="2" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="75" t="s">
         <v>133</v>
       </c>
       <c r="B2" s="31"/>
@@ -1988,8 +2444,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
+    <row r="3" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="75" t="s">
         <v>136</v>
       </c>
       <c r="C3" s="32" t="s">
@@ -2009,8 +2465,8 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
+    <row r="4" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="75" t="s">
         <v>139</v>
       </c>
       <c r="B4" s="31"/>
@@ -2032,8 +2488,8 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76" t="s">
+    <row r="5" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="75" t="s">
         <v>142</v>
       </c>
       <c r="B5" s="31"/>
@@ -2053,8 +2509,8 @@
       </c>
       <c r="I5" s="34"/>
     </row>
-    <row r="6" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="76" t="s">
+    <row r="6" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="75" t="s">
         <v>144</v>
       </c>
       <c r="C6" s="32" t="s">
@@ -2072,8 +2528,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="76" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="75" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="36" t="s">
@@ -2089,8 +2545,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="76" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="75" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="36" t="s">
@@ -2106,8 +2562,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="76" t="s">
+    <row r="9" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="75" t="s">
         <v>169</v>
       </c>
       <c r="C9" s="32" t="s">
@@ -2120,15 +2576,15 @@
       <c r="G9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="71">
+      <c r="H9" s="70">
         <v>35</v>
       </c>
       <c r="K9" s="25" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="76" t="s">
+    <row r="10" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="75" t="s">
         <v>172</v>
       </c>
       <c r="B10" s="31"/>
@@ -2143,7 +2599,7 @@
       <c r="G10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="71">
+      <c r="H10" s="70">
         <v>35</v>
       </c>
       <c r="I10" s="34" t="s">
@@ -2153,8 +2609,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="76" t="s">
+    <row r="11" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="75" t="s">
         <v>175</v>
       </c>
       <c r="B11" s="31"/>
@@ -2177,11 +2633,11 @@
       </c>
       <c r="L11" s="30"/>
     </row>
-    <row r="12" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="79" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="5"/>
@@ -2201,10 +2657,11 @@
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="76" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" s="75" t="s">
         <v>51</v>
       </c>
+      <c r="B13" s="36"/>
       <c r="D13" s="60" t="s">
         <v>52</v>
       </c>
@@ -2220,18 +2677,19 @@
       <c r="L13" s="48"/>
       <c r="M13" s="48"/>
     </row>
-    <row r="14" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="D14" s="72" t="s">
+      <c r="B14" s="36"/>
+      <c r="D14" s="71" t="s">
         <v>179</v>
       </c>
       <c r="E14" s="23"/>
       <c r="G14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="70">
+      <c r="H14" s="69">
         <v>65</v>
       </c>
       <c r="K14" s="53" t="s">
@@ -2239,21 +2697,21 @@
       </c>
       <c r="L14"/>
     </row>
-    <row r="15" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="D15" s="72" t="s">
+      <c r="D15" s="71" t="s">
         <v>188</v>
       </c>
       <c r="E15" s="23"/>
       <c r="G15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="73">
+      <c r="H15" s="72">
         <v>90</v>
       </c>
       <c r="K15" s="67" t="s">
@@ -2264,41 +2722,24 @@
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="36">
+    <row r="16" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K16" s="68" t="s">
+        <v>196</v>
+      </c>
+      <c r="L16"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="36">
         <v>3377034</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D17" s="36" t="s">
         <v>5</v>
-      </c>
-      <c r="G16" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" s="2">
-        <v>13.4</v>
-      </c>
-      <c r="K16" s="69" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="36">
-        <v>3377017</v>
-      </c>
-      <c r="B17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>4</v>
       </c>
       <c r="G17" t="s">
         <v>6</v>
@@ -2306,66 +2747,62 @@
       <c r="H17" s="2">
         <v>13.4</v>
       </c>
-      <c r="K17" s="74" t="s">
+      <c r="K17" s="73" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="77">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" s="36">
+        <v>3377017</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="2">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" s="76">
         <v>3370942</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B19" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="45" t="s">
+      <c r="D19" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G19" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="25">
+      <c r="H19" s="25">
         <v>13.4</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B20" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C20" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="D20" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E20" s="24" t="s">
         <v>45</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="25">
-        <v>35</v>
-      </c>
-      <c r="I19" s="11"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>44</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>36</v>
@@ -2374,50 +2811,48 @@
         <v>35</v>
       </c>
       <c r="I20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>39</v>
+        <v>23</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>38</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>36</v>
       </c>
       <c r="H21" s="25">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="I21" s="11"/>
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>40</v>
+        <v>26</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>39</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G22" s="11" t="s">
         <v>36</v>
@@ -2429,52 +2864,54 @@
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="77">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="25">
+        <v>65</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" s="76">
         <v>3385881</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B24" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="45" t="s">
+      <c r="D24" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="G23" s="27" t="s">
+      <c r="G24" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="H23" s="28">
+      <c r="H24" s="28">
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="36">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" s="36">
         <v>3388499</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H24" s="54">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="36">
-        <v>3388641</v>
-      </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="36" t="s">
         <v>54</v>
       </c>
       <c r="C25" s="11" t="s">
@@ -2485,7 +2922,7 @@
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>58</v>
@@ -2494,35 +2931,35 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="36">
-        <v>3388568</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>60</v>
+        <v>3388641</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>54</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H26" s="43">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H26" s="54">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="36">
-        <v>3388525</v>
-      </c>
-      <c r="B27" s="11" t="s">
+        <v>3388568</v>
+      </c>
+      <c r="B27" s="36" t="s">
         <v>60</v>
       </c>
       <c r="C27" s="11" t="s">
@@ -2533,7 +2970,7 @@
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>58</v>
@@ -2542,11 +2979,11 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="36">
-        <v>3388505</v>
-      </c>
-      <c r="B28" s="11" t="s">
+        <v>3388525</v>
+      </c>
+      <c r="B28" s="36" t="s">
         <v>60</v>
       </c>
       <c r="C28" s="11" t="s">
@@ -2557,7 +2994,7 @@
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>58</v>
@@ -2566,11 +3003,11 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="36">
-        <v>3388495</v>
-      </c>
-      <c r="B29" s="11" t="s">
+        <v>3388505</v>
+      </c>
+      <c r="B29" s="36" t="s">
         <v>60</v>
       </c>
       <c r="C29" s="11" t="s">
@@ -2581,7 +3018,7 @@
       </c>
       <c r="E29" s="11"/>
       <c r="F29" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>58</v>
@@ -2590,85 +3027,85 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="36">
-        <v>3388603</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>67</v>
+        <v>3388495</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>60</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="45" t="s">
-        <v>69</v>
+        <v>61</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>62</v>
       </c>
       <c r="E30" s="11"/>
       <c r="F30" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H30" s="43">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" s="36">
+        <v>3388603</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="G30" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H30" s="55">
+      <c r="G31" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H31" s="55">
         <v>13.4</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="36">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32" s="36">
         <v>3388598</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B32" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C32" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D31" s="45" t="s">
+      <c r="D32" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E32" s="11">
         <v>6250591</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="F32" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="G31" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H31" s="43">
+      <c r="G32" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H32" s="43">
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="36">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" s="36">
         <v>3388490</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D32" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H32" s="55">
-        <v>3.35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="36">
-        <v>3388576</v>
-      </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="36" t="s">
         <v>75</v>
       </c>
       <c r="C33" s="11" t="s">
@@ -2679,7 +3116,7 @@
       </c>
       <c r="E33" s="11"/>
       <c r="F33" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>58</v>
@@ -2688,11 +3125,11 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="36">
-        <v>3388533</v>
-      </c>
-      <c r="B34" s="11" t="s">
+        <v>3388576</v>
+      </c>
+      <c r="B34" s="36" t="s">
         <v>75</v>
       </c>
       <c r="C34" s="11" t="s">
@@ -2703,7 +3140,7 @@
       </c>
       <c r="E34" s="11"/>
       <c r="F34" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>58</v>
@@ -2712,11 +3149,11 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="36">
-        <v>3388541</v>
-      </c>
-      <c r="B35" s="11" t="s">
+        <v>3388533</v>
+      </c>
+      <c r="B35" s="36" t="s">
         <v>75</v>
       </c>
       <c r="C35" s="11" t="s">
@@ -2727,7 +3164,7 @@
       </c>
       <c r="E35" s="11"/>
       <c r="F35" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>58</v>
@@ -2736,68 +3173,62 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="36">
-        <v>3077115</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>82</v>
+        <v>3388541</v>
+      </c>
+      <c r="B36" s="36" t="s">
+        <v>75</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D36" s="36" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E36" s="11"/>
       <c r="F36" s="11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="H36" s="43">
-        <v>70</v>
-      </c>
-      <c r="I36" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="H36" s="55">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="36">
-        <v>3388482</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>87</v>
+        <v>3077115</v>
+      </c>
+      <c r="B37" s="36" t="s">
+        <v>82</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D37" s="36" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="11" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="H37" s="43">
-        <v>6.7</v>
-      </c>
-      <c r="I37" s="43">
-        <v>45</v>
-      </c>
-      <c r="J37" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="I37" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="36">
-        <v>3388521</v>
-      </c>
-      <c r="B38" s="11" t="s">
+        <v>3388482</v>
+      </c>
+      <c r="B38" s="36" t="s">
         <v>87</v>
       </c>
       <c r="C38" s="11" t="s">
@@ -2808,7 +3239,7 @@
       </c>
       <c r="E38" s="11"/>
       <c r="F38" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>58</v>
@@ -2819,56 +3250,56 @@
       <c r="I38" s="43">
         <v>45</v>
       </c>
-      <c r="J38" s="11" t="s">
+      <c r="J38" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="36">
-        <v>3388794</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>92</v>
+        <v>3388521</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>87</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D39" s="36" t="s">
-        <v>181</v>
+        <v>89</v>
       </c>
       <c r="E39" s="11"/>
       <c r="F39" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H39" s="55">
-        <v>13.4</v>
-      </c>
-      <c r="I39" s="55">
-        <v>13.4</v>
-      </c>
-      <c r="J39" t="s">
+      <c r="H39" s="43">
+        <v>6.7</v>
+      </c>
+      <c r="I39" s="43">
+        <v>45</v>
+      </c>
+      <c r="J39" s="11" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="36">
-        <v>3388519</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>95</v>
+        <v>3388794</v>
+      </c>
+      <c r="B40" s="36" t="s">
+        <v>92</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D40" s="36" t="s">
-        <v>97</v>
+        <v>181</v>
       </c>
       <c r="E40" s="11"/>
       <c r="F40" s="11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G40" s="11" t="s">
         <v>58</v>
@@ -2876,36 +3307,42 @@
       <c r="H40" s="55">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I40" s="55">
+        <v>13.4</v>
+      </c>
+      <c r="J40" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="36">
-        <v>3388693</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>99</v>
+        <v>3388519</v>
+      </c>
+      <c r="B41" s="36" t="s">
+        <v>95</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D41" s="36" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E41" s="11"/>
       <c r="F41" s="11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G41" s="11" t="s">
         <v>58</v>
       </c>
       <c r="H41" s="55">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="36">
-        <v>3388536</v>
-      </c>
-      <c r="B42" s="11" t="s">
+        <v>3388693</v>
+      </c>
+      <c r="B42" s="36" t="s">
         <v>99</v>
       </c>
       <c r="C42" s="11" t="s">
@@ -2916,7 +3353,7 @@
       </c>
       <c r="E42" s="11"/>
       <c r="F42" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>58</v>
@@ -2925,76 +3362,70 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="36">
-        <v>3345534</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>104</v>
+        <v>3388536</v>
+      </c>
+      <c r="B43" s="36" t="s">
+        <v>99</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D43" s="36" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E43" s="11"/>
       <c r="F43" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H43" s="43">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="H43" s="55">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="36">
-        <v>3388620</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>108</v>
+        <v>3345534</v>
+      </c>
+      <c r="B44" s="36" t="s">
+        <v>104</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D44" s="36" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E44" s="11"/>
       <c r="F44" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="H44" s="43">
-        <v>6.7</v>
-      </c>
-      <c r="I44" s="43">
-        <v>45</v>
-      </c>
-      <c r="J44" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="36">
-        <v>3388488</v>
-      </c>
-      <c r="B45" s="11" t="s">
+        <v>3388620</v>
+      </c>
+      <c r="B45" s="36" t="s">
         <v>108</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>109</v>
       </c>
       <c r="D45" s="36" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E45" s="11"/>
       <c r="F45" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G45" s="11" t="s">
         <v>58</v>
@@ -3005,208 +3436,218 @@
       <c r="I45" s="43">
         <v>45</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J45" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="36">
+        <v>3388488</v>
+      </c>
+      <c r="B46" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D46" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H46" s="43">
+        <v>6.7</v>
+      </c>
+      <c r="I46" s="43">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A47" s="36">
         <v>3388573</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B47" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C47" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D46" s="45" t="s">
+      <c r="D47" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E47" s="11">
         <v>8240436</v>
       </c>
-      <c r="F46" s="11" t="s">
+      <c r="F47" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="G46" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H46" s="43">
+      <c r="G47" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H47" s="43">
         <v>90</v>
       </c>
-      <c r="I46" s="43">
+      <c r="I47" s="43">
         <v>90</v>
       </c>
-      <c r="J46" t="s">
+      <c r="J47" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="36">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A48" s="36">
         <v>3388646</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B48" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C48" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D47" s="36" t="s">
+      <c r="D48" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11" t="s">
+      <c r="E48" s="11"/>
+      <c r="F48" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="G47" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H47" s="55">
+      <c r="G48" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H48" s="55">
         <v>13.4</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="36">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" s="36">
         <v>3388643</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B49" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C49" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D48" s="36" t="s">
+      <c r="D49" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E49" s="11">
         <v>5222179</v>
       </c>
-      <c r="F48" s="11" t="s">
+      <c r="F49" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="G48" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H48" s="43">
+      <c r="G49" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49" s="43">
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="36">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" s="36">
         <v>2634834</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B50" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C50" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D49" s="45" t="s">
+      <c r="D50" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11" t="s">
+      <c r="E50" s="11"/>
+      <c r="F50" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="G49" s="11" t="s">
+      <c r="G50" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="H49" s="55">
+      <c r="H50" s="55">
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="77">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" s="76">
         <v>3389861</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B51" s="80" t="s">
         <v>151</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C51" t="s">
         <v>153</v>
       </c>
-      <c r="D50" s="45" t="s">
+      <c r="D51" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F51" s="11">
         <v>523448</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G51" t="s">
         <v>6</v>
       </c>
-      <c r="H50" s="55">
+      <c r="H51" s="55">
         <v>13.4</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="77">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A52" s="76">
         <v>3277813</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B52" s="80" t="s">
         <v>158</v>
       </c>
-      <c r="D51" s="45" t="s">
+      <c r="D52" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F52" s="9">
         <v>517.86</v>
       </c>
-      <c r="G51" t="s">
-        <v>58</v>
-      </c>
-      <c r="H51" s="67">
+      <c r="G52" t="s">
+        <v>58</v>
+      </c>
+      <c r="H52" s="67">
         <v>13.4</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="77">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53" s="76">
         <v>3390706</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B53" s="80" t="s">
         <v>160</v>
       </c>
-      <c r="D52" s="45" t="s">
+      <c r="D53" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="F52" s="9">
+      <c r="F53" s="9">
         <v>3538.14</v>
       </c>
-      <c r="G52" t="s">
-        <v>58</v>
-      </c>
-      <c r="H52" s="69">
+      <c r="G53" t="s">
+        <v>58</v>
+      </c>
+      <c r="H53" s="68">
         <v>13.4</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="45">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54" s="45">
         <v>3390685</v>
       </c>
-      <c r="B53" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="D53" s="45" t="s">
-        <v>161</v>
-      </c>
-      <c r="F53" s="9">
-        <v>1599.81</v>
-      </c>
-      <c r="G53" t="s">
-        <v>58</v>
-      </c>
-      <c r="H53" s="67">
-        <v>21.6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="45">
-        <v>3390714</v>
-      </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="80" t="s">
         <v>162</v>
       </c>
       <c r="D54" s="45" t="s">
         <v>161</v>
       </c>
       <c r="F54" s="9">
-        <v>10469.780000000001</v>
+        <v>1599.81</v>
       </c>
       <c r="G54" t="s">
         <v>58</v>
@@ -3215,18 +3656,18 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="45">
-        <v>3390695</v>
-      </c>
-      <c r="B55" s="10" t="s">
+        <v>3390714</v>
+      </c>
+      <c r="B55" s="80" t="s">
         <v>162</v>
       </c>
       <c r="D55" s="45" t="s">
         <v>161</v>
       </c>
       <c r="F55" s="9">
-        <v>96.44</v>
+        <v>10469.780000000001</v>
       </c>
       <c r="G55" t="s">
         <v>58</v>
@@ -3235,231 +3676,1015 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="77">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56" s="45">
+        <v>3390695</v>
+      </c>
+      <c r="B56" s="80" t="s">
+        <v>162</v>
+      </c>
+      <c r="D56" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="F56" s="9">
+        <v>96.44</v>
+      </c>
+      <c r="G56" t="s">
+        <v>58</v>
+      </c>
+      <c r="H56" s="67">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" s="76">
         <v>3282647</v>
       </c>
-      <c r="B56" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="D56" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="F56" s="9">
-        <v>354.32</v>
-      </c>
-      <c r="G56" t="s">
-        <v>58</v>
-      </c>
-      <c r="H56" s="69">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="77">
-        <v>3282649</v>
-      </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="80" t="s">
         <v>164</v>
       </c>
       <c r="D57" s="45" t="s">
         <v>163</v>
       </c>
       <c r="F57" s="9">
-        <v>254.94</v>
+        <v>354.32</v>
       </c>
       <c r="G57" t="s">
         <v>58</v>
       </c>
-      <c r="H57" s="69">
+      <c r="H57" s="68">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="77">
-        <v>3282639</v>
-      </c>
-      <c r="B58" s="10" t="s">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A58" s="76">
+        <v>3282649</v>
+      </c>
+      <c r="B58" s="80" t="s">
         <v>164</v>
       </c>
-      <c r="C58" s="11"/>
       <c r="D58" s="45" t="s">
         <v>163</v>
       </c>
       <c r="F58" s="9">
+        <v>254.94</v>
+      </c>
+      <c r="G58" t="s">
+        <v>58</v>
+      </c>
+      <c r="H58" s="68">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A59" s="76">
+        <v>3282639</v>
+      </c>
+      <c r="B59" s="80" t="s">
+        <v>164</v>
+      </c>
+      <c r="C59" s="11"/>
+      <c r="D59" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="F59" s="9">
         <v>1773.28</v>
       </c>
-      <c r="G58" t="s">
-        <v>58</v>
-      </c>
-      <c r="H58" s="69">
+      <c r="G59" t="s">
+        <v>58</v>
+      </c>
+      <c r="H59" s="68">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="77">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60" s="76">
         <v>3390742</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B60" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="D59" s="45" t="s">
+      <c r="D60" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="F59" s="9">
+      <c r="F60" s="9">
         <v>8054.93</v>
       </c>
-      <c r="G59" t="s">
-        <v>58</v>
-      </c>
-      <c r="H59" s="67">
+      <c r="G60" t="s">
+        <v>58</v>
+      </c>
+      <c r="H60" s="67">
         <v>13.4</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="77">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61" s="76">
         <v>3389888</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B61" s="80" t="s">
         <v>167</v>
       </c>
-      <c r="D60" s="45" t="s">
+      <c r="D61" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="F60" s="9">
+      <c r="F61" s="9">
         <v>2811.39</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G61" t="s">
         <v>6</v>
       </c>
-      <c r="H60" s="67">
+      <c r="H61" s="67">
         <v>65</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="78">
+    <row r="62" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="77">
         <v>3390681</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B62" s="80" t="s">
         <v>184</v>
       </c>
-      <c r="D61" s="45" t="s">
+      <c r="D62" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="F61" s="9">
+      <c r="F62" s="9">
         <v>1073.42</v>
       </c>
-      <c r="G61" t="s">
-        <v>58</v>
-      </c>
-      <c r="H61" s="70">
+      <c r="G62" t="s">
+        <v>58</v>
+      </c>
+      <c r="H62" s="69">
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="77">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" s="76">
         <v>3390745</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B63" s="80" t="s">
         <v>185</v>
       </c>
-      <c r="D62" s="75" t="s">
+      <c r="D63" s="74" t="s">
         <v>195</v>
       </c>
-      <c r="F62" s="9">
+      <c r="F63" s="9">
         <v>1071.5899999999999</v>
       </c>
-      <c r="G62" t="s">
-        <v>58</v>
-      </c>
-      <c r="H62" s="74">
+      <c r="G63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H63" s="73">
         <v>90</v>
       </c>
-      <c r="I62" s="74">
+      <c r="I63" s="73">
         <v>90</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="77">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" s="76">
         <v>3390752</v>
       </c>
-      <c r="B63" s="68" t="s">
+      <c r="B64" s="81" t="s">
         <v>187</v>
       </c>
-      <c r="D63" s="45" t="s">
+      <c r="D64" s="45" t="s">
         <v>186</v>
       </c>
-      <c r="F63" s="9">
+      <c r="F64" s="9">
         <v>8411.98</v>
       </c>
-      <c r="G63" t="s">
-        <v>58</v>
-      </c>
-      <c r="H63" s="74">
+      <c r="G64" t="s">
+        <v>58</v>
+      </c>
+      <c r="H64" s="73">
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="79">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A65" s="78">
         <v>2382326</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B65" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="D64" s="9" t="s">
+      <c r="D65" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="F64" s="9">
+      <c r="F65" s="9">
         <v>96699.83</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G65" t="s">
         <v>199</v>
-      </c>
-      <c r="H64">
-        <v>13.4</v>
-      </c>
-      <c r="I64" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="79">
-        <v>3393005</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="F65" s="9">
-        <v>4857.4799999999996</v>
-      </c>
-      <c r="G65" t="s">
-        <v>6</v>
       </c>
       <c r="H65">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="79">
-        <v>3393000</v>
+      <c r="I65" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A66" s="78">
+        <v>3393005</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F66" s="9">
-        <v>2763.41</v>
+        <v>4857.4799999999996</v>
       </c>
       <c r="G66" t="s">
         <v>6</v>
       </c>
       <c r="H66">
         <v>13.4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67" s="78">
+        <v>3393000</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="F67" s="9">
+        <v>2763.41</v>
+      </c>
+      <c r="G67" t="s">
+        <v>6</v>
+      </c>
+      <c r="H67">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A68" s="84">
+        <v>3393819</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="H68" s="11">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A69" s="84">
+        <v>3393849</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="H69" s="11">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A70" s="84">
+        <v>3393914</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="H70" s="11">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A71" s="84">
+        <v>3393774</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H71" s="11">
+        <v>13.4</v>
+      </c>
+      <c r="I71" s="1"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A72" s="84">
+        <v>3393822</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H72" s="11">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A73" s="84">
+        <v>3393885</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H73" s="11">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A74" s="84">
+        <v>3393813</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H74" s="11">
+        <v>13.4</v>
+      </c>
+      <c r="I74" s="11">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A75" s="84">
+        <v>3393955</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="G75" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H75" s="11">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A76" s="84">
+        <v>3393800</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H76" s="11">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A77" s="84">
+        <v>3393935</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="E77" s="11"/>
+      <c r="F77" s="82">
+        <v>14093</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H77" s="11">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A78" s="84">
+        <v>3393784</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="G78" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H78" s="11">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A79" s="84">
+        <v>3393942</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="G79" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H79" s="11">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A80" s="84">
+        <v>3393901</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H80" s="11">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A81" s="84">
+        <v>3393904</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="G81" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H81" s="11">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A82" s="84">
+        <v>3393842</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="E82" s="11">
+        <v>8668637</v>
+      </c>
+      <c r="F82" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="G82" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H82" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A83" s="84">
+        <v>3393839</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="E83" s="11">
+        <v>8668637</v>
+      </c>
+      <c r="F83" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G83" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H83" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A84" s="84">
+        <v>3393840</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="E84" s="11">
+        <v>8668637</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="G84" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H84" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A85" s="84">
+        <v>3393922</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="G85" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H85" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A86" s="84">
+        <v>3393824</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H86" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A87" s="84">
+        <v>3393937</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E87" s="11"/>
+      <c r="F87" s="83">
+        <v>43516</v>
+      </c>
+      <c r="G87" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H87" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A88" s="84">
+        <v>3393803</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="E88" s="11">
+        <v>6977286</v>
+      </c>
+      <c r="F88" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="G88" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H88" s="11">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A89" s="84">
+        <v>3393785</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="E89" s="11">
+        <v>6977286</v>
+      </c>
+      <c r="F89" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="G89" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H89" s="11">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A90" s="84">
+        <v>3393932</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="G90" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H90" s="11">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A91" s="84">
+        <v>3393861</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="G91" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H91" s="11">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A92" s="84">
+        <v>3393957</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="G92" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H92" s="11">
+        <v>6.7</v>
+      </c>
+      <c r="I92" s="11">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A93" s="84">
+        <v>3393926</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="G93" t="s">
+        <v>58</v>
+      </c>
+      <c r="H93" s="11">
+        <v>6.7</v>
+      </c>
+      <c r="I93" s="11">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A94" s="84">
+        <v>3393799</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="G94" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H94" s="11">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A95" s="84">
+        <v>3393958</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="G95" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H95" s="11">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A96" s="84">
+        <v>3393792</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="G96" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H96" s="11">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A97" s="84">
+        <v>3393959</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="G97" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H97" s="11">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A98" s="84">
+        <v>3393950</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="G98" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H98" s="11">
+        <v>6.7</v>
       </c>
     </row>
   </sheetData>
@@ -3470,24 +4695,1022 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A9:K47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="21.54296875" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" customWidth="1"/>
+    <col min="4" max="4" width="57.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="84">
+        <v>3393819</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="H9" s="11">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="84">
+        <v>3393957</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="11">
+        <v>6.7</v>
+      </c>
+      <c r="I11" s="11">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="84">
+        <v>3393926</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="11">
+        <v>6.7</v>
+      </c>
+      <c r="I12" s="11">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="84">
+        <v>3393958</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="11">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="84">
+        <v>3393955</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="11">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="84">
+        <v>3393774</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="11">
+        <v>13.4</v>
+      </c>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="20" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="84">
+        <v>3393901</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="11">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="84">
+        <v>3393904</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="11">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="84">
+        <v>3393959</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23" s="11">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="84">
+        <v>3393950</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="11">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="84">
+        <v>3393942</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="11">
+        <v>13.4</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="84">
+        <v>3393914</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="H28" s="11">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="84"/>
+    </row>
+    <row r="30" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="84">
+        <v>3393800</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H30" s="11">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="84">
+        <v>3393935</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="F31" s="82">
+        <v>14093</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H31" s="11">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="84">
+        <v>3393849</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="H33" s="11">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="84">
+        <v>3393922</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H35" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="84">
+        <v>3393824</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="84">
+        <v>3393937</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="F37" s="83">
+        <v>43516</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H37" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="84">
+        <v>3393957</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H39" s="11">
+        <v>6.7</v>
+      </c>
+      <c r="I39" s="11">
+        <v>6.7</v>
+      </c>
+      <c r="K39" s="11" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="84">
+        <v>3393926</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H40" s="11">
+        <v>6.7</v>
+      </c>
+      <c r="I40" s="11">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="84">
+        <v>3393885</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" s="11">
+        <v>13.4</v>
+      </c>
+      <c r="K42" s="11" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="84">
+        <v>3393932</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H44" s="11">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="84">
+        <v>3393861</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H45" s="11">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="84">
+        <v>3393784</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H47" s="11">
+        <v>13.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.90625" customWidth="1"/>
+    <col min="3" max="3" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.08984375" style="21" customWidth="1"/>
+    <col min="5" max="5" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="85">
+        <v>3393000</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="65">
+        <v>2763.41</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="11">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="85">
+        <v>2382326</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="65">
+        <v>96699.83</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="H3" s="11">
+        <v>13.4</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="85"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="85">
+        <v>3393005</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="E5" s="24"/>
+      <c r="F5" s="65">
+        <v>4857.4799999999996</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="11">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="86">
+        <v>3393799</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="11">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="86">
+        <v>3393792</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="11">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="86">
+        <v>3393822</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="11">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="86">
+        <v>3393813</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="11">
+        <v>13.4</v>
+      </c>
+      <c r="I13" s="11">
+        <v>13.4</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="86">
+        <v>3393842</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="E15" s="13">
+        <v>8668637</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="86">
+        <v>3393839</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="E16" s="13">
+        <v>8668637</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="86">
+        <v>3393840</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="E17" s="13">
+        <v>8668637</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="1:8" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="86">
+        <v>3393803</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="E19" s="13">
+        <v>6977286</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="11">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="86">
+        <v>3393785</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="E20" s="13">
+        <v>6977286</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="11">
+        <v>6.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="11" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="62">
         <v>3388794</v>
       </c>
@@ -3511,7 +5734,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -3522,7 +5745,7 @@
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
     </row>
-    <row r="3" spans="1:9" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="11" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="50">
         <v>3390742</v>
       </c>
@@ -3545,7 +5768,7 @@
       </c>
       <c r="I3" s="13"/>
     </row>
-    <row r="4" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -3556,7 +5779,7 @@
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="11" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="50">
         <v>3390695</v>
       </c>
@@ -3579,7 +5802,7 @@
       </c>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:9" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="11" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="50">
         <v>3390685</v>
       </c>
@@ -3602,7 +5825,7 @@
       </c>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:9" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="11" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="50">
         <v>3390714</v>
       </c>
@@ -3625,7 +5848,7 @@
       </c>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -3636,7 +5859,7 @@
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:9" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="11" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="50">
         <v>3277813</v>
       </c>
@@ -3659,7 +5882,7 @@
       </c>
       <c r="I9" s="13"/>
     </row>
-    <row r="19" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="26">
         <v>3389888</v>
       </c>
@@ -3685,7 +5908,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
@@ -3693,9 +5916,9 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26">
         <v>3282649</v>
       </c>
@@ -3716,7 +5939,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26">
         <v>3282639</v>
       </c>
@@ -3737,7 +5960,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="26">
         <v>3282647</v>
       </c>
@@ -3758,7 +5981,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="26">
         <v>3390706</v>
       </c>
@@ -3779,7 +6002,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>178</v>
       </c>
@@ -3795,7 +6018,7 @@
       </c>
       <c r="K7" s="61"/>
     </row>
-    <row r="9" spans="1:11" s="11" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="11" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>172</v>
       </c>
@@ -3823,7 +6046,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
@@ -3831,19 +6054,19 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="21" customWidth="1"/>
-    <col min="5" max="5" width="1.7109375" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7265625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="1.7265625" customWidth="1"/>
+    <col min="6" max="6" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13">
         <v>3388794</v>
       </c>
@@ -3867,7 +6090,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -3877,7 +6100,7 @@
       <c r="G2" s="13"/>
       <c r="H2" s="35"/>
     </row>
-    <row r="3" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>3388499</v>
       </c>
@@ -3901,7 +6124,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
         <v>3388641</v>
       </c>
@@ -3925,7 +6148,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -3935,7 +6158,7 @@
       <c r="G5" s="13"/>
       <c r="H5" s="49"/>
     </row>
-    <row r="6" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
         <v>3388646</v>
       </c>
@@ -3959,7 +6182,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -3969,7 +6192,7 @@
       <c r="G7" s="13"/>
       <c r="H7" s="35"/>
     </row>
-    <row r="8" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13">
         <v>3388490</v>
       </c>
@@ -3993,7 +6216,7 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13">
         <v>3388576</v>
       </c>
@@ -4017,7 +6240,7 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13">
         <v>3388533</v>
       </c>
@@ -4041,7 +6264,7 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13">
         <v>3388541</v>
       </c>
@@ -4065,7 +6288,7 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -4075,7 +6298,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="35"/>
     </row>
-    <row r="13" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13">
         <v>3388519</v>
       </c>
@@ -4099,7 +6322,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -4109,7 +6332,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="35"/>
     </row>
-    <row r="15" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="37" t="s">
         <v>142</v>
       </c>
@@ -4130,7 +6353,7 @@
       </c>
       <c r="I15" s="34"/>
     </row>
-    <row r="16" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="37"/>
       <c r="B16" s="38"/>
       <c r="C16" s="39"/>
@@ -4141,7 +6364,7 @@
       <c r="H16" s="13"/>
       <c r="I16" s="34"/>
     </row>
-    <row r="17" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="37" t="s">
         <v>144</v>
       </c>
@@ -4161,7 +6384,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="37"/>
       <c r="B18" s="13"/>
       <c r="C18" s="39"/>
@@ -4171,7 +6394,7 @@
       <c r="G18" s="42"/>
       <c r="H18" s="13"/>
     </row>
-    <row r="19" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="13">
         <v>2634834</v>
       </c>
@@ -4195,7 +6418,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -4205,7 +6428,7 @@
       <c r="G20" s="13"/>
       <c r="H20" s="35"/>
     </row>
-    <row r="21" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="13">
         <v>3388603</v>
       </c>
@@ -4229,7 +6452,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -4239,7 +6462,7 @@
       <c r="G22" s="13"/>
       <c r="H22" s="35"/>
     </row>
-    <row r="23" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="50">
         <v>3389861</v>
       </c>
@@ -4263,7 +6486,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -4273,7 +6496,7 @@
       <c r="G24" s="13"/>
       <c r="H24" s="35"/>
     </row>
-    <row r="25" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="13">
         <v>3388693</v>
       </c>
@@ -4297,7 +6520,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="13">
         <v>3388536</v>
       </c>
@@ -4327,7 +6550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
@@ -4335,17 +6558,17 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" style="21" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.54296875" style="21" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="37" t="s">
         <v>139</v>
       </c>
@@ -4368,7 +6591,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -4379,7 +6602,7 @@
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
     </row>
-    <row r="3" spans="1:9" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="37" t="s">
         <v>131</v>
       </c>
@@ -4400,7 +6623,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -4411,7 +6634,7 @@
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="37" t="s">
         <v>136</v>
       </c>
@@ -4434,7 +6657,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="C7" s="32"/>
       <c r="D7" s="32"/>
@@ -4448,7 +6671,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
@@ -4456,19 +6679,19 @@
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="21" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" style="21" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7265625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.54296875" style="21" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="37" t="s">
         <v>133</v>
       </c>
@@ -4491,7 +6714,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13"/>
       <c r="B2" s="18"/>
       <c r="C2" s="13"/>
@@ -4501,7 +6724,7 @@
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="1:9" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>3388568</v>
       </c>
@@ -4525,7 +6748,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
         <v>3388525</v>
       </c>
@@ -4549,7 +6772,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
         <v>3388505</v>
       </c>
@@ -4573,7 +6796,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
         <v>3388495</v>
       </c>
@@ -4597,7 +6820,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13"/>
       <c r="B7" s="18"/>
       <c r="C7" s="13"/>
@@ -4607,7 +6830,7 @@
       <c r="G7" s="13"/>
       <c r="H7" s="35"/>
     </row>
-    <row r="8" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13">
         <v>3388598</v>
       </c>
@@ -4633,7 +6856,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13"/>
       <c r="B9" s="18"/>
       <c r="C9" s="13"/>
@@ -4643,7 +6866,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="35"/>
     </row>
-    <row r="10" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13">
         <v>3388573</v>
       </c>
@@ -4672,7 +6895,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13"/>
       <c r="B11" s="18"/>
       <c r="C11" s="13"/>
@@ -4682,7 +6905,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="35"/>
     </row>
-    <row r="12" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13">
         <v>3077115</v>
       </c>
@@ -4709,7 +6932,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13"/>
       <c r="B13" s="18"/>
       <c r="C13" s="13"/>
@@ -4719,7 +6942,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="35"/>
     </row>
-    <row r="14" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13">
         <v>3388643</v>
       </c>
@@ -4745,7 +6968,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13"/>
       <c r="B15" s="18"/>
       <c r="C15" s="13"/>
@@ -4755,7 +6978,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="35"/>
     </row>
-    <row r="16" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13">
         <v>3345534</v>
       </c>
@@ -4779,7 +7002,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="13"/>
       <c r="B17" s="18"/>
       <c r="C17" s="13"/>
@@ -4789,7 +7012,7 @@
       <c r="G17" s="13"/>
       <c r="H17" s="35"/>
     </row>
-    <row r="18" spans="1:10" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13">
         <v>3388620</v>
       </c>
@@ -4819,7 +7042,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="13">
         <v>3388488</v>
       </c>
@@ -4846,7 +7069,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="13"/>
       <c r="B20" s="18"/>
       <c r="C20" s="13"/>
@@ -4856,7 +7079,7 @@
       <c r="G20" s="13"/>
       <c r="H20" s="35"/>
     </row>
-    <row r="21" spans="1:10" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="13">
         <v>3388482</v>
       </c>
@@ -4883,7 +7106,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="13">
         <v>3388521</v>
       </c>
@@ -4916,7 +7139,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
@@ -4924,21 +7147,21 @@
       <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="21" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" style="21" customWidth="1"/>
+    <col min="1" max="1" width="20.1796875" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.26953125" customWidth="1"/>
+    <col min="5" max="5" width="25.1796875" style="21" customWidth="1"/>
     <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="11" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="11" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>23</v>
       </c>
@@ -4962,7 +7185,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="11" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="11" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>41</v>
       </c>
@@ -4986,7 +7209,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="11" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="11" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14">
         <v>3370942</v>
       </c>
@@ -5004,7 +7227,7 @@
       <c r="I3" s="15"/>
       <c r="J3" s="17"/>
     </row>
-    <row r="4" spans="1:10" s="11" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="11" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>26</v>
       </c>
@@ -5028,7 +7251,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="11" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="11" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>29</v>
       </c>

--- a/rozjazdy zbiorcze maj.xlsx
+++ b/rozjazdy zbiorcze maj.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KOKSZTYS\maj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\KOKSZTYS\maj\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10910" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11535"/>
   </bookViews>
   <sheets>
     <sheet name="Pakiet_Zlecen_WTA_2019_05_06s.s" sheetId="1" r:id="rId1"/>
-    <sheet name="rozjazdy 29.05" sheetId="8" r:id="rId2"/>
-    <sheet name="rozjazdy 30.05" sheetId="9" r:id="rId3"/>
+    <sheet name="rozjazdy 30.05" sheetId="8" r:id="rId2"/>
+    <sheet name="rozjazdy 29.05" sheetId="9" r:id="rId3"/>
     <sheet name="rozjazdy 23.05" sheetId="6" r:id="rId4"/>
     <sheet name="rozjady 24.05" sheetId="7" r:id="rId5"/>
     <sheet name="rozjazdy 21.05" sheetId="5" r:id="rId6"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="313">
   <si>
     <t>SALON PRASOWY-TOTOLOTEK BOGUSŁAW KLEMENT</t>
   </si>
@@ -1221,12 +1221,27 @@
       <t>Ukraińska 1A</t>
     </r>
   </si>
+  <si>
+    <t>zlecenie wykonano 29.05</t>
+  </si>
+  <si>
+    <t>ADAMA ASNYKA 7/8, 58-124 MARCINOWICE  //  SZKOLNA 19, 55-081 PROSZKOWICE</t>
+  </si>
+  <si>
+    <t>KATARZYNA BONDZYŁO</t>
+  </si>
+  <si>
+    <t>zlecenie wykonano 30.05</t>
+  </si>
+  <si>
+    <t>69 km Wrocław</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1474,8 +1489,16 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1682,6 +1705,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1896,7 +1931,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
@@ -2060,6 +2095,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — akcent 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2386,24 +2440,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N98"/>
+  <dimension ref="A1:N99"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="H16" sqref="A16:H16"/>
+    <sheetView tabSelected="1" topLeftCell="B69" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="85.08984375" customWidth="1"/>
-    <col min="5" max="5" width="11.26953125" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="85.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="75" t="s">
         <v>131</v>
       </c>
@@ -2421,7 +2475,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="75" t="s">
         <v>133</v>
       </c>
@@ -2444,7 +2498,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="75" t="s">
         <v>136</v>
       </c>
@@ -2465,7 +2519,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="75" t="s">
         <v>139</v>
       </c>
@@ -2488,7 +2542,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="75" t="s">
         <v>142</v>
       </c>
@@ -2509,7 +2563,7 @@
       </c>
       <c r="I5" s="34"/>
     </row>
-    <row r="6" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="75" t="s">
         <v>144</v>
       </c>
@@ -2528,7 +2582,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="75" t="s">
         <v>7</v>
       </c>
@@ -2545,7 +2599,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="75" t="s">
         <v>7</v>
       </c>
@@ -2562,7 +2616,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="75" t="s">
         <v>169</v>
       </c>
@@ -2583,7 +2637,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="75" t="s">
         <v>172</v>
       </c>
@@ -2609,7 +2663,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="75" t="s">
         <v>175</v>
       </c>
@@ -2633,7 +2687,7 @@
       </c>
       <c r="L11" s="30"/>
     </row>
-    <row r="12" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -2657,7 +2711,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="75" t="s">
         <v>51</v>
       </c>
@@ -2677,7 +2731,7 @@
       <c r="L13" s="48"/>
       <c r="M13" s="48"/>
     </row>
-    <row r="14" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
         <v>178</v>
       </c>
@@ -2697,7 +2751,7 @@
       </c>
       <c r="L14"/>
     </row>
-    <row r="15" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
         <v>189</v>
       </c>
@@ -2722,13 +2776,13 @@
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K16" s="68" t="s">
         <v>196</v>
       </c>
       <c r="L16"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="36">
         <v>3377034</v>
       </c>
@@ -2751,7 +2805,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="36">
         <v>3377017</v>
       </c>
@@ -2770,8 +2824,14 @@
       <c r="H18" s="2">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K18" s="87" t="s">
+        <v>308</v>
+      </c>
+      <c r="N18" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="76">
         <v>3370942</v>
       </c>
@@ -2787,8 +2847,11 @@
       <c r="H19" s="25">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K19" s="97" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="36" t="s">
         <v>20</v>
       </c>
@@ -2812,7 +2875,7 @@
       </c>
       <c r="I20" s="11"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="36" t="s">
         <v>23</v>
       </c>
@@ -2838,7 +2901,7 @@
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="36" t="s">
         <v>26</v>
       </c>
@@ -2864,7 +2927,7 @@
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
         <v>29</v>
       </c>
@@ -2890,7 +2953,7 @@
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="76">
         <v>3385881</v>
       </c>
@@ -2907,7 +2970,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="36">
         <v>3388499</v>
       </c>
@@ -2931,7 +2994,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="36">
         <v>3388641</v>
       </c>
@@ -2955,7 +3018,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="36">
         <v>3388568</v>
       </c>
@@ -2979,7 +3042,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="36">
         <v>3388525</v>
       </c>
@@ -3003,7 +3066,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="36">
         <v>3388505</v>
       </c>
@@ -3027,7 +3090,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="36">
         <v>3388495</v>
       </c>
@@ -3051,7 +3114,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="36">
         <v>3388603</v>
       </c>
@@ -3075,7 +3138,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="36">
         <v>3388598</v>
       </c>
@@ -3101,7 +3164,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="36">
         <v>3388490</v>
       </c>
@@ -3125,7 +3188,7 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="36">
         <v>3388576</v>
       </c>
@@ -3149,7 +3212,7 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="36">
         <v>3388533</v>
       </c>
@@ -3173,7 +3236,7 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="36">
         <v>3388541</v>
       </c>
@@ -3197,7 +3260,7 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="36">
         <v>3077115</v>
       </c>
@@ -3224,7 +3287,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="36">
         <v>3388482</v>
       </c>
@@ -3254,7 +3317,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="36">
         <v>3388521</v>
       </c>
@@ -3284,7 +3347,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="36">
         <v>3388794</v>
       </c>
@@ -3314,7 +3377,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="36">
         <v>3388519</v>
       </c>
@@ -3338,7 +3401,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="36">
         <v>3388693</v>
       </c>
@@ -3362,7 +3425,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="36">
         <v>3388536</v>
       </c>
@@ -3386,7 +3449,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="36">
         <v>3345534</v>
       </c>
@@ -3410,7 +3473,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="36">
         <v>3388620</v>
       </c>
@@ -3440,7 +3503,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="36">
         <v>3388488</v>
       </c>
@@ -3467,7 +3530,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="36">
         <v>3388573</v>
       </c>
@@ -3499,7 +3562,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="36">
         <v>3388646</v>
       </c>
@@ -3523,7 +3586,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="36">
         <v>3388643</v>
       </c>
@@ -3549,7 +3612,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="36">
         <v>2634834</v>
       </c>
@@ -3573,7 +3636,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="76">
         <v>3389861</v>
       </c>
@@ -3596,7 +3659,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="76">
         <v>3277813</v>
       </c>
@@ -3616,7 +3679,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="76">
         <v>3390706</v>
       </c>
@@ -3636,7 +3699,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="45">
         <v>3390685</v>
       </c>
@@ -3656,7 +3719,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="45">
         <v>3390714</v>
       </c>
@@ -3676,7 +3739,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="45">
         <v>3390695</v>
       </c>
@@ -3696,7 +3759,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="76">
         <v>3282647</v>
       </c>
@@ -3716,7 +3779,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="76">
         <v>3282649</v>
       </c>
@@ -3736,7 +3799,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="76">
         <v>3282639</v>
       </c>
@@ -3757,7 +3820,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="76">
         <v>3390742</v>
       </c>
@@ -3777,7 +3840,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="76">
         <v>3389888</v>
       </c>
@@ -3797,7 +3860,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="77">
         <v>3390681</v>
       </c>
@@ -3817,7 +3880,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="76">
         <v>3390745</v>
       </c>
@@ -3840,7 +3903,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="76">
         <v>3390752</v>
       </c>
@@ -3860,14 +3923,14 @@
         <v>90</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="78">
         <v>2382326</v>
       </c>
       <c r="B65" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="D65" s="9" t="s">
+      <c r="D65" s="45" t="s">
         <v>198</v>
       </c>
       <c r="F65" s="9">
@@ -3876,21 +3939,21 @@
       <c r="G65" t="s">
         <v>199</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="97">
         <v>13.4</v>
       </c>
       <c r="I65" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="78">
         <v>3393005</v>
       </c>
       <c r="B66" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="D66" s="9" t="s">
+      <c r="D66" s="45" t="s">
         <v>202</v>
       </c>
       <c r="F66" s="9">
@@ -3899,18 +3962,18 @@
       <c r="G66" t="s">
         <v>6</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="87">
         <v>13.4</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="78">
         <v>3393000</v>
       </c>
       <c r="B67" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="D67" s="9" t="s">
+      <c r="D67" s="45" t="s">
         <v>204</v>
       </c>
       <c r="F67" s="9">
@@ -3919,11 +3982,11 @@
       <c r="G67" t="s">
         <v>6</v>
       </c>
-      <c r="H67">
+      <c r="H67" s="87">
         <v>13.4</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="84">
         <v>3393819</v>
       </c>
@@ -3933,7 +3996,7 @@
       <c r="C68" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="D68" s="11" t="s">
+      <c r="D68" s="36" t="s">
         <v>208</v>
       </c>
       <c r="E68" s="11"/>
@@ -3943,11 +4006,11 @@
       <c r="G68" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="H68" s="11">
+      <c r="H68" s="87">
         <v>13.4</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="84">
         <v>3393849</v>
       </c>
@@ -3957,7 +4020,7 @@
       <c r="C69" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="D69" s="11" t="s">
+      <c r="D69" s="36" t="s">
         <v>216</v>
       </c>
       <c r="E69" s="11"/>
@@ -3967,11 +4030,11 @@
       <c r="G69" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="H69" s="11">
+      <c r="H69" s="97">
         <v>13.4</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="84">
         <v>3393914</v>
       </c>
@@ -3981,7 +4044,7 @@
       <c r="C70" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="D70" s="11" t="s">
+      <c r="D70" s="36" t="s">
         <v>220</v>
       </c>
       <c r="E70" s="11"/>
@@ -3991,11 +4054,11 @@
       <c r="G70" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="H70" s="11">
+      <c r="H70" s="97">
         <v>13.4</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="84">
         <v>3393774</v>
       </c>
@@ -4005,7 +4068,7 @@
       <c r="C71" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="D71" s="11" t="s">
+      <c r="D71" s="36" t="s">
         <v>297</v>
       </c>
       <c r="E71" s="11"/>
@@ -4015,12 +4078,12 @@
       <c r="G71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H71" s="11">
+      <c r="H71" s="97">
         <v>13.4</v>
       </c>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="84">
         <v>3393822</v>
       </c>
@@ -4030,7 +4093,7 @@
       <c r="C72" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="D72" s="11" t="s">
+      <c r="D72" s="36" t="s">
         <v>227</v>
       </c>
       <c r="E72" s="11"/>
@@ -4040,11 +4103,11 @@
       <c r="G72" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H72" s="11">
+      <c r="H72" s="87">
         <v>13.4</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="84">
         <v>3393885</v>
       </c>
@@ -4068,7 +4131,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="84">
         <v>3393813</v>
       </c>
@@ -4078,7 +4141,7 @@
       <c r="C74" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="D74" s="11" t="s">
+      <c r="D74" s="36" t="s">
         <v>234</v>
       </c>
       <c r="E74" s="11"/>
@@ -4088,14 +4151,14 @@
       <c r="G74" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H74" s="11">
+      <c r="H74" s="87">
         <v>13.4</v>
       </c>
-      <c r="I74" s="11">
+      <c r="I74" s="87">
         <v>13.4</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="84">
         <v>3393955</v>
       </c>
@@ -4105,7 +4168,7 @@
       <c r="C75" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="D75" s="11" t="s">
+      <c r="D75" s="36" t="s">
         <v>238</v>
       </c>
       <c r="E75" s="11"/>
@@ -4115,11 +4178,11 @@
       <c r="G75" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H75" s="11">
+      <c r="H75" s="97">
         <v>13.4</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="84">
         <v>3393800</v>
       </c>
@@ -4129,7 +4192,7 @@
       <c r="C76" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="D76" s="11" t="s">
+      <c r="D76" s="36" t="s">
         <v>231</v>
       </c>
       <c r="E76" s="11"/>
@@ -4139,11 +4202,11 @@
       <c r="G76" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H76" s="11">
+      <c r="H76" s="97">
         <v>6.7</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="84">
         <v>3393935</v>
       </c>
@@ -4153,7 +4216,7 @@
       <c r="C77" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="D77" s="11" t="s">
+      <c r="D77" s="36" t="s">
         <v>231</v>
       </c>
       <c r="E77" s="11"/>
@@ -4163,11 +4226,11 @@
       <c r="G77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H77" s="11">
+      <c r="H77" s="97">
         <v>6.7</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="84">
         <v>3393784</v>
       </c>
@@ -4191,7 +4254,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="84">
         <v>3393942</v>
       </c>
@@ -4201,7 +4264,7 @@
       <c r="C79" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="D79" s="11" t="s">
+      <c r="D79" s="36" t="s">
         <v>247</v>
       </c>
       <c r="E79" s="11"/>
@@ -4211,11 +4274,11 @@
       <c r="G79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H79" s="11">
+      <c r="H79" s="97">
         <v>13.4</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="84">
         <v>3393901</v>
       </c>
@@ -4225,7 +4288,7 @@
       <c r="C80" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="D80" s="11" t="s">
+      <c r="D80" s="36" t="s">
         <v>251</v>
       </c>
       <c r="E80" s="11"/>
@@ -4235,11 +4298,11 @@
       <c r="G80" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H80" s="11">
+      <c r="H80" s="97">
         <v>6.7</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="84">
         <v>3393904</v>
       </c>
@@ -4249,7 +4312,7 @@
       <c r="C81" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="D81" s="11" t="s">
+      <c r="D81" s="36" t="s">
         <v>251</v>
       </c>
       <c r="E81" s="11"/>
@@ -4259,11 +4322,11 @@
       <c r="G81" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H81" s="11">
+      <c r="H81" s="97">
         <v>6.7</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="84">
         <v>3393842</v>
       </c>
@@ -4273,7 +4336,7 @@
       <c r="C82" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="D82" s="11" t="s">
+      <c r="D82" s="36" t="s">
         <v>260</v>
       </c>
       <c r="E82" s="11">
@@ -4285,11 +4348,11 @@
       <c r="G82" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H82" s="11">
+      <c r="H82" s="87">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="84">
         <v>3393839</v>
       </c>
@@ -4299,7 +4362,7 @@
       <c r="C83" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="D83" s="11" t="s">
+      <c r="D83" s="36" t="s">
         <v>260</v>
       </c>
       <c r="E83" s="11">
@@ -4311,11 +4374,11 @@
       <c r="G83" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H83" s="11">
+      <c r="H83" s="87">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="84">
         <v>3393840</v>
       </c>
@@ -4325,7 +4388,7 @@
       <c r="C84" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="D84" s="11" t="s">
+      <c r="D84" s="36" t="s">
         <v>260</v>
       </c>
       <c r="E84" s="11">
@@ -4337,11 +4400,11 @@
       <c r="G84" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H84" s="11">
+      <c r="H84" s="87">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="84">
         <v>3393922</v>
       </c>
@@ -4351,7 +4414,7 @@
       <c r="C85" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="D85" s="11" t="s">
+      <c r="D85" s="36" t="s">
         <v>266</v>
       </c>
       <c r="E85" s="11"/>
@@ -4361,11 +4424,11 @@
       <c r="G85" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H85" s="11">
+      <c r="H85" s="97">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="84">
         <v>3393824</v>
       </c>
@@ -4375,7 +4438,7 @@
       <c r="C86" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="D86" s="11" t="s">
+      <c r="D86" s="36" t="s">
         <v>266</v>
       </c>
       <c r="E86" s="11"/>
@@ -4385,11 +4448,11 @@
       <c r="G86" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H86" s="11">
+      <c r="H86" s="97">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="84">
         <v>3393937</v>
       </c>
@@ -4399,7 +4462,7 @@
       <c r="C87" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="D87" s="11" t="s">
+      <c r="D87" s="36" t="s">
         <v>266</v>
       </c>
       <c r="E87" s="11"/>
@@ -4409,11 +4472,11 @@
       <c r="G87" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H87" s="11">
+      <c r="H87" s="97">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="84">
         <v>3393803</v>
       </c>
@@ -4423,7 +4486,7 @@
       <c r="C88" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="D88" s="11" t="s">
+      <c r="D88" s="36" t="s">
         <v>271</v>
       </c>
       <c r="E88" s="11">
@@ -4435,11 +4498,11 @@
       <c r="G88" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H88" s="11">
+      <c r="H88" s="87">
         <v>6.7</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="84">
         <v>3393785</v>
       </c>
@@ -4449,7 +4512,7 @@
       <c r="C89" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="D89" s="11" t="s">
+      <c r="D89" s="36" t="s">
         <v>271</v>
       </c>
       <c r="E89" s="11">
@@ -4461,59 +4524,59 @@
       <c r="G89" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H89" s="11">
+      <c r="H89" s="87">
         <v>6.7</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A90" s="84">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="93">
         <v>3393932</v>
       </c>
-      <c r="B90" s="11" t="s">
+      <c r="B90" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="C90" s="11" t="s">
+      <c r="C90" s="7" t="s">
         <v>68</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="E90" s="11"/>
-      <c r="F90" s="11" t="s">
+      <c r="E90" s="7"/>
+      <c r="F90" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="G90" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H90" s="11">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A91" s="84">
+      <c r="G90" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H90" s="7">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="90">
         <v>3393861</v>
       </c>
-      <c r="B91" s="11" t="s">
+      <c r="B91" s="91" t="s">
         <v>274</v>
       </c>
-      <c r="C91" s="11" t="s">
+      <c r="C91" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="D91" s="9" t="s">
+      <c r="D91" s="92" t="s">
         <v>275</v>
       </c>
-      <c r="E91" s="11"/>
-      <c r="F91" s="11" t="s">
+      <c r="E91" s="91"/>
+      <c r="F91" s="91" t="s">
         <v>277</v>
       </c>
-      <c r="G91" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H91" s="11">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G91" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="H91" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="84">
         <v>3393957</v>
       </c>
@@ -4523,7 +4586,7 @@
       <c r="C92" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="D92" s="11" t="s">
+      <c r="D92" s="36" t="s">
         <v>296</v>
       </c>
       <c r="E92" s="11"/>
@@ -4533,14 +4596,14 @@
       <c r="G92" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H92" s="11">
+      <c r="H92" s="97">
         <v>6.7</v>
       </c>
-      <c r="I92" s="11">
+      <c r="I92" s="97">
         <v>6.7</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="84">
         <v>3393926</v>
       </c>
@@ -4550,7 +4613,7 @@
       <c r="C93" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="D93" s="11" t="s">
+      <c r="D93" s="36" t="s">
         <v>296</v>
       </c>
       <c r="E93" s="11"/>
@@ -4560,14 +4623,14 @@
       <c r="G93" t="s">
         <v>58</v>
       </c>
-      <c r="H93" s="11">
+      <c r="H93" s="97">
         <v>6.7</v>
       </c>
-      <c r="I93" s="11">
+      <c r="I93" s="97">
         <v>6.7</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="84">
         <v>3393799</v>
       </c>
@@ -4577,7 +4640,7 @@
       <c r="C94" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="D94" s="11" t="s">
+      <c r="D94" s="36" t="s">
         <v>281</v>
       </c>
       <c r="E94" s="11"/>
@@ -4587,11 +4650,11 @@
       <c r="G94" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H94" s="11">
+      <c r="H94" s="87">
         <v>13.4</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="84">
         <v>3393958</v>
       </c>
@@ -4601,7 +4664,7 @@
       <c r="C95" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="D95" s="11" t="s">
+      <c r="D95" s="36" t="s">
         <v>285</v>
       </c>
       <c r="E95" s="11"/>
@@ -4611,11 +4674,11 @@
       <c r="G95" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H95" s="11">
+      <c r="H95" s="97">
         <v>13.4</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="84">
         <v>3393792</v>
       </c>
@@ -4625,7 +4688,7 @@
       <c r="C96" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="D96" s="11" t="s">
+      <c r="D96" s="36" t="s">
         <v>289</v>
       </c>
       <c r="E96" s="11"/>
@@ -4635,11 +4698,11 @@
       <c r="G96" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H96" s="11">
+      <c r="H96" s="87">
         <v>13.4</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="84">
         <v>3393959</v>
       </c>
@@ -4649,7 +4712,7 @@
       <c r="C97" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="D97" s="11" t="s">
+      <c r="D97" s="36" t="s">
         <v>293</v>
       </c>
       <c r="E97" s="11"/>
@@ -4659,11 +4722,11 @@
       <c r="G97" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H97" s="11">
+      <c r="H97" s="97">
         <v>6.7</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="84">
         <v>3393950</v>
       </c>
@@ -4673,7 +4736,7 @@
       <c r="C98" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="D98" s="11" t="s">
+      <c r="D98" s="36" t="s">
         <v>293</v>
       </c>
       <c r="E98" s="11"/>
@@ -4683,8 +4746,28 @@
       <c r="G98" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H98" s="11">
+      <c r="H98" s="97">
         <v>6.7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="26">
+        <v>3388696</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="D99" s="45" t="s">
+        <v>309</v>
+      </c>
+      <c r="G99" t="s">
+        <v>58</v>
+      </c>
+      <c r="H99" s="97">
+        <v>65</v>
+      </c>
+      <c r="I99" s="97">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -4695,593 +4778,725 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A9:K47"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.54296875" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" customWidth="1"/>
-    <col min="4" max="4" width="57.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="21" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="84">
-        <v>3393819</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="H9" s="11">
+    <row r="1" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="86">
+        <v>3393957</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="11">
+        <v>6.7</v>
+      </c>
+      <c r="I1" s="11">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="86">
+        <v>3393926</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="11">
+        <v>6.7</v>
+      </c>
+      <c r="I2" s="11">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="86">
+        <v>3393958</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="11">
         <v>13.4</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="84">
-        <v>3393957</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="G11" s="11" t="s">
+    <row r="5" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="86">
+        <v>3393955</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="11">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="86">
+        <v>3393774</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="11">
+        <v>13.4</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="86">
+        <v>3393901</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="11">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="86">
+        <v>3393904</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>58</v>
       </c>
       <c r="H11" s="11">
         <v>6.7</v>
       </c>
-      <c r="I11" s="11">
+    </row>
+    <row r="12" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="86">
+        <v>3393959</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="11">
         <v>6.7</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="84">
-        <v>3393926</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" s="11">
+    <row r="14" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="86">
+        <v>3393950</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="11">
         <v>6.7</v>
       </c>
-      <c r="I12" s="11">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="84">
-        <v>3393958</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="11">
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="84">
-        <v>3393955</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="G16" s="11" t="s">
+    </row>
+    <row r="15" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="86">
+        <v>3393942</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="G16" s="13" t="s">
         <v>58</v>
       </c>
       <c r="H16" s="11">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="84">
-        <v>3393774</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>58</v>
+      <c r="K16" s="11" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="86">
+        <v>3393914</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>210</v>
       </c>
       <c r="H18" s="11">
         <v>13.4</v>
       </c>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="20" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="84">
-        <v>3393901</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="G20" s="11" t="s">
+    </row>
+    <row r="19" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="86"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="86">
+        <v>3393800</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G20" s="13" t="s">
         <v>58</v>
       </c>
       <c r="H20" s="11">
         <v>6.7</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="84">
-        <v>3393904</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="G21" s="11" t="s">
+    <row r="21" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="86">
+        <v>3393935</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="88">
+        <v>14093</v>
+      </c>
+      <c r="G21" s="13" t="s">
         <v>58</v>
       </c>
       <c r="H21" s="11">
         <v>6.7</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="84">
-        <v>3393959</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>58</v>
+    <row r="22" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="86">
+        <v>3393849</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>210</v>
       </c>
       <c r="H23" s="11">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="86">
+        <v>3393922</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="86">
+        <v>3393824</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="86">
+        <v>3393937</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="89">
+        <v>43516</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+    </row>
+    <row r="29" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="86">
+        <v>3393957</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" s="11">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="84">
-        <v>3393950</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H24" s="11">
+      <c r="I29" s="11">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="84">
-        <v>3393942</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H26" s="11">
-        <v>13.4</v>
-      </c>
-      <c r="K26" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="84">
-        <v>3393914</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="H28" s="11">
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="84"/>
-    </row>
-    <row r="30" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="84">
-        <v>3393800</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="G30" s="11" t="s">
+      <c r="K29" s="11" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="86">
+        <v>3393926</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="G30" s="13" t="s">
         <v>58</v>
       </c>
       <c r="H30" s="11">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="84">
-        <v>3393935</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="F31" s="82">
-        <v>14093</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H31" s="11">
+      <c r="I30" s="11">
         <v>6.7</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="84">
-        <v>3393849</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="H33" s="11">
+    <row r="31" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="13"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+    </row>
+    <row r="32" spans="1:11" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="50">
+        <v>3388696</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="E32" s="24"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H32" s="11">
+        <v>65</v>
+      </c>
+      <c r="I32" s="11">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+    </row>
+    <row r="41" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="86">
+        <v>3393885</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H41" s="11">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="84">
-        <v>3393922</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H35" s="11">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="84">
-        <v>3393824</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H36" s="11">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="84">
-        <v>3393937</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="F37" s="83">
-        <v>43516</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H37" s="11">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="84">
-        <v>3393957</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H39" s="11">
-        <v>6.7</v>
-      </c>
-      <c r="I39" s="11">
-        <v>6.7</v>
-      </c>
-      <c r="K39" s="11" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="84">
-        <v>3393926</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H40" s="11">
-        <v>6.7</v>
-      </c>
-      <c r="I40" s="11">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="84">
-        <v>3393885</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H42" s="11">
+      <c r="K41" s="11" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="13"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+    </row>
+    <row r="43" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="94">
+        <v>3393932</v>
+      </c>
+      <c r="B43" s="95" t="s">
+        <v>274</v>
+      </c>
+      <c r="C43" s="96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="E43" s="96"/>
+      <c r="F43" s="96" t="s">
+        <v>276</v>
+      </c>
+      <c r="G43" s="96" t="s">
+        <v>58</v>
+      </c>
+      <c r="H43" s="7">
         <v>13.4</v>
       </c>
-      <c r="K42" s="11" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="84">
-        <v>3393932</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H44" s="11">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="84">
-        <v>3393861</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="G45" s="11" t="s">
+    </row>
+    <row r="44" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="86"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+    </row>
+    <row r="45" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="86">
+        <v>3393784</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="G45" s="13" t="s">
         <v>58</v>
       </c>
       <c r="H45" s="11">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="84">
-        <v>3393784</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H47" s="11">
         <v>13.4</v>
       </c>
     </row>
@@ -5293,23 +5508,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.90625" customWidth="1"/>
-    <col min="3" max="3" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.08984375" style="21" customWidth="1"/>
-    <col min="5" max="5" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" style="21" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="85">
         <v>3393000</v>
       </c>
@@ -5331,7 +5546,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -5340,7 +5555,7 @@
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
     </row>
-    <row r="3" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="85">
         <v>2382326</v>
       </c>
@@ -5365,7 +5580,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="85"/>
       <c r="B4" s="51"/>
       <c r="C4" s="13"/>
@@ -5374,7 +5589,7 @@
       <c r="F4" s="65"/>
       <c r="G4" s="13"/>
     </row>
-    <row r="5" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="85">
         <v>3393005</v>
       </c>
@@ -5396,7 +5611,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -5405,7 +5620,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="86">
         <v>3393799</v>
       </c>
@@ -5429,7 +5644,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -5438,7 +5653,7 @@
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
     </row>
-    <row r="9" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="86">
         <v>3393792</v>
       </c>
@@ -5462,7 +5677,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -5471,7 +5686,7 @@
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="86">
         <v>3393822</v>
       </c>
@@ -5495,7 +5710,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -5504,7 +5719,7 @@
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
     </row>
-    <row r="13" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="86">
         <v>3393813</v>
       </c>
@@ -5534,7 +5749,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -5543,7 +5758,7 @@
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
     </row>
-    <row r="15" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="86">
         <v>3393842</v>
       </c>
@@ -5572,7 +5787,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="86">
         <v>3393839</v>
       </c>
@@ -5598,7 +5813,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="86">
         <v>3393840</v>
       </c>
@@ -5624,7 +5839,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -5633,7 +5848,7 @@
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="1:8" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="86">
         <v>3393803</v>
       </c>
@@ -5659,7 +5874,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="86">
         <v>3393785</v>
       </c>
@@ -5683,6 +5898,29 @@
       </c>
       <c r="H20" s="11">
         <v>6.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="84">
+        <v>3393819</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="H22" s="11">
+        <v>13.4</v>
       </c>
     </row>
   </sheetData>
@@ -5699,18 +5937,18 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="11" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="62">
         <v>3388794</v>
       </c>
@@ -5734,7 +5972,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -5745,7 +5983,7 @@
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
     </row>
-    <row r="3" spans="1:9" s="11" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="50">
         <v>3390742</v>
       </c>
@@ -5768,7 +6006,7 @@
       </c>
       <c r="I3" s="13"/>
     </row>
-    <row r="4" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -5779,7 +6017,7 @@
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" s="11" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="50">
         <v>3390695</v>
       </c>
@@ -5802,7 +6040,7 @@
       </c>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:9" s="11" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="50">
         <v>3390685</v>
       </c>
@@ -5825,7 +6063,7 @@
       </c>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:9" s="11" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="50">
         <v>3390714</v>
       </c>
@@ -5848,7 +6086,7 @@
       </c>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -5859,7 +6097,7 @@
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:9" s="11" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="50">
         <v>3277813</v>
       </c>
@@ -5882,7 +6120,7 @@
       </c>
       <c r="I9" s="13"/>
     </row>
-    <row r="19" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="26">
         <v>3389888</v>
       </c>
@@ -5916,9 +6154,9 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26">
         <v>3282649</v>
       </c>
@@ -5939,7 +6177,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26">
         <v>3282639</v>
       </c>
@@ -5960,7 +6198,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26">
         <v>3282647</v>
       </c>
@@ -5981,7 +6219,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
         <v>3390706</v>
       </c>
@@ -6002,7 +6240,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>178</v>
       </c>
@@ -6018,7 +6256,7 @@
       </c>
       <c r="K7" s="61"/>
     </row>
-    <row r="9" spans="1:11" s="11" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" s="11" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>172</v>
       </c>
@@ -6054,19 +6292,19 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7265625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="1.7265625" customWidth="1"/>
-    <col min="6" max="6" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="21" customWidth="1"/>
+    <col min="5" max="5" width="1.7109375" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13">
         <v>3388794</v>
       </c>
@@ -6090,7 +6328,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -6100,7 +6338,7 @@
       <c r="G2" s="13"/>
       <c r="H2" s="35"/>
     </row>
-    <row r="3" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>3388499</v>
       </c>
@@ -6124,7 +6362,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>3388641</v>
       </c>
@@ -6148,7 +6386,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -6158,7 +6396,7 @@
       <c r="G5" s="13"/>
       <c r="H5" s="49"/>
     </row>
-    <row r="6" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>3388646</v>
       </c>
@@ -6182,7 +6420,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -6192,7 +6430,7 @@
       <c r="G7" s="13"/>
       <c r="H7" s="35"/>
     </row>
-    <row r="8" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>3388490</v>
       </c>
@@ -6216,7 +6454,7 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>3388576</v>
       </c>
@@ -6240,7 +6478,7 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>3388533</v>
       </c>
@@ -6264,7 +6502,7 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>3388541</v>
       </c>
@@ -6288,7 +6526,7 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -6298,7 +6536,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="35"/>
     </row>
-    <row r="13" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>3388519</v>
       </c>
@@ -6322,7 +6560,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -6332,7 +6570,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="35"/>
     </row>
-    <row r="15" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
         <v>142</v>
       </c>
@@ -6353,7 +6591,7 @@
       </c>
       <c r="I15" s="34"/>
     </row>
-    <row r="16" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37"/>
       <c r="B16" s="38"/>
       <c r="C16" s="39"/>
@@ -6364,7 +6602,7 @@
       <c r="H16" s="13"/>
       <c r="I16" s="34"/>
     </row>
-    <row r="17" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>144</v>
       </c>
@@ -6384,7 +6622,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="37"/>
       <c r="B18" s="13"/>
       <c r="C18" s="39"/>
@@ -6394,7 +6632,7 @@
       <c r="G18" s="42"/>
       <c r="H18" s="13"/>
     </row>
-    <row r="19" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>2634834</v>
       </c>
@@ -6418,7 +6656,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -6428,7 +6666,7 @@
       <c r="G20" s="13"/>
       <c r="H20" s="35"/>
     </row>
-    <row r="21" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>3388603</v>
       </c>
@@ -6452,7 +6690,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -6462,7 +6700,7 @@
       <c r="G22" s="13"/>
       <c r="H22" s="35"/>
     </row>
-    <row r="23" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="50">
         <v>3389861</v>
       </c>
@@ -6486,7 +6724,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -6496,7 +6734,7 @@
       <c r="G24" s="13"/>
       <c r="H24" s="35"/>
     </row>
-    <row r="25" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>3388693</v>
       </c>
@@ -6520,7 +6758,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>3388536</v>
       </c>
@@ -6558,17 +6796,17 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.54296875" style="21" customWidth="1"/>
-    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" style="21" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>139</v>
       </c>
@@ -6591,7 +6829,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -6602,7 +6840,7 @@
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
     </row>
-    <row r="3" spans="1:9" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
         <v>131</v>
       </c>
@@ -6623,7 +6861,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -6634,7 +6872,7 @@
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
         <v>136</v>
       </c>
@@ -6657,7 +6895,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="C7" s="32"/>
       <c r="D7" s="32"/>
@@ -6679,19 +6917,19 @@
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7265625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.54296875" style="21" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="21" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" style="21" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>133</v>
       </c>
@@ -6714,7 +6952,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
       <c r="B2" s="18"/>
       <c r="C2" s="13"/>
@@ -6724,7 +6962,7 @@
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="1:9" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>3388568</v>
       </c>
@@ -6748,7 +6986,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>3388525</v>
       </c>
@@ -6772,7 +7010,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>3388505</v>
       </c>
@@ -6796,7 +7034,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>3388495</v>
       </c>
@@ -6820,7 +7058,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="18"/>
       <c r="C7" s="13"/>
@@ -6830,7 +7068,7 @@
       <c r="G7" s="13"/>
       <c r="H7" s="35"/>
     </row>
-    <row r="8" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>3388598</v>
       </c>
@@ -6856,7 +7094,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="18"/>
       <c r="C9" s="13"/>
@@ -6866,7 +7104,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="35"/>
     </row>
-    <row r="10" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>3388573</v>
       </c>
@@ -6895,7 +7133,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="18"/>
       <c r="C11" s="13"/>
@@ -6905,7 +7143,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="35"/>
     </row>
-    <row r="12" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>3077115</v>
       </c>
@@ -6932,7 +7170,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="18"/>
       <c r="C13" s="13"/>
@@ -6942,7 +7180,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="35"/>
     </row>
-    <row r="14" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>3388643</v>
       </c>
@@ -6968,7 +7206,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="18"/>
       <c r="C15" s="13"/>
@@ -6978,7 +7216,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="35"/>
     </row>
-    <row r="16" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>3345534</v>
       </c>
@@ -7002,7 +7240,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="18"/>
       <c r="C17" s="13"/>
@@ -7012,7 +7250,7 @@
       <c r="G17" s="13"/>
       <c r="H17" s="35"/>
     </row>
-    <row r="18" spans="1:10" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>3388620</v>
       </c>
@@ -7042,7 +7280,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>3388488</v>
       </c>
@@ -7069,7 +7307,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="18"/>
       <c r="C20" s="13"/>
@@ -7079,7 +7317,7 @@
       <c r="G20" s="13"/>
       <c r="H20" s="35"/>
     </row>
-    <row r="21" spans="1:10" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>3388482</v>
       </c>
@@ -7106,7 +7344,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>3388521</v>
       </c>
@@ -7147,21 +7385,21 @@
       <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.1796875" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.26953125" customWidth="1"/>
-    <col min="5" max="5" width="25.1796875" style="21" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="21" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" style="21" customWidth="1"/>
     <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="11" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="11" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>23</v>
       </c>
@@ -7185,7 +7423,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="11" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" s="11" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>41</v>
       </c>
@@ -7209,7 +7447,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="11" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" s="11" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>3370942</v>
       </c>
@@ -7227,7 +7465,7 @@
       <c r="I3" s="15"/>
       <c r="J3" s="17"/>
     </row>
-    <row r="4" spans="1:10" s="11" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" s="11" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>26</v>
       </c>
@@ -7251,7 +7489,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="11" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" s="11" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>29</v>
       </c>

--- a/rozjazdy zbiorcze maj.xlsx
+++ b/rozjazdy zbiorcze maj.xlsx
@@ -5,29 +5,30 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\KOKSZTYS\maj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KOKSZTYS\maj\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11535"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Pakiet_Zlecen_WTA_2019_05_06s.s" sheetId="1" r:id="rId1"/>
-    <sheet name="rozjazdy 30.05" sheetId="8" r:id="rId2"/>
-    <sheet name="rozjazdy 29.05" sheetId="9" r:id="rId3"/>
-    <sheet name="rozjazdy 23.05" sheetId="6" r:id="rId4"/>
-    <sheet name="rozjady 24.05" sheetId="7" r:id="rId5"/>
-    <sheet name="rozjazdy 21.05" sheetId="5" r:id="rId6"/>
-    <sheet name="rozjazdy 20.05" sheetId="4" r:id="rId7"/>
-    <sheet name="rozjazdy 18.05" sheetId="3" r:id="rId8"/>
-    <sheet name="rozjazdy 13.05" sheetId="2" r:id="rId9"/>
+    <sheet name="rozjazdy 01.06" sheetId="10" r:id="rId2"/>
+    <sheet name="rozjazdy 30.05" sheetId="8" r:id="rId3"/>
+    <sheet name="rozjazdy 29.05" sheetId="9" r:id="rId4"/>
+    <sheet name="rozjazdy 23.05" sheetId="6" r:id="rId5"/>
+    <sheet name="rozjady 24.05" sheetId="7" r:id="rId6"/>
+    <sheet name="rozjazdy 21.05" sheetId="5" r:id="rId7"/>
+    <sheet name="rozjazdy 20.05" sheetId="4" r:id="rId8"/>
+    <sheet name="rozjazdy 18.05" sheetId="3" r:id="rId9"/>
+    <sheet name="rozjazdy 13.05" sheetId="2" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="368">
   <si>
     <t>SALON PRASOWY-TOTOLOTEK BOGUSŁAW KLEMENT</t>
   </si>
@@ -1235,6 +1236,171 @@
   </si>
   <si>
     <t>69 km Wrocław</t>
+  </si>
+  <si>
+    <t>Patrycja Wala</t>
+  </si>
+  <si>
+    <t>55-320</t>
+  </si>
+  <si>
+    <t>Kolonia Papierni 11/8 Malczyce</t>
+  </si>
+  <si>
+    <t>593.28</t>
+  </si>
+  <si>
+    <t>ROBERT JAGIEŁŁO</t>
+  </si>
+  <si>
+    <t>55-040</t>
+  </si>
+  <si>
+    <t>HALLERA 20/4, 53-318 WROCŁAW // TARNOPOLSKA 2, 55-040 TYNIEC MAŁY</t>
+  </si>
+  <si>
+    <t>6460.92</t>
+  </si>
+  <si>
+    <t>bph</t>
+  </si>
+  <si>
+    <t>Bogumiła Przyszlak</t>
+  </si>
+  <si>
+    <t>57-130</t>
+  </si>
+  <si>
+    <t>Konary 11, 57-130 Konary</t>
+  </si>
+  <si>
+    <t>671.15</t>
+  </si>
+  <si>
+    <t>2745.47</t>
+  </si>
+  <si>
+    <t>MATEUSZ Kopiński</t>
+  </si>
+  <si>
+    <t>55-011</t>
+  </si>
+  <si>
+    <t>POLNA 2/4 SIECHNICE</t>
+  </si>
+  <si>
+    <t>2145.71</t>
+  </si>
+  <si>
+    <t>JANUSZ CYMBAŁA</t>
+  </si>
+  <si>
+    <t>56-330</t>
+  </si>
+  <si>
+    <t>GÓRY 18, 56-330 CIESZKÓW</t>
+  </si>
+  <si>
+    <t>2138509,502138509,502138509,503088523,503088523,503088523,502831665,502831665,502831665,</t>
+  </si>
+  <si>
+    <t>4981.67</t>
+  </si>
+  <si>
+    <t>/90</t>
+  </si>
+  <si>
+    <t>Andrzej Salij</t>
+  </si>
+  <si>
+    <t>55-200</t>
+  </si>
+  <si>
+    <t>Plac Zamkowy 24/5 Oława</t>
+  </si>
+  <si>
+    <t>1552.20</t>
+  </si>
+  <si>
+    <t>Adrian KSIĄŻKIEWICZ</t>
+  </si>
+  <si>
+    <t>56-400</t>
+  </si>
+  <si>
+    <t>J. BOCKA 3/9 OLEŚNICA</t>
+  </si>
+  <si>
+    <t>8977.69</t>
+  </si>
+  <si>
+    <t>JAN SZYSZKA</t>
+  </si>
+  <si>
+    <t>55-220</t>
+  </si>
+  <si>
+    <t>GŁÓWNA 16, 55-220 KOPALINA</t>
+  </si>
+  <si>
+    <t>1579.27</t>
+  </si>
+  <si>
+    <t>za jelczem</t>
+  </si>
+  <si>
+    <t>za środą śląską</t>
+  </si>
+  <si>
+    <t>/65</t>
+  </si>
+  <si>
+    <t>Boczna 1/10, Wrocław</t>
+  </si>
+  <si>
+    <t>Czarnieckiego 11B/11, Wrocław</t>
+  </si>
+  <si>
+    <t>Górnickiego 15/10, Wrocław</t>
+  </si>
+  <si>
+    <t>Wojanowska 50/4, Wrocław</t>
+  </si>
+  <si>
+    <t>Bajana 30/16, Wrocław</t>
+  </si>
+  <si>
+    <t>46-100</t>
+  </si>
+  <si>
+    <t>MIKOWICE 52 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0005159801</t>
+  </si>
+  <si>
+    <t>55-120</t>
+  </si>
+  <si>
+    <t>WILCZYN, JAWOROWA 7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0003357500</t>
+  </si>
+  <si>
+    <t>55-330</t>
+  </si>
+  <si>
+    <t>GAŁÓW, PARKOWA 8 </t>
+  </si>
+  <si>
+    <t>0001966171</t>
+  </si>
+  <si>
+    <t>18-20 !</t>
+  </si>
+  <si>
+    <t>Szarskiego 15/13, Wrocław</t>
   </si>
 </sst>
 </file>
@@ -1931,7 +2097,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
@@ -2114,6 +2280,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — akcent 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2440,24 +2609,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N99"/>
+  <dimension ref="A1:N121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B69" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A76" activeCellId="2" sqref="A93:XFD93 A81:XFD81 A76:XFD76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="85.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="85.1796875" customWidth="1"/>
+    <col min="5" max="5" width="11.26953125" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="75" t="s">
         <v>131</v>
       </c>
@@ -2475,7 +2644,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="75" t="s">
         <v>133</v>
       </c>
@@ -2498,7 +2667,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="75" t="s">
         <v>136</v>
       </c>
@@ -2519,7 +2688,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="75" t="s">
         <v>139</v>
       </c>
@@ -2542,7 +2711,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="75" t="s">
         <v>142</v>
       </c>
@@ -2563,7 +2732,7 @@
       </c>
       <c r="I5" s="34"/>
     </row>
-    <row r="6" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="75" t="s">
         <v>144</v>
       </c>
@@ -2582,7 +2751,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="75" t="s">
         <v>7</v>
       </c>
@@ -2599,7 +2768,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="75" t="s">
         <v>7</v>
       </c>
@@ -2616,7 +2785,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="75" t="s">
         <v>169</v>
       </c>
@@ -2637,7 +2806,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="75" t="s">
         <v>172</v>
       </c>
@@ -2663,7 +2832,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="75" t="s">
         <v>175</v>
       </c>
@@ -2687,412 +2856,409 @@
       </c>
       <c r="L11" s="30"/>
     </row>
-    <row r="12" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="75" t="s">
+        <v>359</v>
+      </c>
+      <c r="B12" s="31"/>
+      <c r="C12" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="E12" s="33"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="56">
+        <v>65</v>
+      </c>
+      <c r="K12" s="29"/>
+      <c r="L12" s="30"/>
+    </row>
+    <row r="13" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="75" t="s">
+        <v>362</v>
+      </c>
+      <c r="B13" s="31"/>
+      <c r="C13" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="E13" s="33"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="56">
+        <v>65</v>
+      </c>
+      <c r="K13" s="29"/>
+      <c r="L13" s="30"/>
+    </row>
+    <row r="14" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="75" t="s">
+        <v>365</v>
+      </c>
+      <c r="B14" s="31"/>
+      <c r="C14" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>364</v>
+      </c>
+      <c r="E14" s="33"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="56">
+        <v>65</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>366</v>
+      </c>
+      <c r="K14" s="29"/>
+      <c r="L14" s="30"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="79" t="s">
+      <c r="B15" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6" t="s">
+      <c r="C15" s="5"/>
+      <c r="D15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E15" s="4">
         <v>734106531</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="8">
-        <v>65</v>
-      </c>
-      <c r="K12" s="44" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="75" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="36"/>
-      <c r="D13" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="29">
-        <v>65</v>
-      </c>
-      <c r="K13" s="48" t="s">
-        <v>154</v>
-      </c>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-    </row>
-    <row r="14" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
-        <v>178</v>
-      </c>
-      <c r="B14" s="36"/>
-      <c r="D14" s="71" t="s">
-        <v>179</v>
-      </c>
-      <c r="E14" s="23"/>
-      <c r="G14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="69">
-        <v>65</v>
-      </c>
-      <c r="K14" s="53" t="s">
-        <v>156</v>
-      </c>
-      <c r="L14"/>
-    </row>
-    <row r="15" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>190</v>
-      </c>
-      <c r="D15" s="71" t="s">
-        <v>188</v>
-      </c>
-      <c r="E15" s="23"/>
       <c r="G15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="72">
+      <c r="H15" s="8">
+        <v>65</v>
+      </c>
+      <c r="K15" s="44" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="75" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="36"/>
+      <c r="D16" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="29">
+        <v>65</v>
+      </c>
+      <c r="K16" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+    </row>
+    <row r="17" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="B17" s="36"/>
+      <c r="D17" s="71" t="s">
+        <v>179</v>
+      </c>
+      <c r="E17" s="23"/>
+      <c r="G17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="69">
+        <v>65</v>
+      </c>
+      <c r="K17" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="L17"/>
+    </row>
+    <row r="18" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="D18" s="71" t="s">
+        <v>188</v>
+      </c>
+      <c r="E18" s="23"/>
+      <c r="G18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="72">
         <v>90</v>
       </c>
-      <c r="K15" s="67" t="s">
+      <c r="K18" s="67" t="s">
         <v>182</v>
       </c>
-      <c r="L15"/>
-      <c r="N15" s="11" t="s">
+      <c r="L18"/>
+      <c r="N18" s="11" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K16" s="68" t="s">
+    <row r="19" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K19" s="68" t="s">
         <v>196</v>
       </c>
-      <c r="L16"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="36">
+      <c r="L19"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20" s="36">
         <v>3377034</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B20" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C20" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D20" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G20" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H20" s="2">
         <v>13.4</v>
       </c>
-      <c r="K17" s="73" t="s">
+      <c r="K20" s="73" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="36">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A21" s="36">
         <v>3377017</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B21" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C21" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="D21" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G21" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H21" s="2">
         <v>13.4</v>
       </c>
-      <c r="K18" s="87" t="s">
+      <c r="K21" s="87" t="s">
         <v>308</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N21" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="76">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A22" s="76">
         <v>3370942</v>
       </c>
-      <c r="B19" s="80" t="s">
+      <c r="B22" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="45" t="s">
+      <c r="D22" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G22" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="25">
+      <c r="H22" s="25">
         <v>13.4</v>
       </c>
-      <c r="K19" s="97" t="s">
+      <c r="K22" s="97" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A23" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B23" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C23" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D23" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E23" s="24" t="s">
         <v>45</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20" s="25">
-        <v>35</v>
-      </c>
-      <c r="I20" s="11"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H21" s="25">
-        <v>35</v>
-      </c>
-      <c r="I21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H22" s="25">
-        <v>65</v>
-      </c>
-      <c r="I22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>42</v>
       </c>
       <c r="G23" s="11" t="s">
         <v>36</v>
       </c>
       <c r="H23" s="25">
+        <v>35</v>
+      </c>
+      <c r="I23" s="11"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A24" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="25">
+        <v>35</v>
+      </c>
+      <c r="I24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A25" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" s="25">
         <v>65</v>
       </c>
-      <c r="I23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="76">
+      <c r="I25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A26" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" s="25">
+        <v>65</v>
+      </c>
+      <c r="I26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A27" s="76">
         <v>3385881</v>
       </c>
-      <c r="B24" s="80" t="s">
+      <c r="B27" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="45" t="s">
+      <c r="D27" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="G24" s="27" t="s">
+      <c r="G27" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="H24" s="28">
+      <c r="H27" s="28">
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="36">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A28" s="36">
         <v>3388499</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B28" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C28" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D28" s="36" t="s">
         <v>56</v>
-      </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H25" s="54">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="36">
-        <v>3388641</v>
-      </c>
-      <c r="B26" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H26" s="54">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="36">
-        <v>3388568</v>
-      </c>
-      <c r="B27" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="43">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="36">
-        <v>3388525</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="36" t="s">
-        <v>62</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="11" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H28" s="43">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H28" s="54">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="36">
-        <v>3388505</v>
+        <v>3388641</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E29" s="11"/>
       <c r="F29" s="11" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H29" s="43">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H29" s="54">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="36">
-        <v>3388495</v>
+        <v>3388568</v>
       </c>
       <c r="B30" s="36" t="s">
         <v>60</v>
@@ -3105,7 +3271,7 @@
       </c>
       <c r="E30" s="11"/>
       <c r="F30" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G30" s="11" t="s">
         <v>58</v>
@@ -3114,131 +3280,131 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="36">
-        <v>3388603</v>
+        <v>3388525</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" s="45" t="s">
-        <v>69</v>
+        <v>61</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>62</v>
       </c>
       <c r="E31" s="11"/>
       <c r="F31" s="11" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H31" s="55">
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H31" s="43">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="36">
-        <v>3388598</v>
+        <v>3388505</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="E32" s="11">
-        <v>6250591</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="11"/>
       <c r="F32" s="11" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G32" s="11" t="s">
         <v>58</v>
       </c>
       <c r="H32" s="43">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="36">
-        <v>3388490</v>
+        <v>3388495</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="D33" s="36" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E33" s="11"/>
       <c r="F33" s="11" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H33" s="55">
-        <v>3.35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H33" s="43">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="36">
-        <v>3388576</v>
+        <v>3388603</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" s="36" t="s">
-        <v>77</v>
+        <v>68</v>
+      </c>
+      <c r="D34" s="45" t="s">
+        <v>69</v>
       </c>
       <c r="E34" s="11"/>
       <c r="F34" s="11" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>58</v>
       </c>
       <c r="H34" s="55">
-        <v>3.35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="36">
-        <v>3388533</v>
+        <v>3388598</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D35" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="E35" s="11"/>
+        <v>72</v>
+      </c>
+      <c r="D35" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="11">
+        <v>6250591</v>
+      </c>
       <c r="F35" s="11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H35" s="55">
-        <v>3.35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H35" s="43">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="36">
-        <v>3388541</v>
+        <v>3388490</v>
       </c>
       <c r="B36" s="36" t="s">
         <v>75</v>
@@ -3251,7 +3417,7 @@
       </c>
       <c r="E36" s="11"/>
       <c r="F36" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G36" s="11" t="s">
         <v>58</v>
@@ -3260,1040 +3426,1040 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="36">
-        <v>3077115</v>
+        <v>3388576</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D37" s="36" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="11" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="H37" s="43">
-        <v>70</v>
-      </c>
-      <c r="I37" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="H37" s="55">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="36">
-        <v>3388482</v>
+        <v>3388533</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D38" s="36" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E38" s="11"/>
       <c r="F38" s="11" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H38" s="43">
-        <v>6.7</v>
-      </c>
-      <c r="I38" s="43">
-        <v>45</v>
-      </c>
-      <c r="J38" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H38" s="55">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="36">
-        <v>3388521</v>
+        <v>3388541</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D39" s="36" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E39" s="11"/>
       <c r="F39" s="11" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H39" s="43">
-        <v>6.7</v>
-      </c>
-      <c r="I39" s="43">
-        <v>45</v>
-      </c>
-      <c r="J39" s="11" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H39" s="55">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="36">
-        <v>3388794</v>
+        <v>3077115</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D40" s="36" t="s">
-        <v>181</v>
+        <v>84</v>
       </c>
       <c r="E40" s="11"/>
       <c r="F40" s="11" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H40" s="55">
-        <v>13.4</v>
-      </c>
-      <c r="I40" s="55">
-        <v>13.4</v>
-      </c>
-      <c r="J40" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="H40" s="43">
+        <v>70</v>
+      </c>
+      <c r="I40" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="36">
-        <v>3388519</v>
+        <v>3388482</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D41" s="36" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E41" s="11"/>
       <c r="F41" s="11" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G41" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H41" s="55">
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H41" s="43">
+        <v>6.7</v>
+      </c>
+      <c r="I41" s="43">
+        <v>45</v>
+      </c>
+      <c r="J41" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="36">
-        <v>3388693</v>
+        <v>3388521</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D42" s="36" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="E42" s="11"/>
       <c r="F42" s="11" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H42" s="55">
+      <c r="H42" s="43">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I42" s="43">
+        <v>45</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="36">
-        <v>3388536</v>
+        <v>3388794</v>
       </c>
       <c r="B43" s="36" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D43" s="36" t="s">
-        <v>101</v>
+        <v>181</v>
       </c>
       <c r="E43" s="11"/>
       <c r="F43" s="11" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="G43" s="11" t="s">
         <v>58</v>
       </c>
       <c r="H43" s="55">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13.4</v>
+      </c>
+      <c r="I43" s="55">
+        <v>13.4</v>
+      </c>
+      <c r="J43" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="36">
-        <v>3345534</v>
+        <v>3388519</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D44" s="36" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="E44" s="11"/>
       <c r="F44" s="11" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H44" s="43">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="H44" s="55">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="36">
-        <v>3388620</v>
+        <v>3388693</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D45" s="36" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E45" s="11"/>
       <c r="F45" s="11" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="G45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H45" s="43">
+      <c r="H45" s="55">
         <v>6.7</v>
       </c>
-      <c r="I45" s="43">
-        <v>45</v>
-      </c>
-      <c r="J45" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="36">
-        <v>3388488</v>
+        <v>3388536</v>
       </c>
       <c r="B46" s="36" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D46" s="36" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E46" s="11"/>
       <c r="F46" s="11" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="G46" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H46" s="43">
+      <c r="H46" s="55">
         <v>6.7</v>
       </c>
-      <c r="I46" s="43">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="36">
-        <v>3388573</v>
+        <v>3345534</v>
       </c>
       <c r="B47" s="36" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="D47" s="45" t="s">
-        <v>193</v>
-      </c>
-      <c r="E47" s="11">
-        <v>8240436</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="D47" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="E47" s="11"/>
       <c r="F47" s="11" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="H47" s="43">
         <v>90</v>
       </c>
-      <c r="I47" s="43">
-        <v>90</v>
-      </c>
-      <c r="J47" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="36">
-        <v>3388646</v>
+        <v>3388620</v>
       </c>
       <c r="B48" s="36" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D48" s="36" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E48" s="11"/>
       <c r="F48" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H48" s="43">
+        <v>6.7</v>
+      </c>
+      <c r="I48" s="43">
+        <v>45</v>
+      </c>
+      <c r="J48" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A49" s="36">
+        <v>3388488</v>
+      </c>
+      <c r="B49" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D49" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49" s="43">
+        <v>6.7</v>
+      </c>
+      <c r="I49" s="43">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A50" s="36">
+        <v>3388573</v>
+      </c>
+      <c r="B50" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D50" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="E50" s="11">
+        <v>8240436</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H50" s="43">
+        <v>90</v>
+      </c>
+      <c r="I50" s="43">
+        <v>90</v>
+      </c>
+      <c r="J50" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A51" s="36">
+        <v>3388646</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D51" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="G48" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H48" s="55">
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="36">
-        <v>3388643</v>
-      </c>
-      <c r="B49" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D49" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="E49" s="11">
-        <v>5222179</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="G49" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H49" s="43">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="36">
-        <v>2634834</v>
-      </c>
-      <c r="B50" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D50" s="45" t="s">
-        <v>125</v>
-      </c>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="H50" s="55">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="76">
-        <v>3389861</v>
-      </c>
-      <c r="B51" s="80" t="s">
-        <v>151</v>
-      </c>
-      <c r="C51" t="s">
-        <v>153</v>
-      </c>
-      <c r="D51" s="45" t="s">
-        <v>152</v>
-      </c>
-      <c r="F51" s="11">
-        <v>523448</v>
-      </c>
-      <c r="G51" t="s">
-        <v>6</v>
+      <c r="G51" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="H51" s="55">
         <v>13.4</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="76">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A52" s="36">
+        <v>3388643</v>
+      </c>
+      <c r="B52" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D52" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="E52" s="11">
+        <v>5222179</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H52" s="43">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A53" s="36">
+        <v>2634834</v>
+      </c>
+      <c r="B53" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="H53" s="55">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A54" s="76">
+        <v>3389861</v>
+      </c>
+      <c r="B54" s="80" t="s">
+        <v>151</v>
+      </c>
+      <c r="C54" t="s">
+        <v>153</v>
+      </c>
+      <c r="D54" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="F54" s="11">
+        <v>523448</v>
+      </c>
+      <c r="G54" t="s">
+        <v>6</v>
+      </c>
+      <c r="H54" s="55">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A55" s="76">
         <v>3277813</v>
       </c>
-      <c r="B52" s="80" t="s">
+      <c r="B55" s="80" t="s">
         <v>158</v>
       </c>
-      <c r="D52" s="45" t="s">
+      <c r="D55" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="F52" s="9">
+      <c r="F55" s="9">
         <v>517.86</v>
       </c>
-      <c r="G52" t="s">
-        <v>58</v>
-      </c>
-      <c r="H52" s="67">
+      <c r="G55" t="s">
+        <v>58</v>
+      </c>
+      <c r="H55" s="67">
         <v>13.4</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="76">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A56" s="76">
         <v>3390706</v>
       </c>
-      <c r="B53" s="80" t="s">
+      <c r="B56" s="80" t="s">
         <v>160</v>
       </c>
-      <c r="D53" s="45" t="s">
+      <c r="D56" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="F53" s="9">
+      <c r="F56" s="9">
         <v>3538.14</v>
       </c>
-      <c r="G53" t="s">
-        <v>58</v>
-      </c>
-      <c r="H53" s="68">
+      <c r="G56" t="s">
+        <v>58</v>
+      </c>
+      <c r="H56" s="68">
         <v>13.4</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="45">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A57" s="45">
         <v>3390685</v>
       </c>
-      <c r="B54" s="80" t="s">
+      <c r="B57" s="80" t="s">
         <v>162</v>
       </c>
-      <c r="D54" s="45" t="s">
+      <c r="D57" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="F54" s="9">
+      <c r="F57" s="9">
         <v>1599.81</v>
       </c>
-      <c r="G54" t="s">
-        <v>58</v>
-      </c>
-      <c r="H54" s="67">
+      <c r="G57" t="s">
+        <v>58</v>
+      </c>
+      <c r="H57" s="67">
         <v>21.6</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="45">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A58" s="45">
         <v>3390714</v>
       </c>
-      <c r="B55" s="80" t="s">
+      <c r="B58" s="80" t="s">
         <v>162</v>
       </c>
-      <c r="D55" s="45" t="s">
+      <c r="D58" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="F55" s="9">
+      <c r="F58" s="9">
         <v>10469.780000000001</v>
       </c>
-      <c r="G55" t="s">
-        <v>58</v>
-      </c>
-      <c r="H55" s="67">
+      <c r="G58" t="s">
+        <v>58</v>
+      </c>
+      <c r="H58" s="67">
         <v>21.6</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="45">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A59" s="45">
         <v>3390695</v>
       </c>
-      <c r="B56" s="80" t="s">
+      <c r="B59" s="80" t="s">
         <v>162</v>
       </c>
-      <c r="D56" s="45" t="s">
+      <c r="D59" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="F56" s="9">
+      <c r="F59" s="9">
         <v>96.44</v>
       </c>
-      <c r="G56" t="s">
-        <v>58</v>
-      </c>
-      <c r="H56" s="67">
+      <c r="G59" t="s">
+        <v>58</v>
+      </c>
+      <c r="H59" s="67">
         <v>21.6</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="76">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A60" s="76">
         <v>3282647</v>
       </c>
-      <c r="B57" s="80" t="s">
+      <c r="B60" s="80" t="s">
         <v>164</v>
       </c>
-      <c r="D57" s="45" t="s">
+      <c r="D60" s="45" t="s">
         <v>163</v>
       </c>
-      <c r="F57" s="9">
+      <c r="F60" s="9">
         <v>354.32</v>
       </c>
-      <c r="G57" t="s">
-        <v>58</v>
-      </c>
-      <c r="H57" s="68">
+      <c r="G60" t="s">
+        <v>58</v>
+      </c>
+      <c r="H60" s="68">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="76">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A61" s="76">
         <v>3282649</v>
       </c>
-      <c r="B58" s="80" t="s">
+      <c r="B61" s="80" t="s">
         <v>164</v>
       </c>
-      <c r="D58" s="45" t="s">
+      <c r="D61" s="45" t="s">
         <v>163</v>
       </c>
-      <c r="F58" s="9">
+      <c r="F61" s="9">
         <v>254.94</v>
       </c>
-      <c r="G58" t="s">
-        <v>58</v>
-      </c>
-      <c r="H58" s="68">
+      <c r="G61" t="s">
+        <v>58</v>
+      </c>
+      <c r="H61" s="68">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="76">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A62" s="76">
         <v>3282639</v>
       </c>
-      <c r="B59" s="80" t="s">
+      <c r="B62" s="80" t="s">
         <v>164</v>
       </c>
-      <c r="C59" s="11"/>
-      <c r="D59" s="45" t="s">
+      <c r="C62" s="11"/>
+      <c r="D62" s="45" t="s">
         <v>163</v>
       </c>
-      <c r="F59" s="9">
+      <c r="F62" s="9">
         <v>1773.28</v>
       </c>
-      <c r="G59" t="s">
-        <v>58</v>
-      </c>
-      <c r="H59" s="68">
+      <c r="G62" t="s">
+        <v>58</v>
+      </c>
+      <c r="H62" s="68">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="76">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A63" s="76">
         <v>3390742</v>
       </c>
-      <c r="B60" s="80" t="s">
+      <c r="B63" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="D60" s="45" t="s">
+      <c r="D63" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="F60" s="9">
+      <c r="F63" s="9">
         <v>8054.93</v>
       </c>
-      <c r="G60" t="s">
-        <v>58</v>
-      </c>
-      <c r="H60" s="67">
+      <c r="G63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H63" s="67">
         <v>13.4</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="76">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A64" s="76">
         <v>3389888</v>
       </c>
-      <c r="B61" s="80" t="s">
+      <c r="B64" s="80" t="s">
         <v>167</v>
       </c>
-      <c r="D61" s="45" t="s">
+      <c r="D64" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="F61" s="9">
+      <c r="F64" s="9">
         <v>2811.39</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G64" t="s">
         <v>6</v>
       </c>
-      <c r="H61" s="67">
+      <c r="H64" s="67">
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="77">
+    <row r="65" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="77">
         <v>3390681</v>
       </c>
-      <c r="B62" s="80" t="s">
+      <c r="B65" s="80" t="s">
         <v>184</v>
       </c>
-      <c r="D62" s="45" t="s">
+      <c r="D65" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="F62" s="9">
+      <c r="F65" s="9">
         <v>1073.42</v>
       </c>
-      <c r="G62" t="s">
-        <v>58</v>
-      </c>
-      <c r="H62" s="69">
+      <c r="G65" t="s">
+        <v>58</v>
+      </c>
+      <c r="H65" s="69">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="76">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A66" s="76">
         <v>3390745</v>
       </c>
-      <c r="B63" s="80" t="s">
+      <c r="B66" s="80" t="s">
         <v>185</v>
       </c>
-      <c r="D63" s="74" t="s">
+      <c r="D66" s="74" t="s">
         <v>195</v>
       </c>
-      <c r="F63" s="9">
+      <c r="F66" s="9">
         <v>1071.5899999999999</v>
       </c>
-      <c r="G63" t="s">
-        <v>58</v>
-      </c>
-      <c r="H63" s="73">
+      <c r="G66" t="s">
+        <v>58</v>
+      </c>
+      <c r="H66" s="73">
         <v>90</v>
       </c>
-      <c r="I63" s="73">
+      <c r="I66" s="73">
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="76">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67" s="76">
         <v>3390752</v>
       </c>
-      <c r="B64" s="81" t="s">
+      <c r="B67" s="81" t="s">
         <v>187</v>
       </c>
-      <c r="D64" s="45" t="s">
+      <c r="D67" s="45" t="s">
         <v>186</v>
       </c>
-      <c r="F64" s="9">
+      <c r="F67" s="9">
         <v>8411.98</v>
       </c>
-      <c r="G64" t="s">
-        <v>58</v>
-      </c>
-      <c r="H64" s="73">
+      <c r="G67" t="s">
+        <v>58</v>
+      </c>
+      <c r="H67" s="73">
         <v>90</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="78">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A68" s="78">
         <v>2382326</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B68" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="D65" s="45" t="s">
+      <c r="D68" s="45" t="s">
         <v>198</v>
       </c>
-      <c r="F65" s="9">
+      <c r="F68" s="9">
         <v>96699.83</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G68" t="s">
         <v>199</v>
       </c>
-      <c r="H65" s="97">
+      <c r="H68" s="97">
         <v>13.4</v>
       </c>
-      <c r="I65" t="s">
+      <c r="I68" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="78">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A69" s="78">
         <v>3393005</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B69" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="D66" s="45" t="s">
+      <c r="D69" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="F66" s="9">
+      <c r="F69" s="9">
         <v>4857.4799999999996</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G69" t="s">
         <v>6</v>
       </c>
-      <c r="H66" s="87">
+      <c r="H69" s="87">
         <v>13.4</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="78">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A70" s="78">
         <v>3393000</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B70" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="D67" s="45" t="s">
+      <c r="D70" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="F67" s="9">
+      <c r="F70" s="9">
         <v>2763.41</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G70" t="s">
         <v>6</v>
       </c>
-      <c r="H67" s="87">
+      <c r="H70" s="87">
         <v>13.4</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="84">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A71" s="84">
         <v>3393819</v>
       </c>
-      <c r="B68" s="11" t="s">
+      <c r="B71" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C71" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="D68" s="36" t="s">
+      <c r="D71" s="36" t="s">
         <v>208</v>
-      </c>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="G68" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="H68" s="87">
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="84">
-        <v>3393849</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="D69" s="36" t="s">
-        <v>216</v>
-      </c>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="G69" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="H69" s="97">
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="84">
-        <v>3393914</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="D70" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="G70" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="H70" s="97">
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="84">
-        <v>3393774</v>
-      </c>
-      <c r="B71" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="C71" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="D71" s="36" t="s">
-        <v>297</v>
       </c>
       <c r="E71" s="11"/>
       <c r="F71" s="11" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H71" s="97">
+        <v>210</v>
+      </c>
+      <c r="H71" s="87">
         <v>13.4</v>
       </c>
-      <c r="I71" s="1"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="84">
-        <v>3393822</v>
+        <v>3393849</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D72" s="36" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="E72" s="11"/>
       <c r="F72" s="11" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H72" s="87">
+        <v>210</v>
+      </c>
+      <c r="H72" s="97">
         <v>13.4</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="84">
-        <v>3393885</v>
+        <v>3393914</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="D73" s="11" t="s">
-        <v>255</v>
+        <v>219</v>
+      </c>
+      <c r="D73" s="36" t="s">
+        <v>220</v>
       </c>
       <c r="E73" s="11"/>
       <c r="F73" s="11" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H73" s="11">
+        <v>210</v>
+      </c>
+      <c r="H73" s="97">
         <v>13.4</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="84">
-        <v>3393813</v>
+        <v>3393774</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D74" s="36" t="s">
-        <v>234</v>
+        <v>297</v>
       </c>
       <c r="E74" s="11"/>
       <c r="F74" s="11" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="G74" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H74" s="87">
+      <c r="H74" s="97">
         <v>13.4</v>
       </c>
-      <c r="I74" s="87">
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I74" s="1"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="84">
-        <v>3393955</v>
+        <v>3393822</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="D75" s="36" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="E75" s="11"/>
       <c r="F75" s="11" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="G75" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H75" s="97">
+      <c r="H75" s="87">
         <v>13.4</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="84">
-        <v>3393800</v>
+        <v>3393885</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="D76" s="36" t="s">
-        <v>231</v>
+        <v>254</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>255</v>
       </c>
       <c r="E76" s="11"/>
       <c r="F76" s="11" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="G76" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H76" s="97">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H76" s="11">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="84">
-        <v>3393935</v>
+        <v>3393813</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D77" s="36" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E77" s="11"/>
-      <c r="F77" s="82">
-        <v>14093</v>
+      <c r="F77" s="11" t="s">
+        <v>235</v>
       </c>
       <c r="G77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H77" s="97">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H77" s="87">
+        <v>13.4</v>
+      </c>
+      <c r="I77" s="87">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="84">
-        <v>3393784</v>
+        <v>3393955</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="D78" s="11" t="s">
-        <v>243</v>
+        <v>237</v>
+      </c>
+      <c r="D78" s="36" t="s">
+        <v>238</v>
       </c>
       <c r="E78" s="11"/>
       <c r="F78" s="11" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G78" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H78" s="11">
+      <c r="H78" s="97">
         <v>13.4</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="84">
-        <v>3393942</v>
+        <v>3393800</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="D79" s="36" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="E79" s="11"/>
       <c r="F79" s="11" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="G79" s="11" t="s">
         <v>58</v>
       </c>
       <c r="H79" s="97">
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="84">
-        <v>3393901</v>
+        <v>3393935</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="D80" s="36" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="E80" s="11"/>
-      <c r="F80" s="11" t="s">
-        <v>257</v>
+      <c r="F80" s="82">
+        <v>14093</v>
       </c>
       <c r="G80" s="11" t="s">
         <v>58</v>
@@ -4302,473 +4468,864 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="84">
-        <v>3393904</v>
+        <v>3393784</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="D81" s="36" t="s">
-        <v>251</v>
+        <v>242</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>243</v>
       </c>
       <c r="E81" s="11"/>
       <c r="F81" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="G81" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H81" s="11">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A82" s="84">
+        <v>3393942</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D82" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="G82" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H82" s="97">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A83" s="84">
+        <v>3393901</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="D83" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="G83" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H83" s="97">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A84" s="84">
+        <v>3393904</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="D84" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="G81" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H81" s="97">
+      <c r="G84" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H84" s="97">
         <v>6.7</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="84">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A85" s="84">
         <v>3393842</v>
       </c>
-      <c r="B82" s="11" t="s">
+      <c r="B85" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C85" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="D82" s="36" t="s">
+      <c r="D85" s="36" t="s">
         <v>260</v>
       </c>
-      <c r="E82" s="11">
+      <c r="E85" s="11">
         <v>8668637</v>
       </c>
-      <c r="F82" s="11" t="s">
+      <c r="F85" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="G82" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H82" s="87">
+      <c r="G85" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H85" s="87">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="84">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A86" s="84">
         <v>3393839</v>
       </c>
-      <c r="B83" s="11" t="s">
+      <c r="B86" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C86" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="D83" s="36" t="s">
+      <c r="D86" s="36" t="s">
         <v>260</v>
       </c>
-      <c r="E83" s="11">
+      <c r="E86" s="11">
         <v>8668637</v>
       </c>
-      <c r="F83" s="11" t="s">
+      <c r="F86" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="G83" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H83" s="87">
+      <c r="G86" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H86" s="87">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="84">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A87" s="84">
         <v>3393840</v>
       </c>
-      <c r="B84" s="11" t="s">
+      <c r="B87" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="C87" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="D84" s="36" t="s">
+      <c r="D87" s="36" t="s">
         <v>260</v>
       </c>
-      <c r="E84" s="11">
+      <c r="E87" s="11">
         <v>8668637</v>
       </c>
-      <c r="F84" s="11" t="s">
+      <c r="F87" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="G84" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H84" s="87">
+      <c r="G87" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H87" s="87">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="84">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A88" s="84">
         <v>3393922</v>
       </c>
-      <c r="B85" s="11" t="s">
+      <c r="B88" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C88" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="D85" s="36" t="s">
+      <c r="D88" s="36" t="s">
         <v>266</v>
       </c>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11" t="s">
+      <c r="E88" s="11"/>
+      <c r="F88" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="G85" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H85" s="97">
+      <c r="G88" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H88" s="97">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="84">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A89" s="84">
         <v>3393824</v>
       </c>
-      <c r="B86" s="11" t="s">
+      <c r="B89" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="C89" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="D86" s="36" t="s">
+      <c r="D89" s="36" t="s">
         <v>266</v>
       </c>
-      <c r="E86" s="11"/>
-      <c r="F86" s="11" t="s">
+      <c r="E89" s="11"/>
+      <c r="F89" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="G86" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H86" s="97">
+      <c r="G89" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H89" s="97">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="84">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A90" s="84">
         <v>3393937</v>
       </c>
-      <c r="B87" s="11" t="s">
+      <c r="B90" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="C90" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="D87" s="36" t="s">
+      <c r="D90" s="36" t="s">
         <v>266</v>
       </c>
-      <c r="E87" s="11"/>
-      <c r="F87" s="83">
+      <c r="E90" s="11"/>
+      <c r="F90" s="83">
         <v>43516</v>
       </c>
-      <c r="G87" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H87" s="97">
+      <c r="G90" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H90" s="97">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="84">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A91" s="84">
         <v>3393803</v>
       </c>
-      <c r="B88" s="11" t="s">
+      <c r="B91" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="C91" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="D88" s="36" t="s">
+      <c r="D91" s="36" t="s">
         <v>271</v>
       </c>
-      <c r="E88" s="11">
+      <c r="E91" s="11">
         <v>6977286</v>
       </c>
-      <c r="F88" s="11" t="s">
+      <c r="F91" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="G88" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H88" s="87">
+      <c r="G91" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H91" s="87">
         <v>6.7</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="84">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A92" s="84">
         <v>3393785</v>
       </c>
-      <c r="B89" s="11" t="s">
+      <c r="B92" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="C92" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="D89" s="36" t="s">
+      <c r="D92" s="36" t="s">
         <v>271</v>
       </c>
-      <c r="E89" s="11">
+      <c r="E92" s="11">
         <v>6977286</v>
       </c>
-      <c r="F89" s="11" t="s">
+      <c r="F92" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="G89" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H89" s="87">
+      <c r="G92" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H92" s="87">
         <v>6.7</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="93">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A93" s="93">
         <v>3393932</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B93" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C93" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D90" s="9" t="s">
+      <c r="D93" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7" t="s">
+      <c r="E93" s="7"/>
+      <c r="F93" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="G90" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H90" s="7">
+      <c r="G93" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H93" s="7">
         <v>13.4</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="90">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A94" s="90">
         <v>3393861</v>
       </c>
-      <c r="B91" s="91" t="s">
+      <c r="B94" s="91" t="s">
         <v>274</v>
       </c>
-      <c r="C91" s="91" t="s">
+      <c r="C94" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="D91" s="92" t="s">
+      <c r="D94" s="92" t="s">
         <v>275</v>
       </c>
-      <c r="E91" s="91"/>
-      <c r="F91" s="91" t="s">
+      <c r="E94" s="91"/>
+      <c r="F94" s="91" t="s">
         <v>277</v>
       </c>
-      <c r="G91" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="H91" s="91">
+      <c r="G94" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="H94" s="91">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="84">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A95" s="84">
         <v>3393957</v>
       </c>
-      <c r="B92" s="11" t="s">
+      <c r="B95" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C92" s="11" t="s">
+      <c r="C95" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="D92" s="36" t="s">
+      <c r="D95" s="36" t="s">
         <v>296</v>
-      </c>
-      <c r="E92" s="11"/>
-      <c r="F92" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="G92" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H92" s="97">
-        <v>6.7</v>
-      </c>
-      <c r="I92" s="97">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="84">
-        <v>3393926</v>
-      </c>
-      <c r="B93" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="C93" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="D93" s="36" t="s">
-        <v>296</v>
-      </c>
-      <c r="E93" s="11"/>
-      <c r="F93" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="G93" t="s">
-        <v>58</v>
-      </c>
-      <c r="H93" s="97">
-        <v>6.7</v>
-      </c>
-      <c r="I93" s="97">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="84">
-        <v>3393799</v>
-      </c>
-      <c r="B94" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="C94" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="D94" s="36" t="s">
-        <v>281</v>
-      </c>
-      <c r="E94" s="11"/>
-      <c r="F94" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="G94" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H94" s="87">
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="84">
-        <v>3393958</v>
-      </c>
-      <c r="B95" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="C95" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="D95" s="36" t="s">
-        <v>285</v>
       </c>
       <c r="E95" s="11"/>
       <c r="F95" s="11" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="G95" s="11" t="s">
         <v>58</v>
       </c>
       <c r="H95" s="97">
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6.7</v>
+      </c>
+      <c r="I95" s="97">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="84">
-        <v>3393792</v>
+        <v>3393926</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>287</v>
+        <v>211</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>288</v>
+        <v>212</v>
       </c>
       <c r="D96" s="36" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="E96" s="11"/>
       <c r="F96" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="G96" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H96" s="87">
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+      <c r="G96" t="s">
+        <v>58</v>
+      </c>
+      <c r="H96" s="97">
+        <v>6.7</v>
+      </c>
+      <c r="I96" s="97">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="84">
-        <v>3393959</v>
+        <v>3393799</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="D97" s="36" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="E97" s="11"/>
       <c r="F97" s="11" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="G97" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H97" s="97">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H97" s="87">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="84">
-        <v>3393950</v>
+        <v>3393958</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="D98" s="36" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="E98" s="11"/>
       <c r="F98" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="G98" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H98" s="97">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A99" s="84">
+        <v>3393792</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="D99" s="36" t="s">
+        <v>289</v>
+      </c>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="G99" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H99" s="87">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A100" s="84">
+        <v>3393959</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="D100" s="36" t="s">
+        <v>293</v>
+      </c>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="G100" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H100" s="97">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A101" s="84">
+        <v>3393950</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="D101" s="36" t="s">
+        <v>293</v>
+      </c>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="G98" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H98" s="97">
+      <c r="G101" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H101" s="97">
         <v>6.7</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="26">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A102" s="26">
         <v>3388696</v>
       </c>
-      <c r="B99" s="10" t="s">
+      <c r="B102" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="D99" s="45" t="s">
+      <c r="D102" s="45" t="s">
         <v>309</v>
       </c>
-      <c r="G99" t="s">
-        <v>58</v>
-      </c>
-      <c r="H99" s="97">
+      <c r="G102" t="s">
+        <v>58</v>
+      </c>
+      <c r="H102" s="97">
         <v>65</v>
       </c>
-      <c r="I99" s="97">
+      <c r="I102" s="97">
         <v>65</v>
       </c>
+    </row>
+    <row r="103" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="11">
+        <v>3345132</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="F103" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="G103" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H103" s="11">
+        <v>65</v>
+      </c>
+      <c r="I103" s="11" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="11">
+        <v>3392897</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="F104" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="G104" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="H104" s="11">
+        <v>13.4</v>
+      </c>
+      <c r="I104" s="11" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="11">
+        <v>3393877</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="F105" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="G105" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H105" s="11">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="11">
+        <v>3393985</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="F106" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="G106" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H106" s="11">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="11">
+        <v>3393844</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="E107" s="11">
+        <v>7329151</v>
+      </c>
+      <c r="F107" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="G107" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H107" s="11">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="11">
+        <v>2958822</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="E108" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="F108" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="G108" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="H108" s="11">
+        <v>70</v>
+      </c>
+      <c r="I108" s="11" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="11">
+        <v>3393788</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="D109" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="F109" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="G109" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H109" s="11">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="11">
+        <v>3393790</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="E110" s="11">
+        <v>7583967</v>
+      </c>
+      <c r="F110" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="G110" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H110" s="11">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="11">
+        <v>3393990</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="E111" s="11">
+        <v>2446944</v>
+      </c>
+      <c r="F111" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="G111" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H111" s="11">
+        <v>65</v>
+      </c>
+      <c r="I111" s="11" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A112" s="36">
+        <v>3390767</v>
+      </c>
+      <c r="D112" t="s">
+        <v>352</v>
+      </c>
+      <c r="G112" t="s">
+        <v>19</v>
+      </c>
+      <c r="H112">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A113" s="36">
+        <v>3390772</v>
+      </c>
+      <c r="D113" s="84" t="s">
+        <v>353</v>
+      </c>
+      <c r="G113" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H113" s="11">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A114" s="36">
+        <v>3390785</v>
+      </c>
+      <c r="D114" t="s">
+        <v>354</v>
+      </c>
+      <c r="G114" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H114" s="11">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A115" s="36">
+        <v>3390847</v>
+      </c>
+      <c r="D115" t="s">
+        <v>355</v>
+      </c>
+      <c r="G115" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H115" s="11">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A116" s="36">
+        <v>3390848</v>
+      </c>
+      <c r="D116" t="s">
+        <v>367</v>
+      </c>
+      <c r="G116" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H116" s="11">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A117" s="36">
+        <v>3390851</v>
+      </c>
+      <c r="D117" t="s">
+        <v>356</v>
+      </c>
+      <c r="G117" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H117" s="11">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B121" s="31"/>
+      <c r="F121" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4776,7 +5333,349 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.1796875" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.26953125" customWidth="1"/>
+    <col min="5" max="5" width="25.1796875" style="21" customWidth="1"/>
+    <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="11" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="11" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="11" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="14">
+        <v>3370942</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="22"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" spans="1:10" s="11" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="11" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.81640625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="11" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="98">
+        <v>3390848</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="18" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="13">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="1:8" s="11" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="98">
+        <v>3390851</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="13">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="1:8" s="11" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="86">
+        <v>3393885</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="13">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="1:8" s="11" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="86">
+        <v>3393784</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="13">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" s="11" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="94">
+        <v>3393932</v>
+      </c>
+      <c r="B9" s="96" t="s">
+        <v>274</v>
+      </c>
+      <c r="C9" s="96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96" t="s">
+        <v>276</v>
+      </c>
+      <c r="G9" s="96" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="96">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" s="11" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="98">
+        <v>3390847</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="E11" s="24"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="13">
+        <v>13.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K45"/>
   <sheetViews>
@@ -4784,15 +5683,15 @@
       <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="21" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="19.7265625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" customWidth="1"/>
+    <col min="4" max="4" width="33.1796875" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="86">
         <v>3393957</v>
       </c>
@@ -4819,7 +5718,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="86">
         <v>3393926</v>
       </c>
@@ -4846,7 +5745,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13"/>
       <c r="B3" s="18"/>
       <c r="C3" s="13"/>
@@ -4855,7 +5754,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
     </row>
-    <row r="4" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="86">
         <v>3393958</v>
       </c>
@@ -4879,7 +5778,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13"/>
       <c r="B5" s="18"/>
       <c r="C5" s="13"/>
@@ -4888,7 +5787,7 @@
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
     </row>
-    <row r="6" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="86">
         <v>3393955</v>
       </c>
@@ -4912,7 +5811,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13"/>
       <c r="B7" s="18"/>
       <c r="C7" s="13"/>
@@ -4921,7 +5820,7 @@
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="86">
         <v>3393774</v>
       </c>
@@ -4946,7 +5845,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13"/>
       <c r="B9" s="18"/>
       <c r="C9" s="13"/>
@@ -4955,7 +5854,7 @@
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
     </row>
-    <row r="10" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="86">
         <v>3393901</v>
       </c>
@@ -4979,7 +5878,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="86">
         <v>3393904</v>
       </c>
@@ -5003,7 +5902,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13"/>
       <c r="B12" s="18"/>
       <c r="C12" s="13"/>
@@ -5012,7 +5911,7 @@
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
     </row>
-    <row r="13" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="86">
         <v>3393959</v>
       </c>
@@ -5036,7 +5935,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="86">
         <v>3393950</v>
       </c>
@@ -5060,7 +5959,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13"/>
       <c r="B15" s="18"/>
       <c r="C15" s="13"/>
@@ -5069,7 +5968,7 @@
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
     </row>
-    <row r="16" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="86">
         <v>3393942</v>
       </c>
@@ -5096,7 +5995,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="13"/>
       <c r="B17" s="18"/>
       <c r="C17" s="13"/>
@@ -5105,7 +6004,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="86">
         <v>3393914</v>
       </c>
@@ -5129,7 +6028,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="86"/>
       <c r="B19" s="18"/>
       <c r="C19" s="13"/>
@@ -5138,7 +6037,7 @@
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="86">
         <v>3393800</v>
       </c>
@@ -5162,7 +6061,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="86">
         <v>3393935</v>
       </c>
@@ -5186,7 +6085,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="13"/>
       <c r="B22" s="18"/>
       <c r="C22" s="13"/>
@@ -5195,7 +6094,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
     </row>
-    <row r="23" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="86">
         <v>3393849</v>
       </c>
@@ -5219,7 +6118,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="13"/>
       <c r="B24" s="18"/>
       <c r="C24" s="13"/>
@@ -5228,7 +6127,7 @@
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
     </row>
-    <row r="25" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="86">
         <v>3393922</v>
       </c>
@@ -5252,7 +6151,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="86">
         <v>3393824</v>
       </c>
@@ -5276,7 +6175,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="86">
         <v>3393937</v>
       </c>
@@ -5300,7 +6199,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="13"/>
       <c r="B28" s="18"/>
       <c r="C28" s="13"/>
@@ -5309,7 +6208,7 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
     </row>
-    <row r="29" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="86">
         <v>3393957</v>
       </c>
@@ -5339,7 +6238,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="86">
         <v>3393926</v>
       </c>
@@ -5366,7 +6265,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="13"/>
       <c r="B31" s="18"/>
       <c r="C31" s="13"/>
@@ -5375,7 +6274,7 @@
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
     </row>
-    <row r="32" spans="1:11" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="50">
         <v>3388696</v>
       </c>
@@ -5398,7 +6297,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="13"/>
       <c r="B33" s="18"/>
       <c r="C33" s="13"/>
@@ -5407,7 +6306,7 @@
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
     </row>
-    <row r="41" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="86">
         <v>3393885</v>
       </c>
@@ -5434,7 +6333,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="13"/>
       <c r="B42" s="18"/>
       <c r="C42" s="13"/>
@@ -5443,7 +6342,7 @@
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
     </row>
-    <row r="43" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="94">
         <v>3393932</v>
       </c>
@@ -5467,7 +6366,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="86"/>
       <c r="B44" s="18"/>
       <c r="C44" s="13"/>
@@ -5476,7 +6375,7 @@
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
     </row>
-    <row r="45" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="86">
         <v>3393784</v>
       </c>
@@ -5497,429 +6396,6 @@
         <v>58</v>
       </c>
       <c r="H45" s="11">
-        <v>13.4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" style="21" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85">
-        <v>3393000</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="65">
-        <v>2763.41</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="11">
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-    </row>
-    <row r="3" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="85">
-        <v>2382326</v>
-      </c>
-      <c r="B3" s="51" t="s">
-        <v>201</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="65">
-        <v>96699.83</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="H3" s="11">
-        <v>13.4</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85">
-        <v>3393005</v>
-      </c>
-      <c r="B5" s="51" t="s">
-        <v>203</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="65">
-        <v>4857.4799999999996</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="11">
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-    </row>
-    <row r="7" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="86">
-        <v>3393799</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>281</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="11">
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="86">
-        <v>3393792</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" s="11">
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-    </row>
-    <row r="11" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="86">
-        <v>3393822</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="11">
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-    </row>
-    <row r="13" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="86">
-        <v>3393813</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" s="11">
-        <v>13.4</v>
-      </c>
-      <c r="I13" s="11">
-        <v>13.4</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="86">
-        <v>3393842</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="E15" s="13">
-        <v>8668637</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" s="11">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="86">
-        <v>3393839</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="E16" s="13">
-        <v>8668637</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="11">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="86">
-        <v>3393840</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="E17" s="13">
-        <v>8668637</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H17" s="11">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-    </row>
-    <row r="19" spans="1:8" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="86">
-        <v>3393803</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="E19" s="13">
-        <v>6977286</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H19" s="11">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="86">
-        <v>3393785</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="E20" s="13">
-        <v>6977286</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H20" s="11">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="84">
-        <v>3393819</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="H22" s="11">
         <v>13.4</v>
       </c>
     </row>
@@ -5931,24 +6407,447 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" customWidth="1"/>
+    <col min="3" max="3" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.7265625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="85">
+        <v>3393000</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="65">
+        <v>2763.41</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="11">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="85">
+        <v>2382326</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="65">
+        <v>96699.83</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="H3" s="11">
+        <v>13.4</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="85"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="85">
+        <v>3393005</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="E5" s="24"/>
+      <c r="F5" s="65">
+        <v>4857.4799999999996</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="11">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="86">
+        <v>3393799</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="11">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="86">
+        <v>3393792</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="11">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="86">
+        <v>3393822</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="11">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="86">
+        <v>3393813</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="11">
+        <v>13.4</v>
+      </c>
+      <c r="I13" s="11">
+        <v>13.4</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="86">
+        <v>3393842</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="E15" s="13">
+        <v>8668637</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="86">
+        <v>3393839</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="E16" s="13">
+        <v>8668637</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="86">
+        <v>3393840</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="E17" s="13">
+        <v>8668637</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="1:8" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="86">
+        <v>3393803</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="E19" s="13">
+        <v>6977286</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="11">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="86">
+        <v>3393785</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="E20" s="13">
+        <v>6977286</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="11">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="84">
+        <v>3393819</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="H22" s="11">
+        <v>13.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="11" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="62">
         <v>3388794</v>
       </c>
@@ -5972,7 +6871,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -5983,7 +6882,7 @@
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
     </row>
-    <row r="3" spans="1:9" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="11" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="50">
         <v>3390742</v>
       </c>
@@ -6006,7 +6905,7 @@
       </c>
       <c r="I3" s="13"/>
     </row>
-    <row r="4" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -6017,7 +6916,7 @@
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="11" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="50">
         <v>3390695</v>
       </c>
@@ -6040,7 +6939,7 @@
       </c>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:9" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="11" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="50">
         <v>3390685</v>
       </c>
@@ -6063,7 +6962,7 @@
       </c>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:9" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="11" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="50">
         <v>3390714</v>
       </c>
@@ -6086,7 +6985,7 @@
       </c>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -6097,7 +6996,7 @@
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:9" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="11" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="50">
         <v>3277813</v>
       </c>
@@ -6120,7 +7019,7 @@
       </c>
       <c r="I9" s="13"/>
     </row>
-    <row r="19" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="26">
         <v>3389888</v>
       </c>
@@ -6146,7 +7045,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
@@ -6154,9 +7053,9 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26">
         <v>3282649</v>
       </c>
@@ -6177,7 +7076,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26">
         <v>3282639</v>
       </c>
@@ -6198,7 +7097,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="26">
         <v>3282647</v>
       </c>
@@ -6219,7 +7118,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="26">
         <v>3390706</v>
       </c>
@@ -6240,7 +7139,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>178</v>
       </c>
@@ -6256,7 +7155,7 @@
       </c>
       <c r="K7" s="61"/>
     </row>
-    <row r="9" spans="1:11" s="11" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="11" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>172</v>
       </c>
@@ -6284,7 +7183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
@@ -6292,19 +7191,19 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="21" customWidth="1"/>
-    <col min="5" max="5" width="1.7109375" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7265625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="1.7265625" customWidth="1"/>
+    <col min="6" max="6" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13">
         <v>3388794</v>
       </c>
@@ -6328,7 +7227,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -6338,7 +7237,7 @@
       <c r="G2" s="13"/>
       <c r="H2" s="35"/>
     </row>
-    <row r="3" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>3388499</v>
       </c>
@@ -6362,7 +7261,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
         <v>3388641</v>
       </c>
@@ -6386,7 +7285,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -6396,7 +7295,7 @@
       <c r="G5" s="13"/>
       <c r="H5" s="49"/>
     </row>
-    <row r="6" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
         <v>3388646</v>
       </c>
@@ -6420,7 +7319,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -6430,7 +7329,7 @@
       <c r="G7" s="13"/>
       <c r="H7" s="35"/>
     </row>
-    <row r="8" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13">
         <v>3388490</v>
       </c>
@@ -6454,7 +7353,7 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13">
         <v>3388576</v>
       </c>
@@ -6478,7 +7377,7 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13">
         <v>3388533</v>
       </c>
@@ -6502,7 +7401,7 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13">
         <v>3388541</v>
       </c>
@@ -6526,7 +7425,7 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -6536,7 +7435,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="35"/>
     </row>
-    <row r="13" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13">
         <v>3388519</v>
       </c>
@@ -6560,7 +7459,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -6570,7 +7469,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="35"/>
     </row>
-    <row r="15" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="37" t="s">
         <v>142</v>
       </c>
@@ -6591,7 +7490,7 @@
       </c>
       <c r="I15" s="34"/>
     </row>
-    <row r="16" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="37"/>
       <c r="B16" s="38"/>
       <c r="C16" s="39"/>
@@ -6602,7 +7501,7 @@
       <c r="H16" s="13"/>
       <c r="I16" s="34"/>
     </row>
-    <row r="17" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="37" t="s">
         <v>144</v>
       </c>
@@ -6622,7 +7521,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="37"/>
       <c r="B18" s="13"/>
       <c r="C18" s="39"/>
@@ -6632,7 +7531,7 @@
       <c r="G18" s="42"/>
       <c r="H18" s="13"/>
     </row>
-    <row r="19" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="13">
         <v>2634834</v>
       </c>
@@ -6656,7 +7555,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -6666,7 +7565,7 @@
       <c r="G20" s="13"/>
       <c r="H20" s="35"/>
     </row>
-    <row r="21" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="13">
         <v>3388603</v>
       </c>
@@ -6690,7 +7589,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -6700,7 +7599,7 @@
       <c r="G22" s="13"/>
       <c r="H22" s="35"/>
     </row>
-    <row r="23" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="50">
         <v>3389861</v>
       </c>
@@ -6724,7 +7623,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -6734,7 +7633,7 @@
       <c r="G24" s="13"/>
       <c r="H24" s="35"/>
     </row>
-    <row r="25" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="13">
         <v>3388693</v>
       </c>
@@ -6758,7 +7657,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="13">
         <v>3388536</v>
       </c>
@@ -6788,7 +7687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
@@ -6796,17 +7695,17 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" style="21" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.54296875" style="21" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="37" t="s">
         <v>139</v>
       </c>
@@ -6829,7 +7728,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -6840,7 +7739,7 @@
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
     </row>
-    <row r="3" spans="1:9" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="37" t="s">
         <v>131</v>
       </c>
@@ -6861,7 +7760,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -6872,7 +7771,7 @@
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="37" t="s">
         <v>136</v>
       </c>
@@ -6895,7 +7794,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="C7" s="32"/>
       <c r="D7" s="32"/>
@@ -6909,7 +7808,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
@@ -6917,19 +7816,19 @@
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="21" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" style="21" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7265625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.54296875" style="21" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="37" t="s">
         <v>133</v>
       </c>
@@ -6952,7 +7851,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13"/>
       <c r="B2" s="18"/>
       <c r="C2" s="13"/>
@@ -6962,7 +7861,7 @@
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="1:9" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>3388568</v>
       </c>
@@ -6986,7 +7885,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
         <v>3388525</v>
       </c>
@@ -7010,7 +7909,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
         <v>3388505</v>
       </c>
@@ -7034,7 +7933,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
         <v>3388495</v>
       </c>
@@ -7058,7 +7957,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13"/>
       <c r="B7" s="18"/>
       <c r="C7" s="13"/>
@@ -7068,7 +7967,7 @@
       <c r="G7" s="13"/>
       <c r="H7" s="35"/>
     </row>
-    <row r="8" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13">
         <v>3388598</v>
       </c>
@@ -7094,7 +7993,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13"/>
       <c r="B9" s="18"/>
       <c r="C9" s="13"/>
@@ -7104,7 +8003,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="35"/>
     </row>
-    <row r="10" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13">
         <v>3388573</v>
       </c>
@@ -7133,7 +8032,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13"/>
       <c r="B11" s="18"/>
       <c r="C11" s="13"/>
@@ -7143,7 +8042,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="35"/>
     </row>
-    <row r="12" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13">
         <v>3077115</v>
       </c>
@@ -7170,7 +8069,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13"/>
       <c r="B13" s="18"/>
       <c r="C13" s="13"/>
@@ -7180,7 +8079,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="35"/>
     </row>
-    <row r="14" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13">
         <v>3388643</v>
       </c>
@@ -7206,7 +8105,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13"/>
       <c r="B15" s="18"/>
       <c r="C15" s="13"/>
@@ -7216,7 +8115,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="35"/>
     </row>
-    <row r="16" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13">
         <v>3345534</v>
       </c>
@@ -7240,7 +8139,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="13"/>
       <c r="B17" s="18"/>
       <c r="C17" s="13"/>
@@ -7250,7 +8149,7 @@
       <c r="G17" s="13"/>
       <c r="H17" s="35"/>
     </row>
-    <row r="18" spans="1:10" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13">
         <v>3388620</v>
       </c>
@@ -7280,7 +8179,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="13">
         <v>3388488</v>
       </c>
@@ -7307,7 +8206,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="13"/>
       <c r="B20" s="18"/>
       <c r="C20" s="13"/>
@@ -7317,7 +8216,7 @@
       <c r="G20" s="13"/>
       <c r="H20" s="35"/>
     </row>
-    <row r="21" spans="1:10" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="13">
         <v>3388482</v>
       </c>
@@ -7344,7 +8243,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="13">
         <v>3388521</v>
       </c>
@@ -7369,148 +8268,6 @@
       </c>
       <c r="I22" s="11">
         <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="21" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" style="21" customWidth="1"/>
-    <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="11" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="11" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="11" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
-        <v>3370942</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="17"/>
-    </row>
-    <row r="4" spans="1:10" s="11" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="11" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/rozjazdy zbiorcze maj.xlsx
+++ b/rozjazdy zbiorcze maj.xlsx
@@ -5,30 +5,31 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KOKSZTYS\maj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\KOKSZTYS\maj\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11535"/>
   </bookViews>
   <sheets>
     <sheet name="Pakiet_Zlecen_WTA_2019_05_06s.s" sheetId="1" r:id="rId1"/>
-    <sheet name="rozjazdy 01.06" sheetId="10" r:id="rId2"/>
-    <sheet name="rozjazdy 30.05" sheetId="8" r:id="rId3"/>
-    <sheet name="rozjazdy 29.05" sheetId="9" r:id="rId4"/>
-    <sheet name="rozjazdy 23.05" sheetId="6" r:id="rId5"/>
-    <sheet name="rozjady 24.05" sheetId="7" r:id="rId6"/>
-    <sheet name="rozjazdy 21.05" sheetId="5" r:id="rId7"/>
-    <sheet name="rozjazdy 20.05" sheetId="4" r:id="rId8"/>
-    <sheet name="rozjazdy 18.05" sheetId="3" r:id="rId9"/>
-    <sheet name="rozjazdy 13.05" sheetId="2" r:id="rId10"/>
+    <sheet name="04.06" sheetId="11" r:id="rId2"/>
+    <sheet name="rozjazdy 01.06" sheetId="10" r:id="rId3"/>
+    <sheet name="rozjazdy 30.05" sheetId="8" r:id="rId4"/>
+    <sheet name="rozjazdy 29.05" sheetId="9" r:id="rId5"/>
+    <sheet name="rozjazdy 23.05" sheetId="6" r:id="rId6"/>
+    <sheet name="rozjady 24.05" sheetId="7" r:id="rId7"/>
+    <sheet name="rozjazdy 21.05" sheetId="5" r:id="rId8"/>
+    <sheet name="rozjazdy 20.05" sheetId="4" r:id="rId9"/>
+    <sheet name="rozjazdy 18.05" sheetId="3" r:id="rId10"/>
+    <sheet name="rozjazdy 13.05" sheetId="2" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="375">
   <si>
     <t>SALON PRASOWY-TOTOLOTEK BOGUSŁAW KLEMENT</t>
   </si>
@@ -750,9 +751,6 @@
     <t>Ciechanowice 138, 58-410 Ciechanowice // Paszowice 144</t>
   </si>
   <si>
-    <t>37km Wrocław</t>
-  </si>
-  <si>
     <t>PODTYNIE 14, 57-300 KŁODZKO // ??????WOLNE 129 57-300 ?????</t>
   </si>
   <si>
@@ -1235,9 +1233,6 @@
     <t>zlecenie wykonano 30.05</t>
   </si>
   <si>
-    <t>69 km Wrocław</t>
-  </si>
-  <si>
     <t>Patrycja Wala</t>
   </si>
   <si>
@@ -1307,9 +1302,6 @@
     <t>4981.67</t>
   </si>
   <si>
-    <t>/90</t>
-  </si>
-  <si>
     <t>Andrzej Salij</t>
   </si>
   <si>
@@ -1352,9 +1344,6 @@
     <t>za środą śląską</t>
   </si>
   <si>
-    <t>/65</t>
-  </si>
-  <si>
     <t>Boczna 1/10, Wrocław</t>
   </si>
   <si>
@@ -1401,6 +1390,75 @@
   </si>
   <si>
     <t>Szarskiego 15/13, Wrocław</t>
+  </si>
+  <si>
+    <t>ENT300751889</t>
+  </si>
+  <si>
+    <t>ANDRZEJ UNDRO</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UL. ZAGONY 30 lok. 4 WROCŁAW 54-614  //   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HALLERA 81</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">nest inspekcja </t>
+  </si>
+  <si>
+    <t>zlecenie wykonano 03.06</t>
+  </si>
+  <si>
+    <t>zlecenie wykonano 01.06</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HALLERA 81</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   ///    UL. ZAGONY 30 lok. 4 WROCŁAW 54-614 </t>
+    </r>
+  </si>
+  <si>
+    <t>zlecenie wykonano 04.06</t>
+  </si>
+  <si>
+    <t>Wrocław</t>
+  </si>
+  <si>
+    <t>zlecenie wykonano 05.06</t>
+  </si>
+  <si>
+    <t>paliwo</t>
   </si>
 </sst>
 </file>
@@ -1664,7 +1722,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1886,6 +1944,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -2097,7 +2179,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
@@ -2283,6 +2365,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — akcent 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2609,24 +2700,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N121"/>
+  <dimension ref="A1:O121"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A76" activeCellId="2" sqref="A93:XFD93 A81:XFD81 A76:XFD76"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="85.1796875" customWidth="1"/>
-    <col min="5" max="5" width="11.26953125" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="85.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="75" t="s">
         <v>131</v>
       </c>
@@ -2644,7 +2735,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="75" t="s">
         <v>133</v>
       </c>
@@ -2667,7 +2758,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="75" t="s">
         <v>136</v>
       </c>
@@ -2688,7 +2779,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="75" t="s">
         <v>139</v>
       </c>
@@ -2711,7 +2802,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="75" t="s">
         <v>142</v>
       </c>
@@ -2732,7 +2823,7 @@
       </c>
       <c r="I5" s="34"/>
     </row>
-    <row r="6" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="75" t="s">
         <v>144</v>
       </c>
@@ -2751,7 +2842,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="75" t="s">
         <v>7</v>
       </c>
@@ -2767,8 +2858,14 @@
       <c r="K7" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N7">
+        <v>23</v>
+      </c>
+      <c r="O7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="75" t="s">
         <v>7</v>
       </c>
@@ -2785,7 +2882,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="75" t="s">
         <v>169</v>
       </c>
@@ -2805,8 +2902,14 @@
       <c r="K9" s="25" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="N9" s="11">
+        <v>24.4</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="75" t="s">
         <v>172</v>
       </c>
@@ -2832,7 +2935,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="75" t="s">
         <v>175</v>
       </c>
@@ -2856,76 +2959,97 @@
       </c>
       <c r="L11" s="30"/>
     </row>
-    <row r="12" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="75" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B12" s="31"/>
       <c r="C12" s="32" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E12" s="33"/>
       <c r="F12" s="32"/>
       <c r="G12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="56">
+      <c r="H12" s="102">
         <v>65</v>
       </c>
-      <c r="K12" s="29"/>
-      <c r="L12" s="30"/>
-    </row>
-    <row r="13" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K12" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12">
+        <v>29</v>
+      </c>
+      <c r="O12" s="11" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="75" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B13" s="31"/>
       <c r="C13" s="32" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="32"/>
       <c r="G13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="56">
+      <c r="H13" s="102">
         <v>65</v>
       </c>
-      <c r="K13" s="29"/>
-      <c r="L13" s="30"/>
-    </row>
-    <row r="14" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K13" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13"/>
+    </row>
+    <row r="14" spans="1:15" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="75" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B14" s="31"/>
       <c r="C14" s="32" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E14" s="33"/>
       <c r="F14" s="32"/>
       <c r="G14" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="56">
+      <c r="H14" s="106">
         <v>65</v>
       </c>
       <c r="I14" s="34" t="s">
-        <v>366</v>
-      </c>
-      <c r="K14" s="29"/>
-      <c r="L14" s="30"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+        <v>362</v>
+      </c>
+      <c r="K14" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="L14"/>
+      <c r="N14" s="11">
+        <v>43.5</v>
+      </c>
+      <c r="O14" s="11" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
@@ -2945,11 +3069,18 @@
       <c r="H15" s="8">
         <v>65</v>
       </c>
-      <c r="K15" s="44" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K15" s="67" t="s">
+        <v>182</v>
+      </c>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11">
+        <v>37</v>
+      </c>
+      <c r="O15" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="75" t="s">
         <v>51</v>
       </c>
@@ -2963,13 +3094,18 @@
       <c r="H16" s="29">
         <v>65</v>
       </c>
-      <c r="K16" s="48" t="s">
-        <v>154</v>
-      </c>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-    </row>
-    <row r="17" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K16" s="68" t="s">
+        <v>195</v>
+      </c>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11">
+        <v>50</v>
+      </c>
+      <c r="O16" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="36" t="s">
         <v>178</v>
       </c>
@@ -2984,12 +3120,14 @@
       <c r="H17" s="69">
         <v>65</v>
       </c>
-      <c r="K17" s="53" t="s">
-        <v>156</v>
+      <c r="K17" s="73" t="s">
+        <v>196</v>
       </c>
       <c r="L17"/>
-    </row>
-    <row r="18" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="M17"/>
+      <c r="N17"/>
+    </row>
+    <row r="18" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
         <v>189</v>
       </c>
@@ -3006,21 +3144,47 @@
       <c r="H18" s="72">
         <v>90</v>
       </c>
-      <c r="K18" s="67" t="s">
-        <v>182</v>
+      <c r="K18" s="87" t="s">
+        <v>307</v>
       </c>
       <c r="L18"/>
-      <c r="N18" s="11" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="K19" s="68" t="s">
-        <v>196</v>
+      <c r="M18"/>
+      <c r="N18">
+        <v>69</v>
+      </c>
+      <c r="O18" s="11" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>366</v>
+      </c>
+      <c r="G19" s="99" t="s">
+        <v>367</v>
+      </c>
+      <c r="H19" s="105">
+        <v>35</v>
+      </c>
+      <c r="K19" s="97" t="s">
+        <v>310</v>
       </c>
       <c r="L19"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="M19"/>
+      <c r="N19">
+        <v>46.5</v>
+      </c>
+      <c r="O19" s="11" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="36">
         <v>3377034</v>
       </c>
@@ -3039,11 +3203,17 @@
       <c r="H20" s="2">
         <v>13.4</v>
       </c>
-      <c r="K20" s="73" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K20" s="100" t="s">
+        <v>369</v>
+      </c>
+      <c r="N20">
+        <v>27</v>
+      </c>
+      <c r="O20" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="36">
         <v>3377017</v>
       </c>
@@ -3062,14 +3232,19 @@
       <c r="H21" s="2">
         <v>13.4</v>
       </c>
-      <c r="K21" s="87" t="s">
-        <v>308</v>
-      </c>
-      <c r="N21" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K21" s="101" t="s">
+        <v>368</v>
+      </c>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21">
+        <v>20</v>
+      </c>
+      <c r="O21" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="76">
         <v>3370942</v>
       </c>
@@ -3085,11 +3260,17 @@
       <c r="H22" s="25">
         <v>13.4</v>
       </c>
-      <c r="K22" s="97" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K22" s="105" t="s">
+        <v>371</v>
+      </c>
+      <c r="N22">
+        <v>28</v>
+      </c>
+      <c r="O22" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
         <v>20</v>
       </c>
@@ -3112,8 +3293,13 @@
         <v>35</v>
       </c>
       <c r="I23" s="11"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K23" s="107" t="s">
+        <v>373</v>
+      </c>
+      <c r="L23" s="107"/>
+      <c r="M23" s="107"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="36" t="s">
         <v>23</v>
       </c>
@@ -3136,10 +3322,8 @@
         <v>35</v>
       </c>
       <c r="I24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="36" t="s">
         <v>26</v>
       </c>
@@ -3165,7 +3349,7 @@
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="36" t="s">
         <v>29</v>
       </c>
@@ -3191,7 +3375,7 @@
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="76">
         <v>3385881</v>
       </c>
@@ -3208,7 +3392,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="36">
         <v>3388499</v>
       </c>
@@ -3232,7 +3416,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="36">
         <v>3388641</v>
       </c>
@@ -3256,7 +3440,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="36">
         <v>3388568</v>
       </c>
@@ -3280,7 +3464,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="36">
         <v>3388525</v>
       </c>
@@ -3304,7 +3488,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="36">
         <v>3388505</v>
       </c>
@@ -3328,7 +3512,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="36">
         <v>3388495</v>
       </c>
@@ -3352,7 +3536,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="36">
         <v>3388603</v>
       </c>
@@ -3376,7 +3560,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="36">
         <v>3388598</v>
       </c>
@@ -3402,7 +3586,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="36">
         <v>3388490</v>
       </c>
@@ -3426,7 +3610,7 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="36">
         <v>3388576</v>
       </c>
@@ -3450,7 +3634,7 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="36">
         <v>3388533</v>
       </c>
@@ -3474,7 +3658,7 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="36">
         <v>3388541</v>
       </c>
@@ -3498,7 +3682,7 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="36">
         <v>3077115</v>
       </c>
@@ -3525,7 +3709,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="36">
         <v>3388482</v>
       </c>
@@ -3555,7 +3739,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="36">
         <v>3388521</v>
       </c>
@@ -3585,7 +3769,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="36">
         <v>3388794</v>
       </c>
@@ -3615,7 +3799,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="36">
         <v>3388519</v>
       </c>
@@ -3639,7 +3823,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="36">
         <v>3388693</v>
       </c>
@@ -3663,7 +3847,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="36">
         <v>3388536</v>
       </c>
@@ -3687,7 +3871,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="36">
         <v>3345534</v>
       </c>
@@ -3711,7 +3895,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="36">
         <v>3388620</v>
       </c>
@@ -3741,7 +3925,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="36">
         <v>3388488</v>
       </c>
@@ -3768,7 +3952,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="36">
         <v>3388573</v>
       </c>
@@ -3800,7 +3984,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="36">
         <v>3388646</v>
       </c>
@@ -3824,7 +4008,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="36">
         <v>3388643</v>
       </c>
@@ -3850,7 +4034,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="36">
         <v>2634834</v>
       </c>
@@ -3874,7 +4058,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="76">
         <v>3389861</v>
       </c>
@@ -3897,7 +4081,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="76">
         <v>3277813</v>
       </c>
@@ -3917,7 +4101,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="76">
         <v>3390706</v>
       </c>
@@ -3937,7 +4121,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="45">
         <v>3390685</v>
       </c>
@@ -3957,7 +4141,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="45">
         <v>3390714</v>
       </c>
@@ -3977,7 +4161,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="45">
         <v>3390695</v>
       </c>
@@ -3997,7 +4181,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="76">
         <v>3282647</v>
       </c>
@@ -4017,7 +4201,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="76">
         <v>3282649</v>
       </c>
@@ -4037,7 +4221,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="76">
         <v>3282639</v>
       </c>
@@ -4058,7 +4242,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="76">
         <v>3390742</v>
       </c>
@@ -4078,7 +4262,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="76">
         <v>3389888</v>
       </c>
@@ -4098,7 +4282,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="77">
         <v>3390681</v>
       </c>
@@ -4118,7 +4302,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="76">
         <v>3390745</v>
       </c>
@@ -4126,7 +4310,7 @@
         <v>185</v>
       </c>
       <c r="D66" s="74" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F66" s="9">
         <v>1071.5899999999999</v>
@@ -4141,7 +4325,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="76">
         <v>3390752</v>
       </c>
@@ -4161,38 +4345,38 @@
         <v>90</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="78">
         <v>2382326</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D68" s="45" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F68" s="9">
         <v>96699.83</v>
       </c>
       <c r="G68" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H68" s="97">
         <v>13.4</v>
       </c>
       <c r="I68" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="78">
         <v>3393005</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D69" s="45" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F69" s="9">
         <v>4857.4799999999996</v>
@@ -4204,15 +4388,15 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="78">
         <v>3393000</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D70" s="45" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F70" s="9">
         <v>2763.41</v>
@@ -4224,94 +4408,94 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="84">
         <v>3393819</v>
       </c>
       <c r="B71" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C71" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="D71" s="36" t="s">
         <v>207</v>
-      </c>
-      <c r="D71" s="36" t="s">
-        <v>208</v>
       </c>
       <c r="E71" s="11"/>
       <c r="F71" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="G71" s="11" t="s">
         <v>209</v>
-      </c>
-      <c r="G71" s="11" t="s">
-        <v>210</v>
       </c>
       <c r="H71" s="87">
         <v>13.4</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="84">
         <v>3393849</v>
       </c>
       <c r="B72" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="C72" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="D72" s="36" t="s">
         <v>215</v>
-      </c>
-      <c r="D72" s="36" t="s">
-        <v>216</v>
       </c>
       <c r="E72" s="11"/>
       <c r="F72" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H72" s="97">
         <v>13.4</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="84">
         <v>3393914</v>
       </c>
       <c r="B73" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C73" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="D73" s="36" t="s">
         <v>219</v>
-      </c>
-      <c r="D73" s="36" t="s">
-        <v>220</v>
       </c>
       <c r="E73" s="11"/>
       <c r="F73" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H73" s="97">
         <v>13.4</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="84">
         <v>3393774</v>
       </c>
       <c r="B74" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C74" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="C74" s="11" t="s">
-        <v>223</v>
-      </c>
       <c r="D74" s="36" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E74" s="11"/>
       <c r="F74" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G74" s="11" t="s">
         <v>58</v>
@@ -4321,22 +4505,22 @@
       </c>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="84">
         <v>3393822</v>
       </c>
       <c r="B75" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C75" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="D75" s="36" t="s">
         <v>226</v>
-      </c>
-      <c r="D75" s="36" t="s">
-        <v>227</v>
       </c>
       <c r="E75" s="11"/>
       <c r="F75" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G75" s="11" t="s">
         <v>58</v>
@@ -4345,46 +4529,46 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="84">
         <v>3393885</v>
       </c>
       <c r="B76" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="C76" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="D76" s="36" t="s">
         <v>254</v>
-      </c>
-      <c r="D76" s="11" t="s">
-        <v>255</v>
       </c>
       <c r="E76" s="11"/>
       <c r="F76" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G76" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H76" s="11">
+      <c r="H76" s="100">
         <v>13.4</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="84">
         <v>3393813</v>
       </c>
       <c r="B77" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="C77" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="C77" s="11" t="s">
+      <c r="D77" s="36" t="s">
         <v>233</v>
-      </c>
-      <c r="D77" s="36" t="s">
-        <v>234</v>
       </c>
       <c r="E77" s="11"/>
       <c r="F77" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G77" s="11" t="s">
         <v>58</v>
@@ -4396,22 +4580,22 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="84">
         <v>3393955</v>
       </c>
       <c r="B78" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C78" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="D78" s="36" t="s">
         <v>237</v>
-      </c>
-      <c r="D78" s="36" t="s">
-        <v>238</v>
       </c>
       <c r="E78" s="11"/>
       <c r="F78" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G78" s="11" t="s">
         <v>58</v>
@@ -4420,22 +4604,22 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="84">
         <v>3393800</v>
       </c>
       <c r="B79" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="C79" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="D79" s="36" t="s">
         <v>230</v>
-      </c>
-      <c r="D79" s="36" t="s">
-        <v>231</v>
       </c>
       <c r="E79" s="11"/>
       <c r="F79" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G79" s="11" t="s">
         <v>58</v>
@@ -4444,18 +4628,18 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="84">
         <v>3393935</v>
       </c>
       <c r="B80" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="C80" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="D80" s="36" t="s">
         <v>230</v>
-      </c>
-      <c r="D80" s="36" t="s">
-        <v>231</v>
       </c>
       <c r="E80" s="11"/>
       <c r="F80" s="82">
@@ -4468,46 +4652,46 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="84">
         <v>3393784</v>
       </c>
       <c r="B81" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="C81" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="D81" s="36" t="s">
         <v>242</v>
-      </c>
-      <c r="D81" s="11" t="s">
-        <v>243</v>
       </c>
       <c r="E81" s="11"/>
       <c r="F81" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G81" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H81" s="11">
+      <c r="H81" s="100">
         <v>13.4</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="84">
         <v>3393942</v>
       </c>
       <c r="B82" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C82" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="D82" s="36" t="s">
         <v>246</v>
-      </c>
-      <c r="D82" s="36" t="s">
-        <v>247</v>
       </c>
       <c r="E82" s="11"/>
       <c r="F82" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G82" s="11" t="s">
         <v>58</v>
@@ -4516,22 +4700,22 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="84">
         <v>3393901</v>
       </c>
       <c r="B83" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="C83" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="D83" s="36" t="s">
         <v>250</v>
-      </c>
-      <c r="D83" s="36" t="s">
-        <v>251</v>
       </c>
       <c r="E83" s="11"/>
       <c r="F83" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G83" s="11" t="s">
         <v>58</v>
@@ -4540,22 +4724,22 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="84">
         <v>3393904</v>
       </c>
       <c r="B84" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="C84" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="D84" s="36" t="s">
         <v>250</v>
-      </c>
-      <c r="D84" s="36" t="s">
-        <v>251</v>
       </c>
       <c r="E84" s="11"/>
       <c r="F84" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G84" s="11" t="s">
         <v>58</v>
@@ -4564,24 +4748,24 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="84">
         <v>3393842</v>
       </c>
       <c r="B85" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="C85" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="D85" s="36" t="s">
         <v>259</v>
-      </c>
-      <c r="D85" s="36" t="s">
-        <v>260</v>
       </c>
       <c r="E85" s="11">
         <v>8668637</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G85" s="11" t="s">
         <v>58</v>
@@ -4590,24 +4774,24 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="84">
         <v>3393839</v>
       </c>
       <c r="B86" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="C86" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="D86" s="36" t="s">
         <v>259</v>
-      </c>
-      <c r="D86" s="36" t="s">
-        <v>260</v>
       </c>
       <c r="E86" s="11">
         <v>8668637</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G86" s="11" t="s">
         <v>58</v>
@@ -4616,24 +4800,24 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="84">
         <v>3393840</v>
       </c>
       <c r="B87" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="C87" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="D87" s="36" t="s">
         <v>259</v>
-      </c>
-      <c r="D87" s="36" t="s">
-        <v>260</v>
       </c>
       <c r="E87" s="11">
         <v>8668637</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G87" s="11" t="s">
         <v>58</v>
@@ -4642,22 +4826,22 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="84">
         <v>3393922</v>
       </c>
       <c r="B88" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="C88" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="D88" s="36" t="s">
         <v>265</v>
-      </c>
-      <c r="D88" s="36" t="s">
-        <v>266</v>
       </c>
       <c r="E88" s="11"/>
       <c r="F88" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G88" s="11" t="s">
         <v>58</v>
@@ -4666,22 +4850,22 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="84">
         <v>3393824</v>
       </c>
       <c r="B89" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="C89" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="D89" s="36" t="s">
         <v>265</v>
-      </c>
-      <c r="D89" s="36" t="s">
-        <v>266</v>
       </c>
       <c r="E89" s="11"/>
       <c r="F89" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G89" s="11" t="s">
         <v>58</v>
@@ -4690,18 +4874,18 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="84">
         <v>3393937</v>
       </c>
       <c r="B90" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="C90" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="C90" s="11" t="s">
+      <c r="D90" s="36" t="s">
         <v>265</v>
-      </c>
-      <c r="D90" s="36" t="s">
-        <v>266</v>
       </c>
       <c r="E90" s="11"/>
       <c r="F90" s="83">
@@ -4714,24 +4898,24 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="84">
         <v>3393803</v>
       </c>
       <c r="B91" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C91" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="C91" s="11" t="s">
+      <c r="D91" s="36" t="s">
         <v>270</v>
-      </c>
-      <c r="D91" s="36" t="s">
-        <v>271</v>
       </c>
       <c r="E91" s="11">
         <v>6977286</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G91" s="11" t="s">
         <v>58</v>
@@ -4740,24 +4924,24 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="84">
         <v>3393785</v>
       </c>
       <c r="B92" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C92" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="C92" s="11" t="s">
+      <c r="D92" s="36" t="s">
         <v>270</v>
-      </c>
-      <c r="D92" s="36" t="s">
-        <v>271</v>
       </c>
       <c r="E92" s="11">
         <v>6977286</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G92" s="11" t="s">
         <v>58</v>
@@ -4766,46 +4950,46 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="93">
         <v>3393932</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D93" s="9" t="s">
-        <v>275</v>
+      <c r="D93" s="45" t="s">
+        <v>274</v>
       </c>
       <c r="E93" s="7"/>
       <c r="F93" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G93" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H93" s="7">
+      <c r="H93" s="103">
         <v>13.4</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="90">
         <v>3393861</v>
       </c>
       <c r="B94" s="91" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C94" s="91" t="s">
         <v>68</v>
       </c>
       <c r="D94" s="92" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E94" s="91"/>
       <c r="F94" s="91" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G94" s="91" t="s">
         <v>58</v>
@@ -4814,22 +4998,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="84">
         <v>3393957</v>
       </c>
       <c r="B95" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C95" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C95" s="11" t="s">
-        <v>212</v>
-      </c>
       <c r="D95" s="36" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E95" s="11"/>
       <c r="F95" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G95" s="11" t="s">
         <v>58</v>
@@ -4841,22 +5025,22 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="84">
         <v>3393926</v>
       </c>
       <c r="B96" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C96" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C96" s="11" t="s">
-        <v>212</v>
-      </c>
       <c r="D96" s="36" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E96" s="11"/>
       <c r="F96" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G96" t="s">
         <v>58</v>
@@ -4868,22 +5052,22 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="84">
         <v>3393799</v>
       </c>
       <c r="B97" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="C97" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="C97" s="11" t="s">
+      <c r="D97" s="36" t="s">
         <v>280</v>
-      </c>
-      <c r="D97" s="36" t="s">
-        <v>281</v>
       </c>
       <c r="E97" s="11"/>
       <c r="F97" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G97" s="11" t="s">
         <v>58</v>
@@ -4892,22 +5076,22 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="84">
         <v>3393958</v>
       </c>
       <c r="B98" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="C98" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="C98" s="11" t="s">
+      <c r="D98" s="36" t="s">
         <v>284</v>
-      </c>
-      <c r="D98" s="36" t="s">
-        <v>285</v>
       </c>
       <c r="E98" s="11"/>
       <c r="F98" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G98" s="11" t="s">
         <v>58</v>
@@ -4916,22 +5100,22 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="84">
         <v>3393792</v>
       </c>
       <c r="B99" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="C99" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="C99" s="11" t="s">
+      <c r="D99" s="36" t="s">
         <v>288</v>
-      </c>
-      <c r="D99" s="36" t="s">
-        <v>289</v>
       </c>
       <c r="E99" s="11"/>
       <c r="F99" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G99" s="11" t="s">
         <v>58</v>
@@ -4940,22 +5124,22 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="84">
         <v>3393959</v>
       </c>
       <c r="B100" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="C100" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="C100" s="11" t="s">
+      <c r="D100" s="36" t="s">
         <v>292</v>
-      </c>
-      <c r="D100" s="36" t="s">
-        <v>293</v>
       </c>
       <c r="E100" s="11"/>
       <c r="F100" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G100" s="11" t="s">
         <v>58</v>
@@ -4964,22 +5148,22 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="84">
         <v>3393950</v>
       </c>
       <c r="B101" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="C101" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="C101" s="11" t="s">
+      <c r="D101" s="36" t="s">
         <v>292</v>
-      </c>
-      <c r="D101" s="36" t="s">
-        <v>293</v>
       </c>
       <c r="E101" s="11"/>
       <c r="F101" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G101" s="11" t="s">
         <v>58</v>
@@ -4988,15 +5172,15 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="26">
         <v>3388696</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D102" s="45" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G102" t="s">
         <v>58</v>
@@ -5008,322 +5192,327 @@
         <v>65</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="11">
         <v>3345132</v>
       </c>
       <c r="B103" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="D103" s="36" t="s">
         <v>313</v>
       </c>
-      <c r="C103" s="11" t="s">
+      <c r="F103" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="D103" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="F103" s="11" t="s">
-        <v>316</v>
-      </c>
       <c r="G103" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H103" s="11">
+      <c r="H103" s="105">
         <v>65</v>
       </c>
       <c r="I103" s="11" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="11">
         <v>3392897</v>
       </c>
       <c r="B104" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="D104" s="45" t="s">
         <v>317</v>
       </c>
-      <c r="C104" s="11" t="s">
+      <c r="F104" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="D104" s="9" t="s">
+      <c r="G104" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="F104" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="G104" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="H104" s="11">
+      <c r="H104" s="101">
         <v>13.4</v>
       </c>
-      <c r="I104" s="11" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I104" s="101">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="11">
         <v>3393877</v>
       </c>
       <c r="B105" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="D105" s="45" t="s">
         <v>322</v>
       </c>
-      <c r="C105" s="11" t="s">
+      <c r="F105" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="D105" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="F105" s="11" t="s">
-        <v>325</v>
-      </c>
       <c r="G105" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H105" s="11">
+      <c r="H105" s="101">
         <v>45</v>
       </c>
     </row>
-    <row r="106" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="11">
         <v>3393985</v>
       </c>
       <c r="B106" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="D106" s="45" t="s">
         <v>322</v>
       </c>
-      <c r="C106" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="D106" s="9" t="s">
+      <c r="F106" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="F106" s="11" t="s">
-        <v>326</v>
-      </c>
       <c r="G106" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H106" s="11">
+      <c r="H106" s="101">
         <v>45</v>
       </c>
     </row>
-    <row r="107" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="11">
         <v>3393844</v>
       </c>
       <c r="B107" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D107" s="36" t="s">
         <v>327</v>
-      </c>
-      <c r="C107" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="D107" s="11" t="s">
-        <v>329</v>
       </c>
       <c r="E107" s="11">
         <v>7329151</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G107" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H107" s="11">
+      <c r="H107" s="101">
         <v>65</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="11">
         <v>2958822</v>
       </c>
       <c r="B108" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="D108" s="45" t="s">
         <v>331</v>
       </c>
-      <c r="C108" s="11" t="s">
+      <c r="E108" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="D108" s="9" t="s">
+      <c r="F108" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="E108" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="F108" s="11" t="s">
-        <v>335</v>
-      </c>
       <c r="G108" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="H108" s="11">
+        <v>198</v>
+      </c>
+      <c r="H108" s="101">
         <v>70</v>
       </c>
-      <c r="I108" s="11" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="109" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="11">
         <v>3393788</v>
       </c>
       <c r="B109" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="D109" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="F109" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="C109" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="D109" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="F109" s="11" t="s">
-        <v>340</v>
-      </c>
       <c r="G109" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H109" s="11">
+      <c r="H109" s="101">
         <v>65</v>
       </c>
     </row>
-    <row r="110" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="11">
         <v>3393790</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="D110" s="11" t="s">
-        <v>343</v>
+        <v>339</v>
+      </c>
+      <c r="D110" s="36" t="s">
+        <v>340</v>
       </c>
       <c r="E110" s="11">
         <v>7583967</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G110" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H110" s="11">
+      <c r="H110" s="101">
         <v>65</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="11">
         <v>3393990</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="D111" s="9" t="s">
-        <v>347</v>
+        <v>343</v>
+      </c>
+      <c r="D111" s="45" t="s">
+        <v>344</v>
       </c>
       <c r="E111" s="11">
         <v>2446944</v>
       </c>
       <c r="F111" s="11" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G111" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H111" s="11">
+      <c r="H111" s="101">
         <v>65</v>
       </c>
       <c r="I111" s="11" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="36">
         <v>3390767</v>
       </c>
-      <c r="D112" t="s">
-        <v>352</v>
+      <c r="D112" s="36" t="s">
+        <v>348</v>
       </c>
       <c r="G112" t="s">
         <v>19</v>
       </c>
-      <c r="H112">
+      <c r="H112" s="105">
         <v>13.4</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="36">
         <v>3390772</v>
       </c>
-      <c r="D113" s="84" t="s">
-        <v>353</v>
+      <c r="D113" s="36" t="s">
+        <v>349</v>
       </c>
       <c r="G113" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H113" s="11">
+      <c r="H113" s="105">
         <v>13.4</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="36">
         <v>3390785</v>
       </c>
-      <c r="D114" t="s">
-        <v>354</v>
+      <c r="D114" s="36" t="s">
+        <v>350</v>
       </c>
       <c r="G114" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H114" s="11">
+      <c r="H114" s="105">
         <v>13.4</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="36">
         <v>3390847</v>
       </c>
-      <c r="D115" t="s">
-        <v>355</v>
+      <c r="D115" s="36" t="s">
+        <v>351</v>
       </c>
       <c r="G115" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H115" s="11">
+      <c r="H115" s="100">
         <v>13.4</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="36">
         <v>3390848</v>
       </c>
-      <c r="D116" t="s">
-        <v>367</v>
+      <c r="D116" s="36" t="s">
+        <v>363</v>
       </c>
       <c r="G116" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H116" s="11">
+      <c r="H116" s="100">
         <v>13.4</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="36">
         <v>3390851</v>
       </c>
-      <c r="D117" t="s">
-        <v>356</v>
+      <c r="D117" s="36" t="s">
+        <v>352</v>
       </c>
       <c r="G117" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H117" s="11">
+      <c r="H117" s="100">
         <v>13.4</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G119" t="s">
+        <v>374</v>
+      </c>
+      <c r="H119" s="100">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B121" s="31"/>
       <c r="F121" s="32"/>
     </row>
@@ -5335,27 +5524,495 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="21" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" style="21" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="41"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="13">
+        <v>65</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="1:9" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>3388568</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="35">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>3388525</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="35">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>3388505</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="35">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>3388495</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="35">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="35"/>
+    </row>
+    <row r="8" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>3388598</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="13">
+        <v>6250591</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="35"/>
+    </row>
+    <row r="10" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>3388573</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="13">
+        <v>8240436</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="35">
+        <v>90</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="35"/>
+    </row>
+    <row r="12" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>3077115</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" s="35">
+        <v>70</v>
+      </c>
+      <c r="I12" s="11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="35"/>
+    </row>
+    <row r="14" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>3388643</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="13">
+        <v>5222179</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="35"/>
+    </row>
+    <row r="16" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>3345534</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="35"/>
+    </row>
+    <row r="18" spans="1:10" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>3388620</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="35">
+        <v>6.7</v>
+      </c>
+      <c r="I18" s="11">
+        <v>45</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>3388488</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="35">
+        <v>6.7</v>
+      </c>
+      <c r="I19" s="11">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="35"/>
+    </row>
+    <row r="21" spans="1:10" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <v>3388482</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="35">
+        <v>6.7</v>
+      </c>
+      <c r="I21" s="11">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
+        <v>3388521</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="35">
+        <v>6.7</v>
+      </c>
+      <c r="I22" s="11">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.1796875" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.26953125" customWidth="1"/>
-    <col min="5" max="5" width="25.1796875" style="21" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="21" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" style="21" customWidth="1"/>
     <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="11" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="11" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>23</v>
       </c>
@@ -5379,7 +6036,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="11" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" s="11" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>41</v>
       </c>
@@ -5403,7 +6060,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="11" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" s="11" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>3370942</v>
       </c>
@@ -5421,7 +6078,7 @@
       <c r="I3" s="15"/>
       <c r="J3" s="17"/>
     </row>
-    <row r="4" spans="1:10" s="11" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" s="11" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>26</v>
       </c>
@@ -5445,7 +6102,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="11" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" s="11" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>29</v>
       </c>
@@ -5477,31 +6134,251 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13">
+        <v>3345132</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="13">
+        <v>65</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="1:13" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="98">
+        <v>3390772</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="86" t="s">
+        <v>349</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="13">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="1:13" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="98">
+        <v>3390785</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="E5" s="24"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="13">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="98">
+        <v>3390767</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="E7" s="24"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="13">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+    </row>
+    <row r="9" spans="1:13" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="104" t="s">
+        <v>367</v>
+      </c>
+      <c r="H9" s="13">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="1:13" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="98">
+        <v>3390848</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="E11" s="24"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="13">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="75" t="s">
+        <v>361</v>
+      </c>
+      <c r="B30" s="31"/>
+      <c r="C30" s="32" t="s">
+        <v>359</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="E30" s="33"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="56">
+        <v>65</v>
+      </c>
+      <c r="I30" s="34" t="s">
+        <v>362</v>
+      </c>
+      <c r="K30" s="29"/>
+      <c r="L30" s="30"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.81640625" style="21" customWidth="1"/>
-    <col min="6" max="6" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" style="21" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="11" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="11" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="98">
         <v>3390848</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="18" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E1" s="24"/>
       <c r="F1" s="13"/>
@@ -5512,7 +6389,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -5522,14 +6399,14 @@
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="1:8" s="11" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" s="11" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="98">
         <v>3390851</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="18" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E3" s="24"/>
       <c r="F3" s="13"/>
@@ -5540,7 +6417,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -5550,22 +6427,22 @@
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="1:8" s="11" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" s="11" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="86">
         <v>3393885</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="D5" s="18" t="s">
         <v>254</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>255</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>58</v>
@@ -5574,7 +6451,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -5584,22 +6461,22 @@
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:8" s="11" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" s="11" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="86">
         <v>3393784</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="D7" s="18" t="s">
         <v>242</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>243</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>58</v>
@@ -5608,7 +6485,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -5618,22 +6495,22 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" s="11" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" s="11" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="94">
         <v>3393932</v>
       </c>
       <c r="B9" s="96" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C9" s="96" t="s">
         <v>68</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E9" s="96"/>
       <c r="F9" s="96" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G9" s="96" t="s">
         <v>58</v>
@@ -5642,7 +6519,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -5652,14 +6529,14 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" s="11" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" s="11" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="98">
         <v>3390847</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="18" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E11" s="24"/>
       <c r="F11" s="13"/>
@@ -5675,7 +6552,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K45"/>
   <sheetViews>
@@ -5683,30 +6560,30 @@
       <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="19.7265625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="6.81640625" customWidth="1"/>
-    <col min="4" max="4" width="33.1796875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="21" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="86">
         <v>3393957</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>212</v>
-      </c>
       <c r="D1" s="18" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E1" s="13"/>
       <c r="F1" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>58</v>
@@ -5718,22 +6595,22 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="86">
         <v>3393926</v>
       </c>
       <c r="B2" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>212</v>
-      </c>
       <c r="D2" s="18" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>58</v>
@@ -5745,7 +6622,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="18"/>
       <c r="C3" s="13"/>
@@ -5754,22 +6631,22 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
     </row>
-    <row r="4" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="86">
         <v>3393958</v>
       </c>
       <c r="B4" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="18" t="s">
         <v>284</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>285</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G4" s="13" t="s">
         <v>58</v>
@@ -5778,7 +6655,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="18"/>
       <c r="C5" s="13"/>
@@ -5787,22 +6664,22 @@
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
     </row>
-    <row r="6" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="86">
         <v>3393955</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="D6" s="18" t="s">
         <v>237</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>238</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>58</v>
@@ -5811,7 +6688,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="18"/>
       <c r="C7" s="13"/>
@@ -5820,22 +6697,22 @@
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="86">
         <v>3393774</v>
       </c>
       <c r="B8" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>223</v>
-      </c>
       <c r="D8" s="18" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>58</v>
@@ -5845,7 +6722,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="18"/>
       <c r="C9" s="13"/>
@@ -5854,22 +6731,22 @@
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
     </row>
-    <row r="10" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="86">
         <v>3393901</v>
       </c>
       <c r="B10" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="D10" s="18" t="s">
         <v>250</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>251</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G10" s="13" t="s">
         <v>58</v>
@@ -5878,22 +6755,22 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="86">
         <v>3393904</v>
       </c>
       <c r="B11" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="D11" s="18" t="s">
         <v>250</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>251</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G11" s="13" t="s">
         <v>58</v>
@@ -5902,7 +6779,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="18"/>
       <c r="C12" s="13"/>
@@ -5911,22 +6788,22 @@
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
     </row>
-    <row r="13" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="86">
         <v>3393959</v>
       </c>
       <c r="B13" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="D13" s="18" t="s">
         <v>292</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>293</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>58</v>
@@ -5935,22 +6812,22 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="86">
         <v>3393950</v>
       </c>
       <c r="B14" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="D14" s="18" t="s">
         <v>292</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>293</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>58</v>
@@ -5959,7 +6836,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="18"/>
       <c r="C15" s="13"/>
@@ -5968,22 +6845,22 @@
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
     </row>
-    <row r="16" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="86">
         <v>3393942</v>
       </c>
       <c r="B16" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="D16" s="18" t="s">
         <v>246</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>247</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>58</v>
@@ -5992,10 +6869,10 @@
         <v>13.4</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="18"/>
       <c r="C17" s="13"/>
@@ -6004,31 +6881,31 @@
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="86">
         <v>3393914</v>
       </c>
       <c r="B18" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="D18" s="18" t="s">
         <v>219</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>220</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H18" s="11">
         <v>13.4</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="86"/>
       <c r="B19" s="18"/>
       <c r="C19" s="13"/>
@@ -6037,22 +6914,22 @@
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="86">
         <v>3393800</v>
       </c>
       <c r="B20" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="D20" s="18" t="s">
         <v>230</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>231</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G20" s="13" t="s">
         <v>58</v>
@@ -6061,18 +6938,18 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="86">
         <v>3393935</v>
       </c>
       <c r="B21" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="D21" s="18" t="s">
         <v>230</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>231</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="88">
@@ -6085,7 +6962,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="18"/>
       <c r="C22" s="13"/>
@@ -6094,31 +6971,31 @@
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
     </row>
-    <row r="23" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="86">
         <v>3393849</v>
       </c>
       <c r="B23" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="D23" s="18" t="s">
         <v>215</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>216</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H23" s="11">
         <v>13.4</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="18"/>
       <c r="C24" s="13"/>
@@ -6127,22 +7004,22 @@
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
     </row>
-    <row r="25" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="86">
         <v>3393922</v>
       </c>
       <c r="B25" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="D25" s="18" t="s">
         <v>265</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>266</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>58</v>
@@ -6151,22 +7028,22 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="86">
         <v>3393824</v>
       </c>
       <c r="B26" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="D26" s="18" t="s">
         <v>265</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>266</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>58</v>
@@ -6175,18 +7052,18 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="86">
         <v>3393937</v>
       </c>
       <c r="B27" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="C27" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="D27" s="18" t="s">
         <v>265</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>266</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="89">
@@ -6199,7 +7076,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="18"/>
       <c r="C28" s="13"/>
@@ -6208,22 +7085,22 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
     </row>
-    <row r="29" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="86">
         <v>3393957</v>
       </c>
       <c r="B29" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="C29" s="13" t="s">
-        <v>212</v>
-      </c>
       <c r="D29" s="18" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G29" s="13" t="s">
         <v>58</v>
@@ -6235,25 +7112,25 @@
         <v>6.7</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="86">
         <v>3393926</v>
       </c>
       <c r="B30" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="C30" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="C30" s="13" t="s">
-        <v>212</v>
-      </c>
       <c r="D30" s="18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G30" s="13" t="s">
         <v>58</v>
@@ -6265,7 +7142,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="18"/>
       <c r="C31" s="13"/>
@@ -6274,16 +7151,16 @@
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
     </row>
-    <row r="32" spans="1:11" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="50">
         <v>3388696</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E32" s="24"/>
       <c r="F32" s="13"/>
@@ -6297,7 +7174,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="18"/>
       <c r="C33" s="13"/>
@@ -6306,22 +7183,22 @@
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
     </row>
-    <row r="41" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="86">
         <v>3393885</v>
       </c>
       <c r="B41" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="C41" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="D41" s="18" t="s">
         <v>254</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>255</v>
       </c>
       <c r="E41" s="13"/>
       <c r="F41" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G41" s="13" t="s">
         <v>58</v>
@@ -6330,10 +7207,10 @@
         <v>13.4</v>
       </c>
       <c r="K41" s="11" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
       <c r="B42" s="18"/>
       <c r="C42" s="13"/>
@@ -6342,22 +7219,22 @@
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
     </row>
-    <row r="43" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="94">
         <v>3393932</v>
       </c>
       <c r="B43" s="95" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C43" s="96" t="s">
         <v>68</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E43" s="96"/>
       <c r="F43" s="96" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G43" s="96" t="s">
         <v>58</v>
@@ -6366,7 +7243,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="86"/>
       <c r="B44" s="18"/>
       <c r="C44" s="13"/>
@@ -6375,450 +7252,27 @@
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
     </row>
-    <row r="45" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="86">
         <v>3393784</v>
       </c>
       <c r="B45" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="C45" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="D45" s="18" t="s">
         <v>242</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>243</v>
       </c>
       <c r="E45" s="13"/>
       <c r="F45" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G45" s="13" t="s">
         <v>58</v>
       </c>
       <c r="H45" s="11">
-        <v>13.4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.81640625" customWidth="1"/>
-    <col min="3" max="3" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.7265625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.453125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="85">
-        <v>3393000</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="65">
-        <v>2763.41</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="11">
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-    </row>
-    <row r="3" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="85">
-        <v>2382326</v>
-      </c>
-      <c r="B3" s="51" t="s">
-        <v>201</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="65">
-        <v>96699.83</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="H3" s="11">
-        <v>13.4</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="85"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="85">
-        <v>3393005</v>
-      </c>
-      <c r="B5" s="51" t="s">
-        <v>203</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="65">
-        <v>4857.4799999999996</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="11">
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-    </row>
-    <row r="7" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="86">
-        <v>3393799</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>281</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="11">
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="86">
-        <v>3393792</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" s="11">
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-    </row>
-    <row r="11" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="86">
-        <v>3393822</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="11">
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-    </row>
-    <row r="13" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="86">
-        <v>3393813</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" s="11">
-        <v>13.4</v>
-      </c>
-      <c r="I13" s="11">
-        <v>13.4</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="86">
-        <v>3393842</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="E15" s="13">
-        <v>8668637</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" s="11">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="86">
-        <v>3393839</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="E16" s="13">
-        <v>8668637</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="11">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="86">
-        <v>3393840</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="E17" s="13">
-        <v>8668637</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H17" s="11">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-    </row>
-    <row r="19" spans="1:8" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="86">
-        <v>3393803</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="E19" s="13">
-        <v>6977286</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H19" s="11">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="86">
-        <v>3393785</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="E20" s="13">
-        <v>6977286</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H20" s="11">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="84">
-        <v>3393819</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="H22" s="11">
         <v>13.4</v>
       </c>
     </row>
@@ -6830,24 +7284,447 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" style="21" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="85">
+        <v>3393000</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="65">
+        <v>2763.41</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="11">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="85">
+        <v>2382326</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="65">
+        <v>96699.83</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="H3" s="11">
+        <v>13.4</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="85"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="85">
+        <v>3393005</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="E5" s="24"/>
+      <c r="F5" s="65">
+        <v>4857.4799999999996</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="11">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="86">
+        <v>3393799</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="11">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="86">
+        <v>3393792</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="11">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="86">
+        <v>3393822</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="11">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="86">
+        <v>3393813</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="11">
+        <v>13.4</v>
+      </c>
+      <c r="I13" s="11">
+        <v>13.4</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="86">
+        <v>3393842</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="E15" s="13">
+        <v>8668637</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="86">
+        <v>3393839</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="E16" s="13">
+        <v>8668637</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="86">
+        <v>3393840</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="E17" s="13">
+        <v>8668637</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="1:8" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="86">
+        <v>3393803</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="E19" s="13">
+        <v>6977286</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="11">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="86">
+        <v>3393785</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="E20" s="13">
+        <v>6977286</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="11">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="84">
+        <v>3393819</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="H22" s="11">
+        <v>13.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="11" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="62">
         <v>3388794</v>
       </c>
@@ -6871,7 +7748,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -6882,7 +7759,7 @@
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
     </row>
-    <row r="3" spans="1:9" s="11" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="50">
         <v>3390742</v>
       </c>
@@ -6905,7 +7782,7 @@
       </c>
       <c r="I3" s="13"/>
     </row>
-    <row r="4" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -6916,7 +7793,7 @@
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" s="11" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="50">
         <v>3390695</v>
       </c>
@@ -6939,7 +7816,7 @@
       </c>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:9" s="11" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="50">
         <v>3390685</v>
       </c>
@@ -6962,7 +7839,7 @@
       </c>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:9" s="11" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="50">
         <v>3390714</v>
       </c>
@@ -6985,7 +7862,7 @@
       </c>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -6996,7 +7873,7 @@
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:9" s="11" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="50">
         <v>3277813</v>
       </c>
@@ -7019,7 +7896,7 @@
       </c>
       <c r="I9" s="13"/>
     </row>
-    <row r="19" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="26">
         <v>3389888</v>
       </c>
@@ -7045,7 +7922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
@@ -7053,9 +7930,9 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26">
         <v>3282649</v>
       </c>
@@ -7076,7 +7953,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26">
         <v>3282639</v>
       </c>
@@ -7097,7 +7974,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26">
         <v>3282647</v>
       </c>
@@ -7118,7 +7995,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
         <v>3390706</v>
       </c>
@@ -7139,7 +8016,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>178</v>
       </c>
@@ -7155,7 +8032,7 @@
       </c>
       <c r="K7" s="61"/>
     </row>
-    <row r="9" spans="1:11" s="11" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" s="11" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>172</v>
       </c>
@@ -7183,7 +8060,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
@@ -7191,19 +8068,19 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7265625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="1.7265625" customWidth="1"/>
-    <col min="6" max="6" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="21" customWidth="1"/>
+    <col min="5" max="5" width="1.7109375" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13">
         <v>3388794</v>
       </c>
@@ -7227,7 +8104,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -7237,7 +8114,7 @@
       <c r="G2" s="13"/>
       <c r="H2" s="35"/>
     </row>
-    <row r="3" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>3388499</v>
       </c>
@@ -7261,7 +8138,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>3388641</v>
       </c>
@@ -7285,7 +8162,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -7295,7 +8172,7 @@
       <c r="G5" s="13"/>
       <c r="H5" s="49"/>
     </row>
-    <row r="6" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>3388646</v>
       </c>
@@ -7319,7 +8196,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -7329,7 +8206,7 @@
       <c r="G7" s="13"/>
       <c r="H7" s="35"/>
     </row>
-    <row r="8" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>3388490</v>
       </c>
@@ -7353,7 +8230,7 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>3388576</v>
       </c>
@@ -7377,7 +8254,7 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>3388533</v>
       </c>
@@ -7401,7 +8278,7 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>3388541</v>
       </c>
@@ -7425,7 +8302,7 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -7435,7 +8312,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="35"/>
     </row>
-    <row r="13" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>3388519</v>
       </c>
@@ -7459,7 +8336,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -7469,7 +8346,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="35"/>
     </row>
-    <row r="15" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
         <v>142</v>
       </c>
@@ -7490,7 +8367,7 @@
       </c>
       <c r="I15" s="34"/>
     </row>
-    <row r="16" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37"/>
       <c r="B16" s="38"/>
       <c r="C16" s="39"/>
@@ -7501,7 +8378,7 @@
       <c r="H16" s="13"/>
       <c r="I16" s="34"/>
     </row>
-    <row r="17" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>144</v>
       </c>
@@ -7521,7 +8398,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="37"/>
       <c r="B18" s="13"/>
       <c r="C18" s="39"/>
@@ -7531,7 +8408,7 @@
       <c r="G18" s="42"/>
       <c r="H18" s="13"/>
     </row>
-    <row r="19" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>2634834</v>
       </c>
@@ -7555,7 +8432,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -7565,7 +8442,7 @@
       <c r="G20" s="13"/>
       <c r="H20" s="35"/>
     </row>
-    <row r="21" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>3388603</v>
       </c>
@@ -7589,7 +8466,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -7599,7 +8476,7 @@
       <c r="G22" s="13"/>
       <c r="H22" s="35"/>
     </row>
-    <row r="23" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="50">
         <v>3389861</v>
       </c>
@@ -7623,7 +8500,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -7633,7 +8510,7 @@
       <c r="G24" s="13"/>
       <c r="H24" s="35"/>
     </row>
-    <row r="25" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>3388693</v>
       </c>
@@ -7657,7 +8534,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>3388536</v>
       </c>
@@ -7687,7 +8564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
@@ -7695,17 +8572,17 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.54296875" style="21" customWidth="1"/>
-    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" style="21" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>139</v>
       </c>
@@ -7728,7 +8605,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -7739,7 +8616,7 @@
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
     </row>
-    <row r="3" spans="1:9" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
         <v>131</v>
       </c>
@@ -7760,7 +8637,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -7771,7 +8648,7 @@
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
         <v>136</v>
       </c>
@@ -7794,7 +8671,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="C7" s="32"/>
       <c r="D7" s="32"/>
@@ -7806,472 +8683,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7265625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.54296875" style="21" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="13">
-        <v>65</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-    </row>
-    <row r="3" spans="1:9" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="13">
-        <v>3388568</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="35">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13">
-        <v>3388525</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="35">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13">
-        <v>3388505</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" s="35">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13">
-        <v>3388495</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" s="35">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="13"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="35"/>
-    </row>
-    <row r="8" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13">
-        <v>3388598</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" s="13">
-        <v>6250591</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="35">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="13"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="35"/>
-    </row>
-    <row r="10" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="13">
-        <v>3388573</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="E10" s="13">
-        <v>8240436</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="35">
-        <v>90</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="13"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="35"/>
-    </row>
-    <row r="12" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="13">
-        <v>3077115</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="H12" s="35">
-        <v>70</v>
-      </c>
-      <c r="I12" s="11">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="13"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="35"/>
-    </row>
-    <row r="14" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="13">
-        <v>3388643</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="E14" s="13">
-        <v>5222179</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="35">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="13"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="35"/>
-    </row>
-    <row r="16" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="13">
-        <v>3345534</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="35">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="13"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="35"/>
-    </row>
-    <row r="18" spans="1:10" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="13">
-        <v>3388620</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" s="35">
-        <v>6.7</v>
-      </c>
-      <c r="I18" s="11">
-        <v>45</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="13">
-        <v>3388488</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H19" s="35">
-        <v>6.7</v>
-      </c>
-      <c r="I19" s="11">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="13"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="35"/>
-    </row>
-    <row r="21" spans="1:10" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="13">
-        <v>3388482</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H21" s="35">
-        <v>6.7</v>
-      </c>
-      <c r="I21" s="11">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="13">
-        <v>3388521</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H22" s="35">
-        <v>6.7</v>
-      </c>
-      <c r="I22" s="11">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>